--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -4108,7 +4108,7 @@
         <v>250</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$232</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="272">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -37,844 +37,802 @@
     <t>Leon Draisaitl</t>
   </si>
   <si>
+    <t>Auston Matthews</t>
+  </si>
+  <si>
     <t>Nathan MacKinnon</t>
   </si>
   <si>
+    <t>Igor Shesterkin</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
+    <t>Kirill Kaprizov</t>
+  </si>
+  <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
     <t>Nikita Kucherov</t>
   </si>
   <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
-    <t>Auston Matthews</t>
-  </si>
-  <si>
     <t>Mikko Rantanen</t>
   </si>
   <si>
+    <t>Victor Hedman</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Matthew Tkachuk</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
     <t>Alex Ovechkin</t>
   </si>
   <si>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Ilya Sorokin</t>
+  </si>
+  <si>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
     <t>David Pastrnak</t>
   </si>
   <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Gabriel Landeskog</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Brady Tkachuk</t>
+  </si>
+  <si>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
     <t>Patrick Kane</t>
   </si>
   <si>
-    <t>Jonathan Huberdeau</t>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Jack Hughes</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
+    <t>Connor Hellebuyck</t>
+  </si>
+  <si>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Marc-Andre Fleury</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Max Pacioretty</t>
+  </si>
+  <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Jacob Trouba</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Patrice Bergeron</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Trevor Zegras</t>
+  </si>
+  <si>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Jonathan Quick</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Alexandar Georgiev</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Alec Martinez</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
   </si>
   <si>
     <t>Brad Marchand</t>
   </si>
   <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Connor Hellebuyck</t>
-  </si>
-  <si>
-    <t>Sebastian Aho</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
-  </si>
-  <si>
-    <t>Victor Hedman</t>
-  </si>
-  <si>
-    <t>Cale Makar</t>
-  </si>
-  <si>
-    <t>Mitch Marner</t>
-  </si>
-  <si>
-    <t>Robin Lehner</t>
-  </si>
-  <si>
-    <t>Adam Fox</t>
-  </si>
-  <si>
-    <t>Mika Zibanejad</t>
-  </si>
-  <si>
-    <t>Sidney Crosby</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
   </si>
   <si>
     <t>Brayden Point</t>
   </si>
   <si>
-    <t>Kirill Kaprizov</t>
-  </si>
-  <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
-    <t>Brady Tkachuk</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
-    <t>Juuse Saros</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
-    <t>Kyle Connor</t>
-  </si>
-  <si>
-    <t>Elias Pettersson</t>
-  </si>
-  <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Gabriel Landeskog</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Matthew Tkachuk</t>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Anton Forsberg</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
   </si>
   <si>
     <t>Ryan O'Reilly</t>
   </si>
   <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
     <t>Tyler Seguin</t>
   </si>
   <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>David Krejci</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
     <t>Philipp Grubauer</t>
   </si>
   <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Igor Shesterkin</t>
-  </si>
-  <si>
-    <t>Roope Hintz</t>
-  </si>
-  <si>
-    <t>Max Pacioretty</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Jakob Chychrun</t>
-  </si>
-  <si>
-    <t>Alec Martinez</t>
-  </si>
-  <si>
-    <t>J.T. Miller</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Marc-Andre Fleury</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Ivan Provorov</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Sam Reinhart</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
-  </si>
-  <si>
-    <t>Nick Suzuki</t>
-  </si>
-  <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Quinn Hughes</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Nicklas Backstrom</t>
-  </si>
-  <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Ilya Sorokin</t>
-  </si>
-  <si>
-    <t>Mike Smith</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Carey Price</t>
-  </si>
-  <si>
-    <t>Jacob Trouba</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Elias Lindholm</t>
-  </si>
-  <si>
-    <t>Drew Doughty</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
+    <t>Rickard Rakell</t>
+  </si>
+  <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Vasily Podkolzin</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
   </si>
   <si>
     <t>Ondrej Palat</t>
   </si>
   <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
-    <t>Rasmus Ristolainen</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
-    <t>Miro Heiskanen</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Petr Mrazek</t>
-  </si>
-  <si>
-    <t>Jack Eichel</t>
-  </si>
-  <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
-    <t>Alexander Radulov</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Jason Robertson</t>
-  </si>
-  <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Jean-Gabriel Pageau</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
-  </si>
-  <si>
-    <t>Martin Necas</t>
-  </si>
-  <si>
-    <t>William Nylander</t>
-  </si>
-  <si>
-    <t>David Perron</t>
+    <t>Phillip Danault</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Dysin Mayo</t>
   </si>
   <si>
     <t>Anders Lee</t>
   </si>
   <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Jonathan Toews</t>
-  </si>
-  <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
-    <t>Kevin Lankinen</t>
-  </si>
-  <si>
-    <t>Cole Caufield</t>
-  </si>
-  <si>
-    <t>Josh Norris</t>
-  </si>
-  <si>
-    <t>Chris Kreider</t>
-  </si>
-  <si>
-    <t>Mackenzie Blackwood-DUP</t>
-  </si>
-  <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
+    <t>Chandler Stephenson</t>
   </si>
   <si>
     <t>Travis Konecny</t>
   </si>
   <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Alex Goligoski</t>
-  </si>
-  <si>
     <t>Ryan Strome</t>
   </si>
   <si>
-    <t>Sergei Bobrovsky</t>
-  </si>
-  <si>
-    <t>Ryan Ellis</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Samuel Girard</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Conor Garland</t>
-  </si>
-  <si>
-    <t>Frank Vatrano</t>
-  </si>
-  <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Carter Hart</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>Ty Smith</t>
-  </si>
-  <si>
-    <t>Kevin Fiala</t>
-  </si>
-  <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Oliver Bjorkstrand</t>
-  </si>
-  <si>
-    <t>Jeremy Swayman</t>
-  </si>
-  <si>
-    <t>Alex Nedeljkovic</t>
-  </si>
-  <si>
-    <t>Jack Hughes</t>
-  </si>
-  <si>
-    <t>William Karlsson</t>
-  </si>
-  <si>
-    <t>Jake Muzzin</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Dominik Kubalik</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Maxime Comtois</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Mattias Ekholm</t>
-  </si>
-  <si>
-    <t>Nikita Zaitsev</t>
-  </si>
-  <si>
-    <t>Rasmus Dahlin</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Jake Oettinger</t>
-  </si>
-  <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Josh Morrissey</t>
+    <t>Mason McTavish</t>
   </si>
   <si>
     <t>Jakub Voracek</t>
   </si>
   <si>
-    <t>Mike Hoffman</t>
-  </si>
-  <si>
-    <t>Kaapo Kahkonen</t>
-  </si>
-  <si>
-    <t>Christian Dvorak</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Tuukka Rask</t>
-  </si>
-  <si>
-    <t>Braden Holtby</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Matt Grzelcyk</t>
-  </si>
-  <si>
-    <t>Patric Hornqvist</t>
-  </si>
-  <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
-    <t>Anthony Mantha</t>
-  </si>
-  <si>
-    <t>Joel Farabee</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Andrew Copp</t>
-  </si>
-  <si>
-    <t>Jack Roslovic</t>
-  </si>
-  <si>
-    <t>Alexandar Georgiev</t>
-  </si>
-  <si>
-    <t>Tyler Myers</t>
-  </si>
-  <si>
-    <t>Zach Whitecloud</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Robby Fabbri</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Craig Smith</t>
-  </si>
-  <si>
-    <t>Mikael Backlund</t>
-  </si>
-  <si>
-    <t>Yanni Gourde</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Keith Yandle</t>
-  </si>
-  <si>
-    <t>Mikko Koskinen</t>
-  </si>
-  <si>
-    <t>Anton Khudobin</t>
-  </si>
-  <si>
-    <t>Sean Monahan</t>
-  </si>
-  <si>
-    <t>Adam Pelech</t>
-  </si>
-  <si>
-    <t>Brandon Tanev</t>
-  </si>
-  <si>
-    <t>Evgenii Dadonov</t>
-  </si>
-  <si>
-    <t>Ryan Suter</t>
-  </si>
-  <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
-    <t>P.K. Subban</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Phillip Danault</t>
-  </si>
-  <si>
-    <t>Jonathan Bernier</t>
-  </si>
-  <si>
-    <t>Nils Hoglander</t>
-  </si>
-  <si>
-    <t>Kirby Dach</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>K'Andre Miller</t>
-  </si>
-  <si>
-    <t>Connor Brown</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>James van Riemsdyk</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Justin Schultz</t>
-  </si>
-  <si>
-    <t>Brian Dumoulin</t>
-  </si>
-  <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Jamie Drysdale</t>
-  </si>
-  <si>
-    <t>Ryan McDonagh</t>
-  </si>
-  <si>
-    <t>Jamie Oleksiak</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Jaden Schwartz</t>
-  </si>
-  <si>
-    <t>Joonas Donskoi</t>
-  </si>
-  <si>
-    <t>Kasperi Kapanen</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>RW</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>EDM</t>
   </si>
   <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>COL</t>
   </si>
   <si>
+    <t>NYR</t>
+  </si>
+  <si>
     <t>TB</t>
   </si>
   <si>
-    <t>TOR</t>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>NSH</t>
   </si>
   <si>
     <t>WSH</t>
   </si>
   <si>
+    <t>CGY</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>NYI</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>WPG</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>CBJ</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>VGK</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>CGY</t>
-  </si>
-  <si>
-    <t>NYR</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>WPG</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>VGK</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
     <t>NJ</t>
   </si>
   <si>
-    <t>NSH</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>DAL</t>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>ANA</t>
   </si>
   <si>
     <t>SEA</t>
   </si>
   <si>
-    <t>NYI</t>
-  </si>
-  <si>
     <t>ARI</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>CBJ</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>BUF</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1277,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1291,10 +1249,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1305,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1319,10 +1277,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1333,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1347,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1361,10 +1319,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1375,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1389,10 +1347,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1403,10 +1361,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1417,10 +1375,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1431,10 +1389,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1445,10 +1403,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1459,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1473,10 +1431,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1487,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
         <v>249</v>
-      </c>
-      <c r="D18" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1501,10 +1459,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1515,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1529,10 +1487,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1543,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1557,10 +1515,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1571,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1585,10 +1543,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1599,10 +1557,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1613,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1627,10 +1585,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1641,10 +1599,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1655,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1669,10 +1627,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1683,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1697,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1711,10 +1669,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1725,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1739,10 +1697,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1753,10 +1711,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1767,10 +1725,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1781,10 +1739,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1795,10 +1753,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1809,10 +1767,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1823,10 +1781,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1837,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1851,10 +1809,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1865,10 +1823,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1879,10 +1837,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1893,10 +1851,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1907,10 +1865,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1921,10 +1879,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1935,10 +1893,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1949,10 +1907,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1963,10 +1921,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1977,10 +1935,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1991,10 +1949,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2005,10 +1963,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2019,10 +1977,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2033,10 +1991,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2047,10 +2005,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2061,10 +2019,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2075,10 +2033,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2089,10 +2047,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2103,10 +2061,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2117,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2131,10 +2089,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2145,10 +2103,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2159,10 +2117,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2173,10 +2131,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2187,10 +2145,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2201,10 +2159,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2215,10 +2173,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2229,10 +2187,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2243,10 +2201,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2257,10 +2215,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2271,10 +2229,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2285,10 +2243,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2299,10 +2257,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2313,10 +2271,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2327,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2341,10 +2299,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" t="s">
         <v>249</v>
-      </c>
-      <c r="D79" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2355,10 +2313,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2369,10 +2327,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2383,10 +2341,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2397,10 +2355,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2411,10 +2369,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2425,10 +2383,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2439,10 +2397,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2453,10 +2411,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2467,10 +2425,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2481,10 +2439,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2495,10 +2453,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2509,10 +2467,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2523,10 +2481,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2537,10 +2495,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2551,10 +2509,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2565,10 +2523,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2579,10 +2537,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2593,10 +2551,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2607,10 +2565,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98" t="s">
         <v>253</v>
-      </c>
-      <c r="D98" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2621,10 +2579,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2635,10 +2593,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2649,10 +2607,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2663,10 +2621,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2677,10 +2635,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2691,10 +2649,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2705,10 +2663,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D105" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2719,10 +2677,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2733,10 +2691,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2747,10 +2705,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2761,10 +2719,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2775,10 +2733,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2789,10 +2747,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s">
         <v>249</v>
-      </c>
-      <c r="D111" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2803,10 +2761,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2817,10 +2775,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2831,10 +2789,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2845,10 +2803,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2859,10 +2817,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2873,10 +2831,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2887,10 +2845,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2901,10 +2859,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D119" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2915,10 +2873,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2929,10 +2887,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2943,10 +2901,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2957,10 +2915,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D123" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2971,10 +2929,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D124" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2985,7 +2943,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D125" t="s">
         <v>262</v>
@@ -2999,10 +2957,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3013,10 +2971,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3027,10 +2985,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3041,10 +2999,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3055,10 +3013,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3069,10 +3027,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D131" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3083,10 +3041,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3097,10 +3055,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3111,10 +3069,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D134" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3125,10 +3083,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3139,10 +3097,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3153,10 +3111,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3167,10 +3125,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3181,10 +3139,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3195,10 +3153,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D140" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3209,10 +3167,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3223,10 +3181,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D142" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3237,10 +3195,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3251,10 +3209,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D144" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3265,10 +3223,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D145" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3279,10 +3237,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3293,10 +3251,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3307,10 +3265,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3321,10 +3279,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3335,10 +3293,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3349,10 +3307,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D151" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3363,10 +3321,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D152" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3377,10 +3335,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3391,10 +3349,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3405,10 +3363,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3419,10 +3377,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D156" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3433,10 +3391,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D157" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3447,10 +3405,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3461,10 +3419,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D159" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3475,10 +3433,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D160" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3489,10 +3447,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D161" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3503,10 +3461,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D162" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3517,10 +3475,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3531,10 +3489,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D164" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3545,10 +3503,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D165" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3559,10 +3517,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D166" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3573,10 +3531,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D167" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3587,10 +3545,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D168" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3601,10 +3559,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3615,10 +3573,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D170" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3629,10 +3587,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D171" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3643,10 +3601,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3657,10 +3615,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D173" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3671,10 +3629,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D174" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3685,10 +3643,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D175" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3699,10 +3657,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3713,10 +3671,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D177" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3727,10 +3685,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3741,10 +3699,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3755,10 +3713,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D180" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3769,10 +3727,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3783,10 +3741,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
+        <v>238</v>
+      </c>
+      <c r="D182" t="s">
         <v>251</v>
-      </c>
-      <c r="D182" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3797,10 +3755,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D183" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3811,10 +3769,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D184" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3825,10 +3783,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D185" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3839,10 +3797,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D186" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3853,10 +3811,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D187" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3867,10 +3825,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D188" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3881,10 +3839,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D189" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3895,10 +3853,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D190" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3909,10 +3867,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
+        <v>235</v>
+      </c>
+      <c r="D191" t="s">
         <v>251</v>
-      </c>
-      <c r="D191" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3923,10 +3881,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D192" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3937,10 +3895,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D193" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3951,10 +3909,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3965,10 +3923,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D195" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3979,10 +3937,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D196" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3993,10 +3951,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D197" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4007,10 +3965,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D198" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4021,10 +3979,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D199" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4035,10 +3993,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D200" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4049,10 +4007,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D201" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4063,10 +4021,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D202" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4077,10 +4035,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D203" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4091,10 +4049,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D204" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4105,10 +4063,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D205" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4119,10 +4077,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D206" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4133,10 +4091,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D207" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4147,10 +4105,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D208" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4161,10 +4119,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D209" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4175,10 +4133,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D210" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4189,10 +4147,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D211" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4203,10 +4161,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D212" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4217,10 +4175,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D213" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4231,10 +4189,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D214" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4245,10 +4203,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4259,10 +4217,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4273,10 +4231,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D217" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4287,10 +4245,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D218" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4301,10 +4259,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D219" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4315,10 +4273,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4329,10 +4287,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D221" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4343,10 +4301,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D222" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4357,10 +4315,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4371,10 +4329,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D224" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4385,10 +4343,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D225" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4399,10 +4357,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D226" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4413,10 +4371,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D227" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4427,10 +4385,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D228" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4441,10 +4399,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D229" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4455,10 +4413,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D230" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4469,10 +4427,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D231" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4483,210 +4441,14 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D232" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>235</v>
-      </c>
-      <c r="C233" t="s">
-        <v>252</v>
-      </c>
-      <c r="D233" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>236</v>
-      </c>
-      <c r="C234" t="s">
-        <v>250</v>
-      </c>
-      <c r="D234" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>237</v>
-      </c>
-      <c r="C235" t="s">
-        <v>253</v>
-      </c>
-      <c r="D235" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>238</v>
-      </c>
-      <c r="C236" t="s">
-        <v>253</v>
-      </c>
-      <c r="D236" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>239</v>
-      </c>
-      <c r="C237" t="s">
-        <v>252</v>
-      </c>
-      <c r="D237" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>240</v>
-      </c>
-      <c r="C238" t="s">
-        <v>249</v>
-      </c>
-      <c r="D238" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>241</v>
-      </c>
-      <c r="C239" t="s">
-        <v>253</v>
-      </c>
-      <c r="D239" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>242</v>
-      </c>
-      <c r="C240" t="s">
-        <v>253</v>
-      </c>
-      <c r="D240" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>243</v>
-      </c>
-      <c r="C241" t="s">
-        <v>253</v>
-      </c>
-      <c r="D241" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>244</v>
-      </c>
-      <c r="C242" t="s">
-        <v>250</v>
-      </c>
-      <c r="D242" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>245</v>
-      </c>
-      <c r="C243" t="s">
-        <v>249</v>
-      </c>
-      <c r="D243" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>246</v>
-      </c>
-      <c r="C244" t="s">
-        <v>250</v>
-      </c>
-      <c r="D244" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" t="s">
-        <v>250</v>
-      </c>
-      <c r="D245" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>248</v>
-      </c>
-      <c r="C246" t="s">
-        <v>251</v>
-      </c>
-      <c r="D246" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D246"/>
+  <autoFilter ref="A1:D232"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -43,18 +43,18 @@
     <t>Nathan MacKinnon</t>
   </si>
   <si>
+    <t>Kirill Kaprizov</t>
+  </si>
+  <si>
     <t>Igor Shesterkin</t>
   </si>
   <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>Kirill Kaprizov</t>
-  </si>
-  <si>
-    <t>Cale Makar</t>
-  </si>
-  <si>
     <t>Nikita Kucherov</t>
   </si>
   <si>
@@ -64,133 +64,139 @@
     <t>Victor Hedman</t>
   </si>
   <si>
+    <t>Alex Ovechkin</t>
+  </si>
+  <si>
+    <t>Matthew Tkachuk</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>Ilya Sorokin</t>
+  </si>
+  <si>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>Brady Tkachuk</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Gabriel Landeskog</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Jack Hughes</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
     <t>Mitch Marner</t>
   </si>
   <si>
-    <t>Matthew Tkachuk</t>
-  </si>
-  <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Alex Ovechkin</t>
-  </si>
-  <si>
-    <t>Jonathan Huberdeau</t>
-  </si>
-  <si>
-    <t>Adam Fox</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>J.T. Miller</t>
-  </si>
-  <si>
-    <t>Ilya Sorokin</t>
-  </si>
-  <si>
-    <t>Sidney Crosby</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Kyle Connor</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>Mika Zibanejad</t>
-  </si>
-  <si>
-    <t>Juuse Saros</t>
-  </si>
-  <si>
-    <t>Chris Kreider</t>
-  </si>
-  <si>
-    <t>Gabriel Landeskog</t>
-  </si>
-  <si>
-    <t>Sebastian Aho</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
-  </si>
-  <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
-    <t>Brady Tkachuk</t>
-  </si>
-  <si>
-    <t>Moritz Seider</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
-    <t>Jake Oettinger</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Elias Lindholm</t>
-  </si>
-  <si>
-    <t>Jack Eichel</t>
-  </si>
-  <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Elias Pettersson</t>
-  </si>
-  <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
-  </si>
-  <si>
-    <t>Jason Robertson</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Jack Hughes</t>
+    <t>Evander Kane</t>
   </si>
   <si>
     <t>Morgan Rielly</t>
   </si>
   <si>
-    <t>Frederik Andersen</t>
+    <t>Connor Hellebuyck</t>
   </si>
   <si>
     <t>John Tavares</t>
@@ -202,139 +208,142 @@
     <t>William Nylander</t>
   </si>
   <si>
-    <t>Connor Hellebuyck</t>
+    <t>Patrik Laine</t>
   </si>
   <si>
     <t>Sam Reinhart</t>
   </si>
   <si>
-    <t>Evander Kane</t>
+    <t>Thatcher Demko</t>
   </si>
   <si>
     <t>Quinn Hughes</t>
   </si>
   <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
     <t>Kevin Fiala</t>
   </si>
   <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
     <t>Noah Dobson</t>
   </si>
   <si>
-    <t>Brent Burns</t>
+    <t>Alex Pietrangelo</t>
   </si>
   <si>
     <t>Mark Stone</t>
   </si>
   <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
+    <t>Max Pacioretty</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
     <t>Josh Norris</t>
   </si>
   <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Max Pacioretty</t>
-  </si>
-  <si>
-    <t>Rasmus Dahlin</t>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
   </si>
   <si>
     <t>Sergei Bobrovsky</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
     <t>Nazem Kadri</t>
   </si>
   <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
   </si>
   <si>
     <t>Pavel Buchnevich</t>
   </si>
   <si>
-    <t>Roope Hintz</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
     <t>Drew Doughty</t>
   </si>
   <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Patrice Bergeron</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
     <t>Nick Suzuki</t>
   </si>
   <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
   </si>
   <si>
     <t>Drake Batherson</t>
   </si>
   <si>
-    <t>Jeremy Swayman</t>
-  </si>
-  <si>
     <t>Tomas Hertl</t>
   </si>
   <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
-    <t>Tage Thompson</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Ivan Provorov</t>
+    <t>Shea Theodore</t>
   </si>
   <si>
     <t>Anze Kopitar</t>
@@ -343,12 +352,6 @@
     <t>Trevor Zegras</t>
   </si>
   <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
     <t>Jonathan Quick</t>
   </si>
   <si>
@@ -358,334 +361,349 @@
     <t>Bryan Rust</t>
   </si>
   <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
     <t>Tyler Toffoli</t>
   </si>
   <si>
-    <t>Miro Heiskanen</t>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Alexandar Georgiev</t>
   </si>
   <si>
     <t>Michael Bunting</t>
   </si>
   <si>
-    <t>Alexandar Georgiev</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
     <t>Torey Krug</t>
   </si>
   <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
     <t>Mats Zuccarello</t>
   </si>
   <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Alec Martinez</t>
+  </si>
+  <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Brayden Point</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Anton Forsberg</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Shane Wright</t>
+  </si>
+  <si>
+    <t>David Krejci</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
     <t>Sean Couturier</t>
   </si>
   <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Adrian Kempe</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Matt Boldy</t>
-  </si>
-  <si>
-    <t>Alec Martinez</t>
-  </si>
-  <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
-    <t>Cole Caufield</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Josh Morrissey</t>
-  </si>
-  <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
-    <t>Brayden Point</t>
-  </si>
-  <si>
-    <t>Logan Thompson</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Ville Husso</t>
-  </si>
-  <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Anton Forsberg</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Oliver Bjorkstrand</t>
-  </si>
-  <si>
-    <t>Tanner Jeannot</t>
-  </si>
-  <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Shayne Gostisbehere</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Valeri Nichushkin</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Jakob Chychrun</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Jack Roslovic</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Kevin Shattenkirk</t>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Vasily Podkolzin</t>
   </si>
   <si>
     <t>Mark Giordano</t>
   </si>
   <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
-    <t>Anton Lundell</t>
-  </si>
-  <si>
-    <t>Vladislav Gavrikov</t>
-  </si>
-  <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
-    <t>Peyton Krebs</t>
-  </si>
-  <si>
-    <t>Filip Chytil</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
+    <t>Gustav Forsling</t>
   </si>
   <si>
     <t>Rickard Rakell</t>
   </si>
   <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
     <t>Petr Mrazek</t>
   </si>
   <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
     <t>Jamie Benn</t>
   </si>
   <si>
-    <t>Vasily Podkolzin</t>
-  </si>
-  <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Jake McCabe</t>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
   </si>
   <si>
     <t>Ondrej Palat</t>
@@ -694,45 +712,27 @@
     <t>Phillip Danault</t>
   </si>
   <si>
-    <t>Alexis Lafreniere</t>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Jakub Voracek</t>
   </si>
   <si>
     <t>Viktor Arvidsson</t>
   </si>
   <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
-    <t>Dysin Mayo</t>
-  </si>
-  <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
-  </si>
-  <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Ryan Strome</t>
-  </si>
-  <si>
-    <t>Mason McTavish</t>
-  </si>
-  <si>
-    <t>Jakub Voracek</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -748,13 +748,16 @@
     <t>COL</t>
   </si>
   <si>
+    <t>MIN</t>
+  </si>
+  <si>
     <t>NYR</t>
   </si>
   <si>
     <t>TB</t>
   </si>
   <si>
-    <t>MIN</t>
+    <t>WSH</t>
   </si>
   <si>
     <t>FLA</t>
@@ -763,21 +766,18 @@
     <t>NSH</t>
   </si>
   <si>
-    <t>WSH</t>
-  </si>
-  <si>
     <t>CGY</t>
   </si>
   <si>
+    <t>NYI</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
     <t>VAN</t>
   </si>
   <si>
-    <t>NYI</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
     <t>WPG</t>
   </si>
   <si>
@@ -829,10 +829,10 @@
     <t>ANA</t>
   </si>
   <si>
+    <t>ARI</t>
+  </si>
+  <si>
     <t>SEA</t>
-  </si>
-  <si>
-    <t>ARI</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
         <v>244</v>
@@ -1305,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1319,10 +1319,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1336,7 +1336,7 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1375,10 +1375,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1389,10 +1389,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1406,7 +1406,7 @@
         <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1417,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1431,10 +1431,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1445,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1476,7 +1476,7 @@
         <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1487,10 +1487,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1501,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1532,7 +1532,7 @@
         <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1543,10 +1543,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1557,10 +1557,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1571,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1588,7 +1588,7 @@
         <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1602,7 +1602,7 @@
         <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1641,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
         <v>256</v>
@@ -1655,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1669,10 +1669,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1683,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1697,10 +1697,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1711,10 +1711,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1725,10 +1725,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1739,10 +1739,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1753,10 +1753,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1767,10 +1767,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1781,10 +1781,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1809,10 +1809,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1823,10 +1823,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1854,7 +1854,7 @@
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1868,7 +1868,7 @@
         <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1879,7 +1879,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
         <v>247</v>
@@ -1893,10 +1893,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1907,7 +1907,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" t="s">
         <v>260</v>
@@ -1921,10 +1921,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1935,10 +1935,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1949,7 +1949,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
         <v>241</v>
@@ -1966,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1977,7 +1977,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
         <v>241</v>
@@ -1991,10 +1991,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2005,7 +2005,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
         <v>241</v>
@@ -2019,10 +2019,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2033,10 +2033,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2047,10 +2047,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2061,10 +2061,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2075,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2089,10 +2089,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2103,7 +2103,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
         <v>265</v>
@@ -2120,7 +2120,7 @@
         <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2134,7 +2134,7 @@
         <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2145,7 +2145,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
         <v>261</v>
@@ -2159,7 +2159,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
         <v>261</v>
@@ -2173,10 +2173,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2187,10 +2187,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2215,10 +2215,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2229,10 +2229,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2243,10 +2243,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2257,10 +2257,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2274,7 +2274,7 @@
         <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2285,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2299,10 +2299,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2341,10 +2341,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2355,10 +2355,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2369,10 +2369,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2383,10 +2383,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2411,10 +2411,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2425,10 +2425,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2439,10 +2439,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2453,10 +2453,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2467,10 +2467,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2481,10 +2481,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2495,10 +2495,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2509,10 +2509,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2523,7 +2523,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
         <v>254</v>
@@ -2540,7 +2540,7 @@
         <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2551,10 +2551,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2568,7 +2568,7 @@
         <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2596,7 +2596,7 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2607,10 +2607,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2621,10 +2621,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2635,10 +2635,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2649,10 +2649,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2663,10 +2663,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2691,10 +2691,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2705,10 +2705,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2719,10 +2719,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D109" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2733,10 +2733,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>239</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2775,10 +2775,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2803,10 +2803,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2817,10 +2817,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D116" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2831,7 +2831,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D117" t="s">
         <v>262</v>
@@ -2859,10 +2859,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2873,10 +2873,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2887,7 +2887,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D121" t="s">
         <v>256</v>
@@ -2901,10 +2901,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2929,10 +2929,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D124" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2957,10 +2957,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2974,7 +2974,7 @@
         <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2988,7 +2988,7 @@
         <v>238</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2999,10 +2999,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3013,10 +3013,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3030,7 +3030,7 @@
         <v>238</v>
       </c>
       <c r="D131" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3041,7 +3041,7 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
         <v>241</v>
@@ -3058,7 +3058,7 @@
         <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3083,7 +3083,7 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
         <v>254</v>
@@ -3111,10 +3111,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3128,7 +3128,7 @@
         <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3139,7 +3139,7 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
         <v>261</v>
@@ -3153,10 +3153,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3170,7 +3170,7 @@
         <v>238</v>
       </c>
       <c r="D141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3181,10 +3181,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3195,10 +3195,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3209,10 +3209,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3223,10 +3223,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3237,10 +3237,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3251,10 +3251,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D147" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3265,10 +3265,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3279,10 +3279,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D149" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3293,10 +3293,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3307,10 +3307,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D151" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3324,7 +3324,7 @@
         <v>238</v>
       </c>
       <c r="D152" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3338,7 +3338,7 @@
         <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3352,7 +3352,7 @@
         <v>238</v>
       </c>
       <c r="D154" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3380,7 +3380,7 @@
         <v>238</v>
       </c>
       <c r="D156" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3391,10 +3391,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D157" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3408,7 +3408,7 @@
         <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3450,7 +3450,7 @@
         <v>235</v>
       </c>
       <c r="D161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3461,10 +3461,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3478,7 +3478,7 @@
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3492,7 +3492,7 @@
         <v>239</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3503,10 +3503,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3520,7 +3520,7 @@
         <v>238</v>
       </c>
       <c r="D166" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3531,10 +3531,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D167" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3545,10 +3545,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D168" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3559,10 +3559,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D169" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3573,7 +3573,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D170" t="s">
         <v>257</v>
@@ -3587,10 +3587,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D171" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3604,7 +3604,7 @@
         <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3615,10 +3615,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D173" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3629,10 +3629,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D174" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3643,10 +3643,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D175" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3660,7 +3660,7 @@
         <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3685,10 +3685,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D178" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3702,7 +3702,7 @@
         <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3713,10 +3713,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D180" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3727,10 +3727,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D181" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3741,10 +3741,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D182" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3758,7 +3758,7 @@
         <v>237</v>
       </c>
       <c r="D183" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3769,10 +3769,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D184" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3783,10 +3783,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D185" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3797,10 +3797,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3811,10 +3811,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D187" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3825,10 +3825,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3839,10 +3839,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3853,10 +3853,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D190" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3870,7 +3870,7 @@
         <v>235</v>
       </c>
       <c r="D191" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3884,7 +3884,7 @@
         <v>239</v>
       </c>
       <c r="D192" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3895,10 +3895,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D193" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3909,10 +3909,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D194" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3923,10 +3923,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D195" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3937,10 +3937,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D196" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3951,10 +3951,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D197" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3965,10 +3965,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D198" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3982,7 +3982,7 @@
         <v>238</v>
       </c>
       <c r="D199" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3993,10 +3993,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D200" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4007,10 +4007,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4021,7 +4021,7 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D202" t="s">
         <v>266</v>
@@ -4035,10 +4035,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D203" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4052,7 +4052,7 @@
         <v>235</v>
       </c>
       <c r="D204" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4063,10 +4063,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D205" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4077,10 +4077,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4091,10 +4091,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D207" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4105,10 +4105,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D208" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4119,10 +4119,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D209" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4133,10 +4133,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D210" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4147,10 +4147,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D211" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4161,10 +4161,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D212" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4175,10 +4175,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D213" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4192,7 +4192,7 @@
         <v>235</v>
       </c>
       <c r="D214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4203,10 +4203,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D215" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4217,10 +4217,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D216" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4231,10 +4231,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D217" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4248,7 +4248,7 @@
         <v>238</v>
       </c>
       <c r="D218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4259,10 +4259,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4276,7 +4276,7 @@
         <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4290,7 +4290,7 @@
         <v>237</v>
       </c>
       <c r="D221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4301,10 +4301,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D222" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4315,10 +4315,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D223" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4329,10 +4329,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4343,10 +4343,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4357,10 +4357,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D226" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4371,10 +4371,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D227" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4388,7 +4388,7 @@
         <v>235</v>
       </c>
       <c r="D228" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4399,10 +4399,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4427,10 +4427,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D231" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4441,10 +4441,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$233</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -49,30 +49,36 @@
     <t>Igor Shesterkin</t>
   </si>
   <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
     <t>Cale Makar</t>
   </si>
   <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
     <t>Nikita Kucherov</t>
   </si>
   <si>
     <t>Mikko Rantanen</t>
   </si>
   <si>
+    <t>Alex Ovechkin</t>
+  </si>
+  <si>
     <t>Victor Hedman</t>
   </si>
   <si>
-    <t>Alex Ovechkin</t>
-  </si>
-  <si>
     <t>Matthew Tkachuk</t>
   </si>
   <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
     <t>Roman Josi</t>
   </si>
   <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
@@ -109,36 +115,36 @@
     <t>Brady Tkachuk</t>
   </si>
   <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
     <t>Jake Guentzel</t>
   </si>
   <si>
-    <t>Juuse Saros</t>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
   </si>
   <si>
     <t>Chris Kreider</t>
   </si>
   <si>
-    <t>Moritz Seider</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
     <t>Gabriel Landeskog</t>
   </si>
   <si>
     <t>Aaron Ekblad</t>
   </si>
   <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
     <t>Timo Meier</t>
   </si>
   <si>
@@ -169,72 +175,66 @@
     <t>Jack Hughes</t>
   </si>
   <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
     <t>Filip Forsberg</t>
   </si>
   <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
   </si>
   <si>
     <t>Jason Robertson</t>
   </si>
   <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Mitch Marner</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Connor Hellebuyck</t>
   </si>
   <si>
     <t>Morgan Rielly</t>
   </si>
   <si>
-    <t>Connor Hellebuyck</t>
-  </si>
-  <si>
     <t>John Tavares</t>
   </si>
   <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
     <t>William Nylander</t>
   </si>
   <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
     <t>Sam Reinhart</t>
   </si>
   <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
     <t>Thatcher Demko</t>
   </si>
   <si>
-    <t>Quinn Hughes</t>
+    <t>Brent Burns</t>
   </si>
   <si>
     <t>Kevin Fiala</t>
   </si>
   <si>
-    <t>Brent Burns</t>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
   </si>
   <si>
     <t>Noah Dobson</t>
   </si>
   <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
@@ -247,66 +247,66 @@
     <t>Seth Jones</t>
   </si>
   <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
     <t>Josh Norris</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
     <t>Matt Duchene</t>
   </si>
   <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
     <t>Roope Hintz</t>
   </si>
   <si>
-    <t>Sergei Bobrovsky</t>
+    <t>Evgeni Malkin</t>
   </si>
   <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
+    <t>Darnell Nurse</t>
   </si>
   <si>
     <t>Nazem Kadri</t>
   </si>
   <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
     <t>Nikolaj Ehlers</t>
   </si>
   <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Patrice Bergeron</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
   </si>
   <si>
     <t>Drew Doughty</t>
   </si>
   <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
     <t>Evgeny Kuznetsov</t>
   </si>
   <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
   </si>
   <si>
     <t>Zach Werenski</t>
   </si>
   <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
     <t>Nick Suzuki</t>
   </si>
   <si>
@@ -319,15 +319,15 @@
     <t>Drake Batherson</t>
   </si>
   <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
     <t>Tomas Hertl</t>
   </si>
   <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
     <t>Joe Pavelski</t>
   </si>
   <si>
@@ -361,54 +361,54 @@
     <t>Bryan Rust</t>
   </si>
   <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
     <t>Miro Heiskanen</t>
   </si>
   <si>
     <t>Tyler Toffoli</t>
   </si>
   <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
     <t>Alexandar Georgiev</t>
   </si>
   <si>
+    <t>Torey Krug</t>
+  </si>
+  <si>
     <t>Michael Bunting</t>
   </si>
   <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
     <t>Evan Bouchard</t>
   </si>
   <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Mats Zuccarello</t>
-  </si>
-  <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
     <t>Adrian Kempe</t>
   </si>
   <si>
     <t>Jonathan Marchessault</t>
   </si>
   <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
     <t>Justin Faulk</t>
   </si>
   <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Matt Boldy</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
     <t>Owen Power</t>
   </si>
   <si>
@@ -424,66 +424,66 @@
     <t>Ilya Samsonov</t>
   </si>
   <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
     <t>Jesper Bratt</t>
   </si>
   <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
+    <t>Brayden Point</t>
   </si>
   <si>
     <t>Josh Morrissey</t>
   </si>
   <si>
-    <t>Brayden Point</t>
+    <t>Logan Thompson</t>
   </si>
   <si>
     <t>Logan Couture</t>
   </si>
   <si>
-    <t>Logan Thompson</t>
-  </si>
-  <si>
     <t>John Klingberg</t>
   </si>
   <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
     <t>Tony DeAngelo</t>
   </si>
   <si>
     <t>Zach Hyman</t>
   </si>
   <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
     <t>Noah Hanifin</t>
   </si>
   <si>
     <t>Ville Husso</t>
   </si>
   <si>
-    <t>Jakob Chychrun</t>
+    <t>Shayne Gostisbehere</t>
   </si>
   <si>
     <t>Anton Forsberg</t>
   </si>
   <si>
-    <t>Shayne Gostisbehere</t>
+    <t>Jeff Petry</t>
   </si>
   <si>
     <t>Oliver Bjorkstrand</t>
   </si>
   <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
     <t>Boone Jenner</t>
   </si>
   <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
     <t>Jared Spurgeon</t>
   </si>
   <si>
@@ -496,39 +496,42 @@
     <t>Radko Gudas</t>
   </si>
   <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
     <t>Tanner Jeannot</t>
   </si>
   <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
   </si>
   <si>
     <t>Troy Terry</t>
   </si>
   <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
   </si>
   <si>
     <t>Tyler Seguin</t>
   </si>
   <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
     <t>Hampus Lindholm</t>
   </si>
   <si>
@@ -538,25 +541,31 @@
     <t>Lucas Raymond</t>
   </si>
   <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
     <t>Elvis Merzlikins</t>
   </si>
   <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
     <t>Ryan Nugent-Hopkins</t>
   </si>
   <si>
     <t>Brock Boeser</t>
   </si>
   <si>
+    <t>Shane Wright</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
     <t>Ryan Hartman</t>
   </si>
   <si>
-    <t>Valeri Nichushkin</t>
+    <t>David Perron</t>
   </si>
   <si>
     <t>Nico Hischier</t>
@@ -565,7 +574,19 @@
     <t>Jaccob Slavin</t>
   </si>
   <si>
-    <t>David Perron</t>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
   </si>
   <si>
     <t>Ryan Pulock</t>
@@ -574,142 +595,124 @@
     <t>Taylor Hall</t>
   </si>
   <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Marco Rossi</t>
-  </si>
-  <si>
     <t>Tyler Bertuzzi</t>
   </si>
   <si>
+    <t>David Krejci</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
     <t>Joel Eriksson Ek</t>
   </si>
   <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Shane Wright</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
     <t>Semyon Varlamov</t>
   </si>
   <si>
     <t>Jeff Skinner</t>
   </si>
   <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
     <t>Anton Lundell</t>
   </si>
   <si>
     <t>Ryan Johansen</t>
   </si>
   <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
     <t>Jack Roslovic</t>
   </si>
   <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
     <t>Peyton Krebs</t>
   </si>
   <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
     <t>Filip Chytil</t>
   </si>
   <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
     <t>Philipp Grubauer</t>
   </si>
   <si>
-    <t>Vladislav Gavrikov</t>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
   </si>
   <si>
     <t>Sean Couturier</t>
   </si>
   <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
     <t>T.J. Oshie</t>
   </si>
   <si>
-    <t>Andre Burakovsky</t>
+    <t>Jakub Vrana</t>
   </si>
   <si>
     <t>Vasily Podkolzin</t>
   </si>
   <si>
+    <t>Rickard Rakell</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
     <t>Mark Giordano</t>
   </si>
   <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Rickard Rakell</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Petr Mrazek</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
     <t>Yegor Sharangovich</t>
   </si>
   <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
     <t>Anders Lee</t>
   </si>
   <si>
+    <t>Phillip Danault</t>
+  </si>
+  <si>
     <t>Ondrej Palat</t>
   </si>
   <si>
-    <t>Phillip Danault</t>
+    <t>Viktor Arvidsson</t>
   </si>
   <si>
     <t>Chandler Stephenson</t>
@@ -718,10 +721,10 @@
     <t>Mason McTavish</t>
   </si>
   <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
     <t>Jakub Voracek</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
   </si>
   <si>
     <t>C</t>
@@ -1190,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,10 +1224,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1235,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1249,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1263,10 +1266,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1277,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1291,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1308,7 +1311,7 @@
         <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1319,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1333,10 +1336,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1347,10 +1350,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,10 +1364,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1375,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
         <v>246</v>
@@ -1389,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1403,10 +1406,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1417,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>249</v>
@@ -1431,10 +1434,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1445,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1459,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1473,10 +1476,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1487,10 +1490,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1501,10 +1504,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1515,10 +1518,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1532,7 +1535,7 @@
         <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1543,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1557,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1571,10 +1574,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1588,7 +1591,7 @@
         <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1602,7 +1605,7 @@
         <v>237</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1613,10 +1616,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1627,10 +1630,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1641,10 +1644,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1655,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1669,10 +1672,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1683,10 +1686,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1697,10 +1700,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1711,10 +1714,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1725,10 +1728,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1739,10 +1742,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1753,10 +1756,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1767,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
         <v>261</v>
@@ -1781,10 +1784,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1795,10 +1798,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1809,10 +1812,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1823,10 +1826,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1837,10 +1840,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1851,10 +1854,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1865,10 +1868,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1879,10 +1882,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1893,10 +1896,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1907,10 +1910,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1921,10 +1924,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1935,10 +1938,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1949,7 +1952,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
         <v>241</v>
@@ -1963,10 +1966,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1977,10 +1980,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1994,7 +1997,7 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2005,10 +2008,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2019,10 +2022,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2033,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2047,10 +2050,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2061,10 +2064,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2075,10 +2078,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2092,7 +2095,7 @@
         <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2103,10 +2106,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2117,10 +2120,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2131,10 +2134,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2145,10 +2148,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2162,7 +2165,7 @@
         <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2173,10 +2176,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2187,10 +2190,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2201,10 +2204,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2215,10 +2218,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2229,10 +2232,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2243,10 +2246,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2257,10 +2260,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2271,10 +2274,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2285,10 +2288,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2299,10 +2302,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2313,10 +2316,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2327,10 +2330,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2341,10 +2344,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2358,7 +2361,7 @@
         <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2369,10 +2372,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2383,10 +2386,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2397,7 +2400,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" t="s">
         <v>265</v>
@@ -2411,10 +2414,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2425,10 +2428,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2439,10 +2442,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2453,10 +2456,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2467,7 +2470,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
         <v>258</v>
@@ -2481,10 +2484,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2495,10 +2498,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2509,10 +2512,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2523,10 +2526,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2537,10 +2540,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2551,10 +2554,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2565,10 +2568,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2579,10 +2582,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2593,10 +2596,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2607,10 +2610,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2621,10 +2624,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2635,10 +2638,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2649,10 +2652,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2663,10 +2666,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2677,10 +2680,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2691,10 +2694,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2705,10 +2708,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2719,10 +2722,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2733,10 +2736,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2747,10 +2750,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2761,10 +2764,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2778,7 +2781,7 @@
         <v>239</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2789,10 +2792,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2803,10 +2806,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2817,10 +2820,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2831,10 +2834,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2845,10 +2848,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2859,10 +2862,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2873,10 +2876,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2887,10 +2890,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2901,10 +2904,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2915,10 +2918,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2932,7 +2935,7 @@
         <v>238</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2943,10 +2946,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2957,10 +2960,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2971,10 +2974,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2985,10 +2988,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2999,10 +3002,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3013,10 +3016,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3027,10 +3030,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3041,10 +3044,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3055,10 +3058,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D133" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3069,10 +3072,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3083,10 +3086,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3097,10 +3100,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3111,10 +3114,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3125,10 +3128,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3139,10 +3142,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3153,10 +3156,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3167,10 +3170,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3184,7 +3187,7 @@
         <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3195,10 +3198,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D143" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3209,10 +3212,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3223,10 +3226,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3240,7 +3243,7 @@
         <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3251,10 +3254,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3268,7 +3271,7 @@
         <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3282,7 +3285,7 @@
         <v>239</v>
       </c>
       <c r="D149" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3293,10 +3296,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D150" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3307,10 +3310,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D151" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3321,10 +3324,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3335,10 +3338,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D153" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3349,10 +3352,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3363,10 +3366,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3377,10 +3380,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3391,10 +3394,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3405,10 +3408,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3419,10 +3422,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D159" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3433,10 +3436,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D160" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3447,10 +3450,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D161" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3461,10 +3464,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3475,10 +3478,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3489,10 +3492,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3503,10 +3506,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D165" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3517,10 +3520,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D166" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3534,7 +3537,7 @@
         <v>239</v>
       </c>
       <c r="D167" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3545,10 +3548,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D168" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3559,10 +3562,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D169" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3573,10 +3576,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D170" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3601,10 +3604,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D172" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3615,10 +3618,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3629,10 +3632,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3643,10 +3646,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3657,10 +3660,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D176" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3671,10 +3674,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3685,10 +3688,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D178" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3699,10 +3702,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D179" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3713,10 +3716,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D180" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3727,10 +3730,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D181" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3741,10 +3744,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D182" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3755,10 +3758,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D183" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3769,10 +3772,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D184" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3783,10 +3786,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D185" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3797,10 +3800,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D186" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3811,10 +3814,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D187" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3825,10 +3828,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3839,10 +3842,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D189" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3853,10 +3856,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3867,10 +3870,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D191" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3884,7 +3887,7 @@
         <v>239</v>
       </c>
       <c r="D192" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3895,10 +3898,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D193" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3909,10 +3912,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D194" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3923,10 +3926,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3937,10 +3940,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3954,7 +3957,7 @@
         <v>239</v>
       </c>
       <c r="D197" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3965,10 +3968,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3979,10 +3982,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D199" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3996,7 +3999,7 @@
         <v>236</v>
       </c>
       <c r="D200" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4007,10 +4010,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4021,10 +4024,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D202" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4035,10 +4038,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D203" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4049,7 +4052,7 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D204" t="s">
         <v>248</v>
@@ -4063,10 +4066,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D205" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4077,10 +4080,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D206" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4094,7 +4097,7 @@
         <v>236</v>
       </c>
       <c r="D207" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4105,10 +4108,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D208" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4119,10 +4122,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4133,10 +4136,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D210" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4150,7 +4153,7 @@
         <v>238</v>
       </c>
       <c r="D211" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4161,10 +4164,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D212" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4175,10 +4178,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D213" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4189,10 +4192,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D214" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4206,7 +4209,7 @@
         <v>236</v>
       </c>
       <c r="D215" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4217,10 +4220,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D216" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4231,10 +4234,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4245,10 +4248,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D218" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4262,7 +4265,7 @@
         <v>239</v>
       </c>
       <c r="D219" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4273,10 +4276,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D220" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4287,10 +4290,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D221" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4301,10 +4304,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D222" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4315,10 +4318,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4329,10 +4332,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D224" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4346,7 +4349,7 @@
         <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4357,10 +4360,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D226" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4374,7 +4377,7 @@
         <v>236</v>
       </c>
       <c r="D227" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4385,7 +4388,7 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D228" t="s">
         <v>265</v>
@@ -4399,10 +4402,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D229" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4413,10 +4416,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D230" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4427,10 +4430,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D231" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4444,11 +4447,25 @@
         <v>236</v>
       </c>
       <c r="D232" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" t="s">
+        <v>240</v>
+      </c>
+      <c r="D233" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D232"/>
+  <autoFilter ref="A1:D233"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -70,15 +70,15 @@
     <t>Matthew Tkachuk</t>
   </si>
   <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
     <t>Mitch Marner</t>
   </si>
   <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>Jake Guentzel</t>
   </si>
   <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
     <t>Moritz Seider</t>
   </si>
   <si>
     <t>Alex DeBrincat</t>
   </si>
   <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
     <t>John Carlson</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Jack Hughes</t>
   </si>
   <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
     <t>Darcy Kuemper</t>
   </si>
   <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
     <t>Frederik Andersen</t>
   </si>
   <si>
@@ -340,15 +340,15 @@
     <t>Ivan Provorov</t>
   </si>
   <si>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
-  </si>
-  <si>
     <t>Trevor Zegras</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>Jakob Chychrun</t>
   </si>
   <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
     <t>Bowen Byram</t>
   </si>
   <si>
     <t>Brad Marchand</t>
   </si>
   <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
     <t>Brayden Point</t>
   </si>
   <si>
@@ -445,12 +445,12 @@
     <t>Logan Thompson</t>
   </si>
   <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
     <t>Logan Couture</t>
   </si>
   <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
     <t>Bo Horvat</t>
   </si>
   <si>
@@ -490,15 +490,15 @@
     <t>Colton Parayko</t>
   </si>
   <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
     <t>Ryan O'Reilly</t>
   </si>
   <si>
     <t>Radko Gudas</t>
   </si>
   <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
     <t>Matty Beniers</t>
   </si>
   <si>
@@ -517,15 +517,15 @@
     <t>Clayton Keller</t>
   </si>
   <si>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
     <t>Phil Kessel</t>
   </si>
   <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Marco Rossi</t>
-  </si>
-  <si>
     <t>Jake Sanderson</t>
   </si>
   <si>
@@ -568,15 +568,15 @@
     <t>David Perron</t>
   </si>
   <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Matt Murray</t>
+  </si>
+  <si>
     <t>Nico Hischier</t>
   </si>
   <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
     <t>Neal Pionk</t>
   </si>
   <si>
@@ -601,12 +601,12 @@
     <t>David Krejci</t>
   </si>
   <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
     <t>Damon Severson</t>
   </si>
   <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
     <t>Mathew Barzal</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>Adam Larsson</t>
   </si>
   <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
     <t>Victor Olofsson</t>
   </si>
   <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
     <t>Semyon Varlamov</t>
   </si>
   <si>
@@ -643,36 +643,36 @@
     <t>Ryan Johansen</t>
   </si>
   <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
     <t>Kevin Shattenkirk</t>
   </si>
   <si>
-    <t>Jack Roslovic</t>
-  </si>
-  <si>
     <t>Peyton Krebs</t>
   </si>
   <si>
     <t>Filip Chytil</t>
   </si>
   <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
     <t>Vladislav Gavrikov</t>
   </si>
   <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
     <t>Esa Lindell</t>
   </si>
   <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
     <t>Andre Burakovsky</t>
   </si>
   <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
     <t>Jakub Vrana</t>
   </si>
   <si>
@@ -685,24 +685,24 @@
     <t>Gustav Forsling</t>
   </si>
   <si>
+    <t>Petr Mrazek</t>
+  </si>
+  <si>
     <t>Matt Dumba</t>
   </si>
   <si>
-    <t>Petr Mrazek</t>
-  </si>
-  <si>
     <t>Jamie Benn</t>
   </si>
   <si>
     <t>Alexis Lafreniere</t>
   </si>
   <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
     <t>Mark Giordano</t>
   </si>
   <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
     <t>Anders Lee</t>
   </si>
   <si>
@@ -793,10 +793,10 @@
     <t>OTT</t>
   </si>
   <si>
+    <t>CBJ</t>
+  </si>
+  <si>
     <t>DET</t>
-  </si>
-  <si>
-    <t>CBJ</t>
   </si>
   <si>
     <t>SJ</t>
@@ -1406,10 +1406,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1420,10 +1420,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1434,10 +1434,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
         <v>258</v>
@@ -1658,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1675,7 +1675,7 @@
         <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1896,10 +1896,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1910,10 +1910,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2473,7 +2473,7 @@
         <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2501,7 +2501,7 @@
         <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2669,7 +2669,7 @@
         <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2680,10 +2680,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2694,10 +2694,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3072,10 +3072,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D134" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3086,10 +3086,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D135" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3103,7 +3103,7 @@
         <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3156,10 +3156,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D140" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3170,10 +3170,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3243,7 +3243,7 @@
         <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3327,7 +3327,7 @@
         <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3366,10 +3366,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D155" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3380,10 +3380,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3394,10 +3394,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3492,10 +3492,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D164" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3520,10 +3520,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3593,7 +3593,7 @@
         <v>237</v>
       </c>
       <c r="D171" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3635,7 +3635,7 @@
         <v>238</v>
       </c>
       <c r="D174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3719,7 +3719,7 @@
         <v>237</v>
       </c>
       <c r="D180" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3730,10 +3730,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3744,10 +3744,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3758,10 +3758,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D183" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3859,7 +3859,7 @@
         <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3884,10 +3884,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3898,10 +3898,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D193" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3957,7 +3957,7 @@
         <v>239</v>
       </c>
       <c r="D197" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3982,10 +3982,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D199" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3996,10 +3996,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D200" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4080,10 +4080,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D206" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4094,10 +4094,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D207" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4136,10 +4136,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D210" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4150,10 +4150,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D211" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4178,10 +4178,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4195,7 +4195,7 @@
         <v>236</v>
       </c>
       <c r="D214" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4206,10 +4206,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4223,7 +4223,7 @@
         <v>237</v>
       </c>
       <c r="D216" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4276,10 +4276,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4290,10 +4290,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D221" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4332,10 +4332,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D224" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4346,10 +4346,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D225" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4461,7 +4461,7 @@
         <v>240</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$231</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="271">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -49,12 +49,12 @@
     <t>Igor Shesterkin</t>
   </si>
   <si>
+    <t>Cale Makar</t>
+  </si>
+  <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>Cale Makar</t>
-  </si>
-  <si>
     <t>Nikita Kucherov</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>Matthew Tkachuk</t>
   </si>
   <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
     <t>Roman Josi</t>
   </si>
   <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Mitch Marner</t>
-  </si>
-  <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
@@ -109,19 +109,22 @@
     <t>David Pastrnak</t>
   </si>
   <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
     <t>Sebastian Aho</t>
   </si>
   <si>
     <t>Brady Tkachuk</t>
   </si>
   <si>
-    <t>Juuse Saros</t>
+    <t>Johnny Gaudreau</t>
   </si>
   <si>
     <t>Jake Guentzel</t>
   </si>
   <si>
-    <t>Johnny Gaudreau</t>
+    <t>Artemi Panarin</t>
   </si>
   <si>
     <t>Moritz Seider</t>
@@ -133,21 +136,18 @@
     <t>John Carlson</t>
   </si>
   <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
     <t>Chris Kreider</t>
   </si>
   <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
     <t>Gabriel Landeskog</t>
   </si>
   <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
     <t>Jake Oettinger</t>
   </si>
   <si>
@@ -175,36 +175,36 @@
     <t>Jack Hughes</t>
   </si>
   <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
     <t>Filip Forsberg</t>
   </si>
   <si>
     <t>Darcy Kuemper</t>
   </si>
   <si>
-    <t>Frederik Andersen</t>
+    <t>Evander Kane</t>
   </si>
   <si>
     <t>Jack Campbell</t>
   </si>
   <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
     <t>Jason Robertson</t>
   </si>
   <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
     <t>Kris Letang</t>
   </si>
   <si>
-    <t>Patrik Laine</t>
+    <t>Morgan Rielly</t>
   </si>
   <si>
     <t>Connor Hellebuyck</t>
   </si>
   <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
     <t>John Tavares</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>Brent Burns</t>
   </si>
   <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
     <t>Kevin Fiala</t>
   </si>
   <si>
     <t>Alex Pietrangelo</t>
   </si>
   <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
     <t>Noah Dobson</t>
   </si>
   <si>
@@ -244,30 +244,33 @@
     <t>Max Pacioretty</t>
   </si>
   <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
     <t>Seth Jones</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Josh Norris</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
-    <t>Sergei Bobrovsky</t>
-  </si>
-  <si>
     <t>MacKenzie Weegar</t>
   </si>
   <si>
-    <t>Roope Hintz</t>
-  </si>
-  <si>
     <t>Evgeni Malkin</t>
   </si>
   <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
@@ -277,105 +280,102 @@
     <t>Nazem Kadri</t>
   </si>
   <si>
-    <t>Pavel Buchnevich</t>
-  </si>
-  <si>
     <t>Nikolaj Ehlers</t>
   </si>
   <si>
     <t>Dougie Hamilton</t>
   </si>
   <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
     <t>Patrice Bergeron</t>
   </si>
   <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
     <t>Drew Doughty</t>
   </si>
   <si>
     <t>Evgeny Kuznetsov</t>
   </si>
   <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
     <t>Dylan Larkin</t>
   </si>
   <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Nick Suzuki</t>
-  </si>
-  <si>
     <t>Jeremy Swayman</t>
   </si>
   <si>
     <t>Mark Scheifele</t>
   </si>
   <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
     <t>Pierre-Luc Dubois</t>
   </si>
   <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
     <t>Tim Stutzle</t>
   </si>
   <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
     <t>Tage Thompson</t>
   </si>
   <si>
     <t>Teuvo Teravainen</t>
   </si>
   <si>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
     <t>Ivan Provorov</t>
   </si>
   <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
-  </si>
-  <si>
-    <t>Rasmus Andersson</t>
+    <t>Jonathan Quick</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Alexandar Georgiev</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
   </si>
   <si>
     <t>Trevor Zegras</t>
   </si>
   <si>
-    <t>Jonathan Quick</t>
-  </si>
-  <si>
-    <t>Jordan Kyrou</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Miro Heiskanen</t>
-  </si>
-  <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Alexandar Georgiev</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
     <t>Michael Bunting</t>
   </si>
   <si>
@@ -388,340 +388,334 @@
     <t>Cam Talbot</t>
   </si>
   <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Adrian Kempe</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
     <t>Brayden Schenn</t>
   </si>
   <si>
     <t>Matt Boldy</t>
   </si>
   <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
     <t>Justin Faulk</t>
   </si>
   <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
     <t>Cole Caufield</t>
   </si>
   <si>
     <t>Thomas Chabot</t>
   </si>
   <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
     <t>Alec Martinez</t>
   </si>
   <si>
-    <t>Ilya Samsonov</t>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
   </si>
   <si>
     <t>Jakob Chychrun</t>
   </si>
   <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
     <t>Brad Marchand</t>
   </si>
   <si>
     <t>Brayden Point</t>
   </si>
   <si>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
     <t>Josh Morrissey</t>
   </si>
   <si>
-    <t>Logan Thompson</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
   </si>
   <si>
     <t>Logan Couture</t>
   </si>
   <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
     <t>Noah Hanifin</t>
   </si>
   <si>
     <t>Ville Husso</t>
   </si>
   <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Anton Forsberg</t>
+  </si>
+  <si>
     <t>Shayne Gostisbehere</t>
   </si>
   <si>
-    <t>Anton Forsberg</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
     <t>Oliver Bjorkstrand</t>
   </si>
   <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
     <t>Charlie McAvoy</t>
   </si>
   <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
     <t>Jared Spurgeon</t>
   </si>
   <si>
     <t>Colton Parayko</t>
   </si>
   <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
     <t>Alex Tuch</t>
   </si>
   <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
   </si>
   <si>
     <t>Matty Beniers</t>
   </si>
   <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
   </si>
   <si>
     <t>Tanner Jeannot</t>
   </si>
   <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
     <t>Clayton Keller</t>
   </si>
   <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
     <t>Marco Rossi</t>
   </si>
   <si>
-    <t>Troy Terry</t>
+    <t>Ryan Nugent-Hopkins</t>
   </si>
   <si>
     <t>Phil Kessel</t>
   </si>
   <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
     <t>Brock Boeser</t>
   </si>
   <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
     <t>Shane Wright</t>
   </si>
   <si>
-    <t>Valeri Nichushkin</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>David Krejci</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
   </si>
   <si>
     <t>Nico Hischier</t>
   </si>
   <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
+    <t>Brock Nelson</t>
   </si>
   <si>
     <t>Taylor Hall</t>
   </si>
   <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
     <t>Vince Dunn</t>
   </si>
   <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
     <t>Filip Hronek</t>
   </si>
   <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
     <t>Adam Larsson</t>
   </si>
   <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
     <t>Anton Lundell</t>
   </si>
   <si>
     <t>Ryan Johansen</t>
   </si>
   <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
     <t>Jack Roslovic</t>
   </si>
   <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>Peyton Krebs</t>
-  </si>
-  <si>
-    <t>Filip Chytil</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
     <t>Vladislav Gavrikov</t>
   </si>
   <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
     <t>Esa Lindell</t>
   </si>
   <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
     <t>Jakub Vrana</t>
   </si>
   <si>
     <t>Vasily Podkolzin</t>
   </si>
   <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
     <t>Rickard Rakell</t>
   </si>
   <si>
-    <t>Gustav Forsling</t>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Mark Giordano</t>
   </si>
   <si>
     <t>Petr Mrazek</t>
   </si>
   <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
     <t>Anders Lee</t>
   </si>
   <si>
+    <t>Ondrej Palat</t>
+  </si>
+  <si>
+    <t>Vitek Vanecek</t>
+  </si>
+  <si>
     <t>Phillip Danault</t>
   </si>
   <si>
-    <t>Ondrej Palat</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
-  </si>
-  <si>
     <t>Mason McTavish</t>
-  </si>
-  <si>
-    <t>Ryan Strome</t>
   </si>
   <si>
     <t>Jakub Voracek</t>
@@ -1193,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1224,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1238,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1252,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1266,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1280,10 +1274,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1294,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1308,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1322,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1336,10 +1330,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1350,10 +1344,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1364,10 +1358,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1378,10 +1372,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1392,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1406,10 +1400,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1420,10 +1414,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1434,10 +1428,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1448,10 +1442,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1462,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1476,10 +1470,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1490,10 +1484,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1504,10 +1498,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1518,10 +1512,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1532,10 +1526,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1546,10 +1540,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1560,10 +1554,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1574,10 +1568,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1591,7 +1585,7 @@
         <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1602,10 +1596,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1616,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1630,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1644,10 +1638,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1658,10 +1652,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1686,10 +1680,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1714,10 +1708,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1731,7 +1725,7 @@
         <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1742,10 +1736,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1756,10 +1750,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1770,10 +1764,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1784,10 +1778,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1798,10 +1792,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1812,10 +1806,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1826,10 +1820,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1840,10 +1834,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1854,10 +1848,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1868,10 +1862,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1882,10 +1876,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1896,10 +1890,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1910,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
         <v>247</v>
@@ -1924,10 +1918,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1938,10 +1932,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1952,10 +1946,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1966,10 +1960,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1980,10 +1974,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1997,7 +1991,7 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2008,10 +2002,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2022,10 +2016,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2036,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2050,10 +2044,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
         <v>240</v>
-      </c>
-      <c r="D61" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2064,10 +2058,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2078,10 +2072,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2092,10 +2086,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2106,10 +2100,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2120,10 +2114,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2134,10 +2128,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2148,10 +2142,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2162,10 +2156,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2176,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2190,10 +2184,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2204,10 +2198,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2218,10 +2212,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2232,10 +2226,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2246,10 +2240,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2260,10 +2254,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2274,10 +2268,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2288,10 +2282,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2302,10 +2296,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2316,10 +2310,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2330,10 +2324,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2344,10 +2338,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2358,10 +2352,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2372,10 +2366,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2386,10 +2380,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2400,10 +2394,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2414,10 +2408,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2428,10 +2422,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2442,10 +2436,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2456,10 +2450,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2470,10 +2464,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2484,10 +2478,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2498,10 +2492,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2512,10 +2506,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2526,10 +2520,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2543,7 +2537,7 @@
         <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2554,10 +2548,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D97" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2568,10 +2562,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2582,10 +2576,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2596,10 +2590,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2610,10 +2604,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2624,10 +2618,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2638,10 +2632,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2652,10 +2646,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2666,10 +2660,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2680,10 +2674,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2694,10 +2688,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2711,7 +2705,7 @@
         <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2722,10 +2716,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2736,10 +2730,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D110" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2750,10 +2744,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2764,10 +2758,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2778,10 +2772,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2792,10 +2786,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2806,10 +2800,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2820,10 +2814,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2834,10 +2828,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2848,10 +2842,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" t="s">
         <v>239</v>
-      </c>
-      <c r="D118" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2862,10 +2856,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2876,10 +2870,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2890,10 +2884,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2907,7 +2901,7 @@
         <v>236</v>
       </c>
       <c r="D122" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2918,10 +2912,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2932,10 +2926,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2946,10 +2940,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D125" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2960,10 +2954,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2974,10 +2968,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2988,10 +2982,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3002,10 +2996,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3016,10 +3010,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3030,10 +3024,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3044,10 +3038,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3058,10 +3052,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3075,7 +3069,7 @@
         <v>237</v>
       </c>
       <c r="D134" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3086,10 +3080,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3100,10 +3094,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3114,10 +3108,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D137" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3128,10 +3122,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3142,10 +3136,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3156,10 +3150,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3170,10 +3164,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3184,10 +3178,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3198,10 +3192,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D143" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3212,10 +3206,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3226,10 +3220,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3240,10 +3234,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3254,10 +3248,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D147" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3268,10 +3262,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3282,10 +3276,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3296,10 +3290,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3310,10 +3304,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D151" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3324,10 +3318,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D152" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3338,10 +3332,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3352,10 +3346,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3366,10 +3360,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D155" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3380,10 +3374,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D156" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3394,10 +3388,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3408,10 +3402,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D158" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3422,10 +3416,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3436,10 +3430,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D160" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3450,10 +3444,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D161" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3467,7 +3461,7 @@
         <v>236</v>
       </c>
       <c r="D162" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3478,10 +3472,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D163" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3492,10 +3486,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D164" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3506,10 +3500,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D165" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3520,10 +3514,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D166" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3534,10 +3528,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D167" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3548,10 +3542,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D168" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3562,10 +3556,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D169" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3576,10 +3570,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D170" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3590,10 +3584,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3607,7 +3601,7 @@
         <v>236</v>
       </c>
       <c r="D172" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3618,10 +3612,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D173" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3632,10 +3626,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D174" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3646,10 +3640,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D175" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3660,10 +3654,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3674,10 +3668,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D177" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3688,10 +3682,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D178" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3702,10 +3696,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3716,10 +3710,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D180" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3730,10 +3724,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D181" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3744,10 +3738,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D182" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3758,10 +3752,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D183" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3772,10 +3766,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D184" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3786,10 +3780,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D185" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3800,10 +3794,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3814,10 +3808,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
+        <v>237</v>
+      </c>
+      <c r="D187" t="s">
         <v>239</v>
-      </c>
-      <c r="D187" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3828,10 +3822,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3842,10 +3836,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D189" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3859,7 +3853,7 @@
         <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3870,10 +3864,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D191" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3884,10 +3878,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3898,10 +3892,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D193" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3912,10 +3906,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D194" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3926,10 +3920,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D195" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3940,10 +3934,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D196" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3954,10 +3948,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D197" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3968,10 +3962,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3982,10 +3976,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D199" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3996,10 +3990,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D200" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4010,10 +4004,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D201" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4024,10 +4018,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D202" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4041,7 +4035,7 @@
         <v>237</v>
       </c>
       <c r="D203" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4052,10 +4046,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D204" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4066,10 +4060,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D205" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4080,10 +4074,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D206" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4094,10 +4088,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D207" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4108,10 +4102,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4125,7 +4119,7 @@
         <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4136,10 +4130,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D210" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4150,10 +4144,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4164,10 +4158,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D212" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4178,10 +4172,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D213" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4192,10 +4186,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D214" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4209,7 +4203,7 @@
         <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4220,10 +4214,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D216" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4234,10 +4228,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D217" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4248,10 +4242,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D218" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4262,10 +4256,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D219" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4279,7 +4273,7 @@
         <v>238</v>
       </c>
       <c r="D220" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4290,10 +4284,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D221" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4304,10 +4298,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D222" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4318,10 +4312,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D223" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4332,10 +4326,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D224" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4346,10 +4340,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D225" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4360,10 +4354,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4374,10 +4368,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D227" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4388,10 +4382,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D228" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4402,10 +4396,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D229" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4416,10 +4410,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D230" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4430,42 +4424,14 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D231" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>234</v>
-      </c>
-      <c r="C232" t="s">
-        <v>236</v>
-      </c>
-      <c r="D232" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>235</v>
-      </c>
-      <c r="C233" t="s">
-        <v>240</v>
-      </c>
-      <c r="D233" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D233"/>
+  <autoFilter ref="A1:D231"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$230</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="270">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -70,15 +70,15 @@
     <t>Matthew Tkachuk</t>
   </si>
   <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
     <t>Aleksander Barkov Jr.</t>
   </si>
   <si>
     <t>Mitch Marner</t>
   </si>
   <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
@@ -157,19 +157,22 @@
     <t>Jack Eichel</t>
   </si>
   <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
     <t>Vladimir Tarasenko</t>
   </si>
   <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Elias Pettersson</t>
+    <t>Patrick Kane</t>
   </si>
   <si>
     <t>Tristan Jarry</t>
   </si>
   <si>
-    <t>Patrick Kane</t>
+    <t>Evander Kane</t>
   </si>
   <si>
     <t>Jack Hughes</t>
@@ -181,54 +184,51 @@
     <t>Filip Forsberg</t>
   </si>
   <si>
+    <t>Connor Hellebuyck</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
     <t>Darcy Kuemper</t>
   </si>
   <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Jason Robertson</t>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>William Nylander</t>
   </si>
   <si>
     <t>Patrik Laine</t>
   </si>
   <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
     <t>Morgan Rielly</t>
   </si>
   <si>
-    <t>Connor Hellebuyck</t>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
   </si>
   <si>
     <t>John Tavares</t>
   </si>
   <si>
-    <t>William Nylander</t>
-  </si>
-  <si>
-    <t>Sam Reinhart</t>
-  </si>
-  <si>
-    <t>Quinn Hughes</t>
-  </si>
-  <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
-    <t>Kevin Fiala</t>
-  </si>
-  <si>
     <t>Alex Pietrangelo</t>
   </si>
   <si>
@@ -238,10 +238,13 @@
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
+    <t>Max Pacioretty</t>
+  </si>
+  <si>
     <t>Rasmus Dahlin</t>
   </si>
   <si>
-    <t>Max Pacioretty</t>
+    <t>Josh Norris</t>
   </si>
   <si>
     <t>Claude Giroux</t>
@@ -250,25 +253,25 @@
     <t>Sergei Bobrovsky</t>
   </si>
   <si>
-    <t>Josh Norris</t>
+    <t>Roope Hintz</t>
   </si>
   <si>
     <t>Matt Duchene</t>
   </si>
   <si>
-    <t>Roope Hintz</t>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
   </si>
   <si>
     <t>Seth Jones</t>
   </si>
   <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
+    <t>Nikolaj Ehlers</t>
   </si>
   <si>
     <t>Jacob Trouba</t>
@@ -280,9 +283,6 @@
     <t>Nazem Kadri</t>
   </si>
   <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
     <t>Dougie Hamilton</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>Spencer Knight</t>
   </si>
   <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
     <t>Zach Werenski</t>
   </si>
   <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
     <t>Jeremy Swayman</t>
   </si>
   <si>
@@ -322,36 +322,36 @@
     <t>Pierre-Luc Dubois</t>
   </si>
   <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
     <t>Tomas Hertl</t>
   </si>
   <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Tim Stutzle</t>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Shea Theodore</t>
   </si>
   <si>
     <t>Tage Thompson</t>
   </si>
   <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
     <t>Anze Kopitar</t>
   </si>
   <si>
+    <t>Jonathan Quick</t>
+  </si>
+  <si>
     <t>Ivan Provorov</t>
   </si>
   <si>
-    <t>Jonathan Quick</t>
-  </si>
-  <si>
     <t>Jordan Kyrou</t>
   </si>
   <si>
@@ -373,84 +373,84 @@
     <t>Torey Krug</t>
   </si>
   <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
     <t>Trevor Zegras</t>
   </si>
   <si>
-    <t>Michael Bunting</t>
-  </si>
-  <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
-    <t>Mats Zuccarello</t>
-  </si>
-  <si>
     <t>Cam Talbot</t>
   </si>
   <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
     <t>Adrian Kempe</t>
   </si>
   <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
     <t>Jordan Binnington</t>
   </si>
   <si>
-    <t>Jonathan Marchessault</t>
+    <t>Matt Boldy</t>
   </si>
   <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Matt Boldy</t>
-  </si>
-  <si>
     <t>Owen Power</t>
   </si>
   <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
     <t>Justin Faulk</t>
   </si>
   <si>
-    <t>Cole Caufield</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
     <t>Ilya Samsonov</t>
   </si>
   <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
     <t>Alec Martinez</t>
   </si>
   <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
+    <t>Brayden Point</t>
   </si>
   <si>
     <t>Jakob Chychrun</t>
   </si>
   <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Brayden Point</t>
-  </si>
-  <si>
     <t>Logan Thompson</t>
   </si>
   <si>
     <t>John Klingberg</t>
   </si>
   <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
     <t>Josh Morrissey</t>
   </si>
   <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
     <t>Zach Hyman</t>
   </si>
   <si>
@@ -475,192 +475,192 @@
     <t>Shayne Gostisbehere</t>
   </si>
   <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
     <t>Oliver Bjorkstrand</t>
   </si>
   <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
     <t>Boone Jenner</t>
   </si>
   <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
   </si>
   <si>
     <t>Alex Tuch</t>
   </si>
   <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
     <t>Blake Wheeler</t>
   </si>
   <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
-    <t>Tanner Jeannot</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
   </si>
   <si>
     <t>Marco Rossi</t>
   </si>
   <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Valeri Nichushkin</t>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
   </si>
   <si>
     <t>Ryan Hartman</t>
   </si>
   <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>David Krejci</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
   </si>
   <si>
     <t>Shane Wright</t>
   </si>
   <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
   </si>
   <si>
     <t>Brock Nelson</t>
   </si>
   <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
   </si>
   <si>
     <t>Joel Eriksson Ek</t>
   </si>
   <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
     <t>Semyon Varlamov</t>
   </si>
   <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
     <t>Adam Larsson</t>
   </si>
   <si>
-    <t>Anton Lundell</t>
-  </si>
-  <si>
     <t>Ryan Johansen</t>
   </si>
   <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
     <t>Peyton Krebs</t>
   </si>
   <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
     <t>Filip Chytil</t>
   </si>
   <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
     <t>Philipp Grubauer</t>
   </si>
   <si>
     <t>Jack Roslovic</t>
   </si>
   <si>
-    <t>Vladislav Gavrikov</t>
-  </si>
-  <si>
     <t>Sean Couturier</t>
   </si>
   <si>
@@ -670,49 +670,46 @@
     <t>Andre Burakovsky</t>
   </si>
   <si>
+    <t>Vasily Podkolzin</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Matt Dumba</t>
+  </si>
+  <si>
     <t>Esa Lindell</t>
   </si>
   <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
-    <t>Vasily Podkolzin</t>
-  </si>
-  <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
   </si>
   <si>
     <t>Rickard Rakell</t>
   </si>
   <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
     <t>Jamie Benn</t>
   </si>
   <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Ondrej Palat</t>
   </si>
   <si>
     <t>Petr Mrazek</t>
   </si>
   <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Ondrej Palat</t>
-  </si>
-  <si>
     <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Phillip Danault</t>
   </si>
   <si>
     <t>Mason McTavish</t>
@@ -1187,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1232,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1246,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1260,10 +1257,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1274,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1288,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1302,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1316,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1330,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1344,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1358,10 +1355,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1372,10 +1369,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1386,10 +1383,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1400,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
         <v>246</v>
@@ -1414,10 +1411,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1431,7 +1428,7 @@
         <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1442,10 +1439,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1456,10 +1453,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1470,10 +1467,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1484,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1498,10 +1495,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1512,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1526,10 +1523,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1540,10 +1537,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1554,10 +1551,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1568,10 +1565,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1582,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1596,10 +1593,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1610,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1624,10 +1621,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1638,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1652,10 +1649,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1666,10 +1663,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1680,10 +1677,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1694,10 +1691,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1708,10 +1705,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1722,10 +1719,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1736,10 +1733,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1750,10 +1747,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1764,10 +1761,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1778,10 +1775,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1792,10 +1789,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1806,10 +1803,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1820,10 +1817,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1834,10 +1831,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1848,10 +1845,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1862,10 +1859,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1879,7 +1876,7 @@
         <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1890,10 +1887,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1907,7 +1904,7 @@
         <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1918,10 +1915,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1935,7 +1932,7 @@
         <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1946,10 +1943,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1963,7 +1960,7 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1977,7 +1974,7 @@
         <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1988,10 +1985,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2005,7 +2002,7 @@
         <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2016,10 +2013,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2030,10 +2027,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2044,10 +2041,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2058,10 +2055,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2072,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2089,7 +2086,7 @@
         <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2103,7 +2100,7 @@
         <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2114,10 +2111,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2128,10 +2125,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2142,10 +2139,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2156,10 +2153,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2170,10 +2167,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2184,10 +2181,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2198,10 +2195,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2212,10 +2209,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2226,10 +2223,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2240,10 +2237,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2254,10 +2251,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2268,10 +2265,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2282,10 +2279,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2296,10 +2293,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2310,10 +2307,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2324,7 +2321,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
         <v>261</v>
@@ -2338,10 +2335,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2352,10 +2349,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2366,10 +2363,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2380,10 +2377,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2394,10 +2391,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2408,10 +2405,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2422,10 +2419,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2436,10 +2433,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2450,10 +2447,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2464,10 +2461,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2478,10 +2475,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2495,7 +2492,7 @@
         <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2506,10 +2503,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2520,10 +2517,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2534,10 +2531,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2548,10 +2545,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2562,10 +2559,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2576,7 +2573,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D99" t="s">
         <v>258</v>
@@ -2590,10 +2587,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2604,10 +2601,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2618,10 +2615,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2632,10 +2629,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2649,7 +2646,7 @@
         <v>237</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2660,10 +2657,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2674,10 +2671,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2688,10 +2685,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2705,7 +2702,7 @@
         <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2716,10 +2713,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2730,10 +2727,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2744,10 +2741,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2758,10 +2755,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2772,10 +2769,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2786,10 +2783,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2800,10 +2797,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2817,7 +2814,7 @@
         <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2828,10 +2825,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2845,7 +2842,7 @@
         <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2856,10 +2853,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2870,10 +2867,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2884,10 +2881,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2898,10 +2895,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2912,10 +2909,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2926,10 +2923,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2940,10 +2937,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2954,10 +2951,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2968,10 +2965,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2982,10 +2979,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2996,10 +2993,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D129" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3010,10 +3007,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3024,10 +3021,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3038,10 +3035,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3052,10 +3049,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3066,10 +3063,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3080,10 +3077,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3094,10 +3091,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D136" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3108,10 +3105,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3122,10 +3119,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3136,10 +3133,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3150,10 +3147,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3164,10 +3161,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3178,10 +3175,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3192,10 +3189,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3206,10 +3203,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3220,10 +3217,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3234,10 +3231,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3248,10 +3245,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3262,10 +3259,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D148" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3276,10 +3273,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3290,10 +3287,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3304,10 +3301,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3318,10 +3315,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3332,10 +3329,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3349,7 +3346,7 @@
         <v>237</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3360,10 +3357,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3374,10 +3371,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3388,10 +3385,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3402,10 +3399,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3416,10 +3413,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D159" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3430,10 +3427,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3444,10 +3441,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D161" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3458,10 +3455,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3472,10 +3469,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D163" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3486,10 +3483,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
+        <v>233</v>
+      </c>
+      <c r="D164" t="s">
         <v>238</v>
-      </c>
-      <c r="D164" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3500,10 +3497,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D165" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3514,10 +3511,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D166" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3528,10 +3525,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3542,10 +3539,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3556,10 +3553,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3570,10 +3567,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D170" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3587,7 +3584,7 @@
         <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3598,10 +3595,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D172" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3612,10 +3609,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D173" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3626,10 +3623,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3640,10 +3637,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D175" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3654,10 +3651,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D176" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3668,10 +3665,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D177" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3682,10 +3679,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D178" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3696,10 +3693,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3710,10 +3707,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D180" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3724,10 +3721,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3741,7 +3738,7 @@
         <v>236</v>
       </c>
       <c r="D182" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3755,7 +3752,7 @@
         <v>237</v>
       </c>
       <c r="D183" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3766,10 +3763,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D184" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3780,10 +3777,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D185" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3794,10 +3791,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D186" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3808,10 +3805,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3822,10 +3819,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3836,10 +3833,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D189" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3850,10 +3847,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D190" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3864,10 +3861,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D191" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3878,10 +3875,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3892,10 +3889,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D193" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3906,10 +3903,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D194" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3920,10 +3917,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D195" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3934,10 +3931,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D196" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3948,10 +3945,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D197" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3962,10 +3959,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3979,7 +3976,7 @@
         <v>234</v>
       </c>
       <c r="D199" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3990,10 +3987,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4004,10 +4001,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D201" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4018,10 +4015,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4032,10 +4029,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D203" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4046,10 +4043,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D204" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4060,10 +4057,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D205" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4074,10 +4071,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D206" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4088,10 +4085,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D207" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4102,10 +4099,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4119,7 +4116,7 @@
         <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4130,10 +4127,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D210" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4144,10 +4141,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D211" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4158,10 +4155,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D212" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4172,10 +4169,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4186,10 +4183,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4203,7 +4200,7 @@
         <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4214,10 +4211,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4228,10 +4225,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D217" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4242,10 +4239,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D218" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4256,10 +4253,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D219" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4270,10 +4267,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D220" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4284,10 +4281,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D221" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4298,10 +4295,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D222" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4312,10 +4309,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4326,10 +4323,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D224" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4340,10 +4337,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D225" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4354,10 +4351,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D226" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4371,7 +4368,7 @@
         <v>235</v>
       </c>
       <c r="D227" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4382,10 +4379,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D228" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4396,10 +4393,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D229" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4410,28 +4407,14 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D230" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>233</v>
-      </c>
-      <c r="C231" t="s">
-        <v>238</v>
-      </c>
-      <c r="D231" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D231"/>
+  <autoFilter ref="A1:D230"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -88,15 +88,15 @@
     <t>Steven Stamkos</t>
   </si>
   <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
     <t>Ilya Sorokin</t>
   </si>
   <si>
     <t>Sidney Crosby</t>
   </si>
   <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
     <t>Mika Zibanejad</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Brady Tkachuk</t>
   </si>
   <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
     <t>Johnny Gaudreau</t>
   </si>
   <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
     <t>Artemi Panarin</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Timo Meier</t>
   </si>
   <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
     <t>Gabriel Landeskog</t>
   </si>
   <si>
-    <t>Jake Oettinger</t>
-  </si>
-  <si>
     <t>Elias Lindholm</t>
   </si>
   <si>
@@ -175,18 +175,18 @@
     <t>Evander Kane</t>
   </si>
   <si>
+    <t>Connor Hellebuyck</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
     <t>Jack Hughes</t>
   </si>
   <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
     <t>Filip Forsberg</t>
   </si>
   <si>
-    <t>Connor Hellebuyck</t>
-  </si>
-  <si>
     <t>Jason Robertson</t>
   </si>
   <si>
@@ -196,18 +196,18 @@
     <t>Darcy Kuemper</t>
   </si>
   <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
     <t>Kris Letang</t>
   </si>
   <si>
-    <t>William Nylander</t>
+    <t>Morgan Rielly</t>
   </si>
   <si>
     <t>Patrik Laine</t>
   </si>
   <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
     <t>Sam Reinhart</t>
   </si>
   <si>
@@ -217,54 +217,54 @@
     <t>Thatcher Demko</t>
   </si>
   <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
     <t>Brent Burns</t>
   </si>
   <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
     <t>Kevin Fiala</t>
   </si>
   <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
     <t>John Tavares</t>
   </si>
   <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
     <t>Noah Dobson</t>
   </si>
   <si>
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
     <t>Max Pacioretty</t>
   </si>
   <si>
-    <t>Rasmus Dahlin</t>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
   </si>
   <si>
     <t>Josh Norris</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Sergei Bobrovsky</t>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
   </si>
   <si>
     <t>Roope Hintz</t>
   </si>
   <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
-  </si>
-  <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
     <t>Evgeni Malkin</t>
   </si>
   <si>
@@ -274,40 +274,43 @@
     <t>Nikolaj Ehlers</t>
   </si>
   <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Nazem Kadri</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
     <t>Devon Toews</t>
   </si>
   <si>
     <t>Patrice Bergeron</t>
   </si>
   <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
     <t>Drew Doughty</t>
   </si>
   <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
     <t>Nick Suzuki</t>
   </si>
   <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
     <t>Spencer Knight</t>
   </si>
   <si>
     <t>Drake Batherson</t>
   </si>
   <si>
-    <t>Dylan Larkin</t>
+    <t>Mark Scheifele</t>
   </si>
   <si>
     <t>Zach Werenski</t>
@@ -316,30 +319,27 @@
     <t>Jeremy Swayman</t>
   </si>
   <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
     <t>Pierre-Luc Dubois</t>
   </si>
   <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
     <t>Joe Pavelski</t>
   </si>
   <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
     <t>Tomas Hertl</t>
   </si>
   <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
     <t>Teuvo Teravainen</t>
   </si>
   <si>
     <t>Shea Theodore</t>
   </si>
   <si>
-    <t>Tage Thompson</t>
-  </si>
-  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
@@ -361,57 +361,57 @@
     <t>Miro Heiskanen</t>
   </si>
   <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
     <t>Mikhail Sergachev</t>
   </si>
   <si>
     <t>Alexandar Georgiev</t>
   </si>
   <si>
+    <t>Torey Krug</t>
+  </si>
+  <si>
     <t>Tyler Toffoli</t>
   </si>
   <si>
-    <t>Torey Krug</t>
+    <t>Evan Bouchard</t>
   </si>
   <si>
     <t>Michael Bunting</t>
   </si>
   <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
     <t>Mats Zuccarello</t>
   </si>
   <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
     <t>Trevor Zegras</t>
   </si>
   <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
     <t>Adrian Kempe</t>
   </si>
   <si>
     <t>Brayden Schenn</t>
   </si>
   <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
     <t>Jordan Binnington</t>
   </si>
   <si>
-    <t>Matt Boldy</t>
+    <t>Owen Power</t>
   </si>
   <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
     <t>Cole Caufield</t>
   </si>
   <si>
@@ -454,30 +454,30 @@
     <t>Zach Hyman</t>
   </si>
   <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
     <t>Bo Horvat</t>
   </si>
   <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
     <t>Logan Couture</t>
   </si>
   <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Ville Husso</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
     <t>Anton Forsberg</t>
   </si>
   <si>
     <t>Shayne Gostisbehere</t>
   </si>
   <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
     <t>Ryan O'Reilly</t>
   </si>
   <si>
@@ -487,39 +487,39 @@
     <t>Jared Spurgeon</t>
   </si>
   <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
     <t>Oliver Bjorkstrand</t>
   </si>
   <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
     <t>Alex Tuch</t>
   </si>
   <si>
     <t>Tyler Seguin</t>
   </si>
   <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
     <t>Jake Sanderson</t>
   </si>
   <si>
@@ -535,141 +535,141 @@
     <t>John Gibson</t>
   </si>
   <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
     <t>Tanner Jeannot</t>
   </si>
   <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
     <t>Jaccob Slavin</t>
   </si>
   <si>
-    <t>Valeri Nichushkin</t>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Matt Murray</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Marco Rossi</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
   </si>
   <si>
     <t>Blake Wheeler</t>
   </si>
   <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Marco Rossi</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
     <t>David Krejci</t>
   </si>
   <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
     <t>Ryan Pulock</t>
   </si>
   <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
     <t>Damon Severson</t>
   </si>
   <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
     <t>Travis Konecny</t>
   </si>
   <si>
-    <t>Vince Dunn</t>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Anton Lundell</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
   </si>
   <si>
     <t>Shane Wright</t>
   </si>
   <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Anton Lundell</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
+    <t>Peyton Krebs</t>
   </si>
   <si>
     <t>Ryan Johansen</t>
   </si>
   <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
     <t>Kevin Shattenkirk</t>
   </si>
   <si>
-    <t>Peyton Krebs</t>
-  </si>
-  <si>
-    <t>Filip Chytil</t>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
   </si>
   <si>
     <t>Vladislav Gavrikov</t>
   </si>
   <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Jack Roslovic</t>
-  </si>
-  <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
     <t>Vasily Podkolzin</t>
   </si>
   <si>
@@ -682,37 +682,37 @@
     <t>Matt Dumba</t>
   </si>
   <si>
+    <t>Ondrej Palat</t>
+  </si>
+  <si>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
     <t>Esa Lindell</t>
   </si>
   <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
     <t>Alexis Lafreniere</t>
   </si>
   <si>
+    <t>Yegor Sharangovich</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
     <t>Rickard Rakell</t>
   </si>
   <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
     <t>Anders Lee</t>
   </si>
   <si>
-    <t>Ondrej Palat</t>
+    <t>Vitek Vanecek</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
   </si>
   <si>
     <t>Petr Mrazek</t>
-  </si>
-  <si>
-    <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Mason McTavish</t>
   </si>
   <si>
     <t>Jakub Voracek</t>
@@ -1484,7 +1484,7 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1495,10 +1495,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1509,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1747,10 +1747,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1761,10 +1761,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1887,10 +1887,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1915,10 +1915,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1929,10 +1929,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1985,10 +1985,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1999,10 +1999,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2013,10 +2013,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2027,10 +2027,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2083,10 +2083,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2097,10 +2097,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2125,10 +2125,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2139,10 +2139,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2181,10 +2181,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2195,10 +2195,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
         <v>254</v>
@@ -2223,10 +2223,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2237,10 +2237,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2251,10 +2251,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2279,10 +2279,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2293,10 +2293,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2433,10 +2433,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2447,10 +2447,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2475,10 +2475,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2489,10 +2489,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2503,10 +2503,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2517,10 +2517,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2531,10 +2531,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2545,10 +2545,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2615,10 +2615,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2629,10 +2629,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2643,10 +2643,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2769,10 +2769,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2783,10 +2783,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2839,10 +2839,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2853,10 +2853,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2881,10 +2881,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2937,10 +2937,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2951,10 +2951,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2965,10 +2965,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2979,10 +2979,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3203,10 +3203,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3217,10 +3217,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3231,10 +3231,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3245,10 +3245,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3259,10 +3259,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3273,10 +3273,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3287,10 +3287,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3343,10 +3343,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3357,10 +3357,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D155" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3413,10 +3413,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D159" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3427,10 +3427,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D160" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>233</v>
       </c>
       <c r="D161" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3455,10 +3455,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D162" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>237</v>
       </c>
       <c r="D163" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>233</v>
       </c>
       <c r="D164" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>234</v>
       </c>
       <c r="D170" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3595,10 +3595,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3609,10 +3609,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D173" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3637,10 +3637,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3651,10 +3651,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D176" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3665,10 +3665,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D177" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3693,10 +3693,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D179" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3707,10 +3707,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D180" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3721,10 +3721,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D181" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3763,10 +3763,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D184" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3777,10 +3777,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D185" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3791,10 +3791,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3805,10 +3805,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D187" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3819,10 +3819,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D188" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3847,10 +3847,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3861,10 +3861,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D191" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3889,10 +3889,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D193" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3903,10 +3903,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D194" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3917,7 +3917,7 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D195" t="s">
         <v>269</v>
@@ -3934,7 +3934,7 @@
         <v>234</v>
       </c>
       <c r="D196" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3959,10 +3959,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3987,10 +3987,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D200" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4015,10 +4015,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D202" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4029,10 +4029,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D203" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4043,7 +4043,7 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D204" t="s">
         <v>269</v>
@@ -4057,10 +4057,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D205" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4071,10 +4071,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D206" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4085,10 +4085,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D207" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4099,10 +4099,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D208" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4127,10 +4127,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D210" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>233</v>
       </c>
       <c r="D211" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>233</v>
       </c>
       <c r="D212" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4169,10 +4169,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D213" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4183,10 +4183,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D214" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4253,10 +4253,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D219" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4281,10 +4281,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D221" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4295,10 +4295,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D222" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4337,10 +4337,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D225" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>234</v>
       </c>
       <c r="D226" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>235</v>
       </c>
       <c r="D227" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4379,10 +4379,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D228" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4393,10 +4393,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3220,7 +3220,7 @@
         <v>233</v>
       </c>
       <c r="D145" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -1677,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>254</v>
@@ -2615,7 +2615,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
         <v>264</v>
@@ -4057,7 +4057,7 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D205" t="s">
         <v>264</v>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -799,19 +799,19 @@
     <t>VGK</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
     <t>STL</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>BUF</t>
   </si>
   <si>
     <t>MTL</t>
@@ -1834,7 +1834,7 @@
         <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>237</v>
       </c>
       <c r="D163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>233</v>
       </c>
       <c r="D179" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>234</v>
       </c>
       <c r="D196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>234</v>
       </c>
       <c r="D199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>233</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>234</v>
       </c>
       <c r="D219" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>235</v>
       </c>
       <c r="D227" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3304,7 +3304,7 @@
         <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -790,31 +790,31 @@
     <t>DET</t>
   </si>
   <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>VGK</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
     <t>SJ</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>VGK</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>MTL</t>
   </si>
   <si>
     <t>PHI</t>
@@ -1848,7 +1848,7 @@
         <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>233</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2996,7 +2996,7 @@
         <v>237</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>237</v>
       </c>
       <c r="D163" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>234</v>
       </c>
       <c r="D176" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>233</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>234</v>
       </c>
       <c r="D196" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>234</v>
       </c>
       <c r="D199" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>233</v>
       </c>
       <c r="D205" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>234</v>
       </c>
       <c r="D219" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>235</v>
       </c>
       <c r="D227" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>235</v>
       </c>
       <c r="D229" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -823,10 +823,10 @@
     <t>ANA</t>
   </si>
   <si>
+    <t>SEA</t>
+  </si>
+  <si>
     <t>ARI</t>
-  </si>
-  <si>
-    <t>SEA</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2688,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>237</v>
       </c>
       <c r="D155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>237</v>
       </c>
       <c r="D162" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>234</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>236</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>236</v>
       </c>
       <c r="D203" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>233</v>
       </c>
       <c r="D204" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>235</v>
       </c>
       <c r="D208" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>234</v>
       </c>
       <c r="D213" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>236</v>
       </c>
       <c r="D214" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>234</v>
       </c>
       <c r="D216" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>237</v>
       </c>
       <c r="D230" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -817,10 +817,10 @@
     <t>SJ</t>
   </si>
   <si>
+    <t>ANA</t>
+  </si>
+  <si>
     <t>PHI</t>
-  </si>
-  <si>
-    <t>ANA</t>
   </si>
   <si>
     <t>SEA</t>
@@ -2702,7 +2702,7 @@
         <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>233</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>235</v>
       </c>
       <c r="D169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>233</v>
       </c>
       <c r="D211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>233</v>
       </c>
       <c r="D228" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3878,7 +3878,7 @@
         <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -2562,7 +2562,7 @@
         <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2814,7 +2814,7 @@
         <v>237</v>
       </c>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>233</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>233</v>
       </c>
       <c r="D223" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -2198,7 +2198,7 @@
         <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>233</v>
       </c>
       <c r="D151" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>234</v>
       </c>
       <c r="D173" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>236</v>
       </c>
       <c r="D209" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -1680,7 +1680,7 @@
         <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -820,13 +820,13 @@
     <t>ANA</t>
   </si>
   <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
     <t>PHI</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>ARI</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3150,7 @@
         <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>237</v>
       </c>
       <c r="D155" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>237</v>
       </c>
       <c r="D162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>237</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>237</v>
       </c>
       <c r="D190" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>236</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>233</v>
       </c>
       <c r="D204" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>235</v>
       </c>
       <c r="D208" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>233</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>234</v>
       </c>
       <c r="D213" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>237</v>
       </c>
       <c r="D230" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -1834,7 +1834,7 @@
         <v>237</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3206,7 +3206,7 @@
         <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>236</v>
       </c>
       <c r="D218" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3206,7 +3206,7 @@
         <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$303</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="343">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -37,796 +37,1015 @@
     <t>Leon Draisaitl</t>
   </si>
   <si>
+    <t>David Pastrnak</t>
+  </si>
+  <si>
+    <t>Nathan MacKinnon</t>
+  </si>
+  <si>
     <t>Auston Matthews</t>
   </si>
   <si>
-    <t>Nathan MacKinnon</t>
+    <t>Matthew Tkachuk</t>
+  </si>
+  <si>
+    <t>Jason Robertson</t>
+  </si>
+  <si>
+    <t>Mikko Rantanen</t>
+  </si>
+  <si>
+    <t>Jack Hughes</t>
+  </si>
+  <si>
+    <t>Tage Thompson</t>
+  </si>
+  <si>
+    <t>Brady Tkachuk</t>
+  </si>
+  <si>
+    <t>Cale Makar</t>
   </si>
   <si>
     <t>Kirill Kaprizov</t>
   </si>
   <si>
+    <t>Ilya Sorokin</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>Nikita Kucherov</t>
+  </si>
+  <si>
     <t>Igor Shesterkin</t>
   </si>
   <si>
-    <t>Cale Makar</t>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>Alexandar Georgiev</t>
+  </si>
+  <si>
+    <t>Connor Bedard</t>
+  </si>
+  <si>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>Brayden Point</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
+  </si>
+  <si>
+    <t>Connor Hellebuyck</t>
+  </si>
+  <si>
+    <t>Alex Ovechkin</t>
   </si>
   <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>Nikita Kucherov</t>
-  </si>
-  <si>
-    <t>Mikko Rantanen</t>
-  </si>
-  <si>
-    <t>Alex Ovechkin</t>
+    <t>Timo Meier</t>
+  </si>
+  <si>
+    <t>Rasmus Dahlin</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Carter Verhaeghe</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
   </si>
   <si>
     <t>Victor Hedman</t>
   </si>
   <si>
-    <t>Matthew Tkachuk</t>
-  </si>
-  <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Mitch Marner</t>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Brandon Montour</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Filip Gustavsson</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>Jacob Trouba</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Mark Stone</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Jared McCann</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Vitek Vanecek</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Owen Tippett</t>
+  </si>
+  <si>
+    <t>Joonas Korpisalo</t>
+  </si>
+  <si>
+    <t>Devon Levi</t>
+  </si>
+  <si>
+    <t>Brandon Hagel</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Stuart Skinner</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Luke Hughes</t>
+  </si>
+  <si>
+    <t>Marc-Andre Fleury</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Dawson Mercer</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Juraj Slafkovsky</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
   </si>
   <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
-    <t>Adam Fox</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
+    <t>Pyotr Kochetkov</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Rickard Rakell</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Trevor Zegras</t>
+  </si>
+  <si>
+    <t>Jake Walman</t>
   </si>
   <si>
     <t>Jacob Markstrom</t>
   </si>
   <si>
-    <t>Ilya Sorokin</t>
-  </si>
-  <si>
-    <t>Sidney Crosby</t>
-  </si>
-  <si>
-    <t>Mika Zibanejad</t>
-  </si>
-  <si>
-    <t>J.T. Miller</t>
-  </si>
-  <si>
-    <t>Kyle Connor</t>
-  </si>
-  <si>
-    <t>David Pastrnak</t>
-  </si>
-  <si>
-    <t>Juuse Saros</t>
-  </si>
-  <si>
-    <t>Sebastian Aho</t>
-  </si>
-  <si>
-    <t>Brady Tkachuk</t>
-  </si>
-  <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
-    <t>Moritz Seider</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Chris Kreider</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
-    <t>Jake Oettinger</t>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
+  </si>
+  <si>
+    <t>Carter Hart</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Ivan Barbashev</t>
+  </si>
+  <si>
+    <t>Jake DeBrusk</t>
+  </si>
+  <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>Rafael Harvey-Pinard</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>K'Andre Miller</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
+    <t>Artturi Lehkonen</t>
+  </si>
+  <si>
+    <t>Logan Cooley</t>
+  </si>
+  <si>
+    <t>Adin Hill</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>Juuso Valimaki</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Jordan Eberle</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>Max Domi</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>Lawson Crouse</t>
+  </si>
+  <si>
+    <t>Ryan Reaves</t>
+  </si>
+  <si>
+    <t>Charlie Coyle</t>
+  </si>
+  <si>
+    <t>Kirill Marchenko</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Brandt Clarke</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Sean Durzi</t>
+  </si>
+  <si>
+    <t>Matias Maccelli</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Akira Schmid</t>
+  </si>
+  <si>
+    <t>Brandon Carlo</t>
+  </si>
+  <si>
+    <t>Dylan Strome</t>
+  </si>
+  <si>
+    <t>Connor Clifton</t>
+  </si>
+  <si>
+    <t>Phillip Danault</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Leo Carlsson</t>
+  </si>
+  <si>
+    <t>Matt Grzelcyk</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Lukas Reichel</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Brandon Tanev</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
+  </si>
+  <si>
+    <t>Philip Tomasino</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Alexander Romanov</t>
+  </si>
+  <si>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Ukko-Pekka Luukkonen</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Mattias Ekholm</t>
+  </si>
+  <si>
+    <t>Mikael Backlund</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Kaapo Kakko</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Joseph Woll</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Anthony Beauvillier</t>
+  </si>
+  <si>
+    <t>Nikita Zadorov</t>
+  </si>
+  <si>
+    <t>Wyatt Johnston</t>
+  </si>
+  <si>
+    <t>Sammy Blais</t>
+  </si>
+  <si>
+    <t>Seth Jarvis</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
+  </si>
+  <si>
+    <t>Michael Matheson</t>
   </si>
   <si>
     <t>Gabriel Landeskog</t>
   </si>
   <si>
-    <t>Elias Lindholm</t>
-  </si>
-  <si>
-    <t>Jack Eichel</t>
-  </si>
-  <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Elias Pettersson</t>
-  </si>
-  <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
-  </si>
-  <si>
-    <t>Connor Hellebuyck</t>
-  </si>
-  <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
-    <t>Jack Hughes</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Jason Robertson</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
-  </si>
-  <si>
-    <t>William Nylander</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
-    <t>Sam Reinhart</t>
-  </si>
-  <si>
-    <t>Quinn Hughes</t>
-  </si>
-  <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Mark Stone</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Kevin Fiala</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
-    <t>Noah Dobson</t>
-  </si>
-  <si>
-    <t>Marc-Andre Fleury</t>
-  </si>
-  <si>
-    <t>Rasmus Dahlin</t>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Garnet Hathaway</t>
+  </si>
+  <si>
+    <t>J.T. Compher</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Dominik Kubalik</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
   </si>
   <si>
     <t>Max Pacioretty</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Sergei Bobrovsky</t>
-  </si>
-  <si>
-    <t>Josh Norris</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Roope Hintz</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
-  </si>
-  <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Nazem Kadri</t>
-  </si>
-  <si>
-    <t>Jacob Trouba</t>
-  </si>
-  <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
-    <t>Patrice Bergeron</t>
-  </si>
-  <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Drew Doughty</t>
-  </si>
-  <si>
-    <t>Nick Suzuki</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Jeremy Swayman</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Tage Thompson</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Rasmus Andersson</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
-  </si>
-  <si>
-    <t>Jonathan Quick</t>
-  </si>
-  <si>
-    <t>Ivan Provorov</t>
-  </si>
-  <si>
-    <t>Jordan Kyrou</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Miro Heiskanen</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Alexandar Georgiev</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
-    <t>Michael Bunting</t>
-  </si>
-  <si>
-    <t>Mats Zuccarello</t>
-  </si>
-  <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Trevor Zegras</t>
-  </si>
-  <si>
-    <t>Adrian Kempe</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Matt Boldy</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
-    <t>Robert Thomas</t>
-  </si>
-  <si>
-    <t>Cole Caufield</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Alec Martinez</t>
-  </si>
-  <si>
-    <t>Brayden Point</t>
-  </si>
-  <si>
-    <t>Jakob Chychrun</t>
-  </si>
-  <si>
-    <t>Logan Thompson</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Josh Morrissey</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Ville Husso</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>Anton Forsberg</t>
-  </si>
-  <si>
-    <t>Shayne Gostisbehere</t>
-  </si>
-  <si>
-    <t>Ryan O'Reilly</t>
-  </si>
-  <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
   </si>
   <si>
     <t>Boone Jenner</t>
   </si>
   <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Oliver Bjorkstrand</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Antti Raanta</t>
+  </si>
+  <si>
+    <t>Jani Hakanpaa</t>
+  </si>
+  <si>
+    <t>Nick Schmaltz</t>
+  </si>
+  <si>
+    <t>Pheonix Copley</t>
+  </si>
+  <si>
+    <t>Samuel Girard</t>
+  </si>
+  <si>
+    <t>Frank Vatrano</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Nino Niederreiter</t>
+  </si>
+  <si>
+    <t>Sam Montembeault</t>
+  </si>
+  <si>
+    <t>Jake Allen</t>
+  </si>
+  <si>
+    <t>Karel Vejmelka</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
   </si>
   <si>
     <t>John Gibson</t>
   </si>
   <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Valeri Nichushkin</t>
-  </si>
-  <si>
-    <t>Tanner Jeannot</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Matt Murray</t>
-  </si>
-  <si>
-    <t>Phil Kessel</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>Marco Rossi</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
-  </si>
-  <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>David Krejci</t>
-  </si>
-  <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Ryan Pulock</t>
-  </si>
-  <si>
-    <t>Damon Severson</t>
-  </si>
-  <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Anton Lundell</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
-  </si>
-  <si>
-    <t>Shane Wright</t>
-  </si>
-  <si>
-    <t>Peyton Krebs</t>
-  </si>
-  <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Filip Chytil</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>Jack Roslovic</t>
-  </si>
-  <si>
-    <t>Sean Couturier</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
-    <t>Vladislav Gavrikov</t>
-  </si>
-  <si>
-    <t>Vasily Podkolzin</t>
-  </si>
-  <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Matt Dumba</t>
-  </si>
-  <si>
-    <t>Ondrej Palat</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Yegor Sharangovich</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Rickard Rakell</t>
-  </si>
-  <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Mason McTavish</t>
-  </si>
-  <si>
-    <t>Petr Mrazek</t>
-  </si>
-  <si>
-    <t>Jakub Voracek</t>
+    <t>Daniel Sprong</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
     <t>LW</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>EDM</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>COL</t>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>OTT</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>NYI</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
     <t>NYR</t>
   </si>
   <si>
-    <t>TB</t>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>WPG</t>
   </si>
   <si>
     <t>WSH</t>
   </si>
   <si>
-    <t>FLA</t>
-  </si>
-  <si>
     <t>NSH</t>
   </si>
   <si>
+    <t>VGK</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>CGY</t>
   </si>
   <si>
-    <t>NYI</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>WPG</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>OTT</t>
+    <t>SEA</t>
   </si>
   <si>
     <t>CBJ</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>VGK</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>MTL</t>
+    <t>ANA</t>
   </si>
   <si>
     <t>SJ</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>PHI</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,10 +1434,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1229,10 +1448,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1243,10 +1462,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1257,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1271,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1285,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1299,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1313,10 +1532,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1327,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1341,10 +1560,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1355,10 +1574,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1369,10 +1588,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1383,10 +1602,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1397,10 +1616,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1411,10 +1630,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1425,10 +1644,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1439,10 +1658,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1453,10 +1672,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1467,10 +1686,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1481,10 +1700,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1495,10 +1714,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1509,10 +1728,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1523,10 +1742,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1537,10 +1756,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1551,10 +1770,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1565,10 +1784,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1579,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1593,10 +1812,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1607,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1621,10 +1840,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1635,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1649,10 +1868,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1663,10 +1882,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1677,10 +1896,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1691,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1705,10 +1924,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1719,10 +1938,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1733,10 +1952,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1747,10 +1966,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1761,10 +1980,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1775,10 +1994,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1789,10 +2008,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1803,10 +2022,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1817,10 +2036,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1831,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1845,10 +2064,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1859,10 +2078,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1873,10 +2092,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1887,10 +2106,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1901,10 +2120,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1915,10 +2134,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1929,10 +2148,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1943,10 +2162,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1957,10 +2176,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1971,10 +2190,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1985,10 +2204,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1999,10 +2218,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2013,10 +2232,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2027,10 +2246,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2041,10 +2260,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2055,10 +2274,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2069,10 +2288,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2083,10 +2302,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2097,10 +2316,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2111,10 +2330,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2125,10 +2344,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2139,10 +2358,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2153,10 +2372,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2167,10 +2386,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2181,10 +2400,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2195,10 +2414,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2209,10 +2428,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2223,10 +2442,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2237,10 +2456,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2251,10 +2470,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2265,10 +2484,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2279,10 +2498,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2293,10 +2512,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2307,10 +2526,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2321,10 +2540,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2335,10 +2554,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2349,10 +2568,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2363,10 +2582,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2377,10 +2596,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2391,10 +2610,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2405,10 +2624,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2419,10 +2638,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2433,10 +2652,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2447,10 +2666,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2461,10 +2680,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2475,10 +2694,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2489,10 +2708,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2503,10 +2722,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2517,10 +2736,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2531,10 +2750,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2545,10 +2764,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2559,10 +2778,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2573,10 +2792,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2587,10 +2806,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2601,10 +2820,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2615,10 +2834,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2629,10 +2848,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2643,10 +2862,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2657,10 +2876,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2671,10 +2890,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2685,10 +2904,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2699,10 +2918,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D108" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2713,10 +2932,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D109" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2727,10 +2946,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D110" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2741,10 +2960,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D111" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2755,10 +2974,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D112" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2769,10 +2988,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2783,10 +3002,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2797,10 +3016,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D115" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2811,10 +3030,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2825,10 +3044,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D117" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2839,10 +3058,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2853,10 +3072,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2867,10 +3086,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2881,10 +3100,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2895,10 +3114,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2909,10 +3128,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D123" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2923,10 +3142,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2937,10 +3156,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2951,10 +3170,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2965,10 +3184,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2979,10 +3198,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2993,10 +3212,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3007,10 +3226,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D130" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3021,10 +3240,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3035,10 +3254,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D132" t="s">
-        <v>257</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3049,10 +3268,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3063,10 +3282,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D134" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3077,10 +3296,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D135" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3091,10 +3310,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D136" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3105,10 +3324,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D137" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3119,10 +3338,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D138" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3133,10 +3352,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3147,10 +3366,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D140" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3161,10 +3380,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3175,10 +3394,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3189,10 +3408,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3203,10 +3422,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3217,10 +3436,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D145" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3231,10 +3450,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D146" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3245,10 +3464,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D147" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3259,10 +3478,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D148" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3273,10 +3492,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D149" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3287,10 +3506,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D150" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3301,10 +3520,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D151" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3315,10 +3534,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3329,10 +3548,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D153" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3343,10 +3562,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D154" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3357,10 +3576,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D155" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3371,10 +3590,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3385,10 +3604,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D157" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3399,10 +3618,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3413,10 +3632,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D159" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3427,10 +3646,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3441,10 +3660,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3455,10 +3674,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3469,10 +3688,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="D163" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3483,10 +3702,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D164" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3497,10 +3716,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D165" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3511,10 +3730,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3525,10 +3744,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3539,10 +3758,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3553,10 +3772,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D169" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3567,10 +3786,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3581,10 +3800,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="D171" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3595,10 +3814,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D172" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3609,10 +3828,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D173" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3623,10 +3842,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D174" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3637,10 +3856,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D175" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3651,10 +3870,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D176" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3665,10 +3884,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D177" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3679,10 +3898,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3693,10 +3912,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D179" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3707,10 +3926,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D180" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3721,10 +3940,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D181" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3735,10 +3954,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D182" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3749,10 +3968,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="D183" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3763,10 +3982,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D184" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3777,10 +3996,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D185" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3791,10 +4010,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3805,10 +4024,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D187" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3819,10 +4038,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3833,10 +4052,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D189" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3847,10 +4066,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D190" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3861,10 +4080,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D191" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3875,10 +4094,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D192" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3889,10 +4108,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="D193" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3903,10 +4122,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D194" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3917,10 +4136,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D195" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3931,10 +4150,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D196" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3945,10 +4164,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D197" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3959,10 +4178,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D198" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3973,10 +4192,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D199" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3987,10 +4206,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D200" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4001,10 +4220,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D201" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4015,10 +4234,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D202" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4029,10 +4248,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D203" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4043,10 +4262,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D204" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4057,10 +4276,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D205" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4071,10 +4290,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D206" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4085,10 +4304,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D207" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4099,10 +4318,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4113,10 +4332,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D209" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4127,10 +4346,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D210" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4141,10 +4360,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D211" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4155,10 +4374,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D212" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4169,10 +4388,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D213" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4183,10 +4402,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="D214" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4197,10 +4416,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="D215" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4211,10 +4430,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D216" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4225,10 +4444,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D217" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4239,10 +4458,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D218" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4253,10 +4472,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D219" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4267,10 +4486,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="D220" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4281,10 +4500,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="D221" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4295,10 +4514,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="D222" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4309,10 +4528,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D223" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4323,10 +4542,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D224" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4337,10 +4556,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D225" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4351,10 +4570,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D226" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4365,10 +4584,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="D227" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4379,10 +4598,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="D228" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4393,10 +4612,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="D229" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4407,14 +4626,1036 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>308</v>
+      </c>
+      <c r="D231" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" t="s">
+        <v>307</v>
+      </c>
+      <c r="D232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" t="s">
+        <v>306</v>
+      </c>
+      <c r="D233" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" t="s">
+        <v>307</v>
+      </c>
+      <c r="D234" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
         <v>237</v>
       </c>
-      <c r="D230" t="s">
+      <c r="C235" t="s">
+        <v>308</v>
+      </c>
+      <c r="D235" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" t="s">
+        <v>309</v>
+      </c>
+      <c r="D236" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" t="s">
+        <v>308</v>
+      </c>
+      <c r="D238" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" t="s">
+        <v>308</v>
+      </c>
+      <c r="D239" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" t="s">
+        <v>310</v>
+      </c>
+      <c r="D240" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" t="s">
+        <v>308</v>
+      </c>
+      <c r="D241" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" t="s">
+        <v>306</v>
+      </c>
+      <c r="D242" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" t="s">
+        <v>309</v>
+      </c>
+      <c r="D243" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" t="s">
+        <v>309</v>
+      </c>
+      <c r="D244" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" t="s">
+        <v>309</v>
+      </c>
+      <c r="D245" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" t="s">
+        <v>309</v>
+      </c>
+      <c r="D246" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" t="s">
+        <v>308</v>
+      </c>
+      <c r="D247" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" t="s">
+        <v>306</v>
+      </c>
+      <c r="D248" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" t="s">
+        <v>310</v>
+      </c>
+      <c r="D249" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" t="s">
+        <v>309</v>
+      </c>
+      <c r="D250" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" t="s">
+        <v>306</v>
+      </c>
+      <c r="D251" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" t="s">
+        <v>308</v>
+      </c>
+      <c r="D252" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" t="s">
+        <v>308</v>
+      </c>
+      <c r="D253" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" t="s">
+        <v>306</v>
+      </c>
+      <c r="D254" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" t="s">
+        <v>308</v>
+      </c>
+      <c r="D255" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" t="s">
+        <v>307</v>
+      </c>
+      <c r="D256" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" t="s">
+        <v>306</v>
+      </c>
+      <c r="D257" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" t="s">
+        <v>310</v>
+      </c>
+      <c r="D258" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" t="s">
+        <v>309</v>
+      </c>
+      <c r="D259" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" t="s">
+        <v>310</v>
+      </c>
+      <c r="D260" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" t="s">
+        <v>310</v>
+      </c>
+      <c r="D261" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" t="s">
+        <v>308</v>
+      </c>
+      <c r="D262" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>265</v>
+      </c>
+      <c r="C263" t="s">
+        <v>308</v>
+      </c>
+      <c r="D263" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" t="s">
+        <v>309</v>
+      </c>
+      <c r="D264" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" t="s">
+        <v>306</v>
+      </c>
+      <c r="D265" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
         <v>268</v>
       </c>
+      <c r="C266" t="s">
+        <v>308</v>
+      </c>
+      <c r="D266" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" t="s">
+        <v>306</v>
+      </c>
+      <c r="D267" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" t="s">
+        <v>309</v>
+      </c>
+      <c r="D268" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>271</v>
+      </c>
+      <c r="C269" t="s">
+        <v>309</v>
+      </c>
+      <c r="D269" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" t="s">
+        <v>309</v>
+      </c>
+      <c r="D270" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>273</v>
+      </c>
+      <c r="C271" t="s">
+        <v>308</v>
+      </c>
+      <c r="D271" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" t="s">
+        <v>306</v>
+      </c>
+      <c r="D272" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s">
+        <v>307</v>
+      </c>
+      <c r="D273" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" t="s">
+        <v>308</v>
+      </c>
+      <c r="D274" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" t="s">
+        <v>308</v>
+      </c>
+      <c r="D275" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" t="s">
+        <v>307</v>
+      </c>
+      <c r="D276" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
+        <v>308</v>
+      </c>
+      <c r="D277" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" t="s">
+        <v>310</v>
+      </c>
+      <c r="D278" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" t="s">
+        <v>307</v>
+      </c>
+      <c r="D279" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>282</v>
+      </c>
+      <c r="C280" t="s">
+        <v>310</v>
+      </c>
+      <c r="D280" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" t="s">
+        <v>308</v>
+      </c>
+      <c r="D281" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" t="s">
+        <v>308</v>
+      </c>
+      <c r="D282" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" t="s">
+        <v>308</v>
+      </c>
+      <c r="D283" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" t="s">
+        <v>307</v>
+      </c>
+      <c r="D284" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" t="s">
+        <v>308</v>
+      </c>
+      <c r="D285" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+      <c r="C286" t="s">
+        <v>306</v>
+      </c>
+      <c r="D286" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+      <c r="C287" t="s">
+        <v>308</v>
+      </c>
+      <c r="D287" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+      <c r="C288" t="s">
+        <v>310</v>
+      </c>
+      <c r="D288" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" t="s">
+        <v>309</v>
+      </c>
+      <c r="D289" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" t="s">
+        <v>306</v>
+      </c>
+      <c r="D290" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" t="s">
+        <v>310</v>
+      </c>
+      <c r="D291" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" t="s">
+        <v>309</v>
+      </c>
+      <c r="D292" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" t="s">
+        <v>306</v>
+      </c>
+      <c r="D293" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" t="s">
+        <v>307</v>
+      </c>
+      <c r="D294" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" t="s">
+        <v>307</v>
+      </c>
+      <c r="D295" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" t="s">
+        <v>310</v>
+      </c>
+      <c r="D296" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" t="s">
+        <v>310</v>
+      </c>
+      <c r="D297" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" t="s">
+        <v>310</v>
+      </c>
+      <c r="D298" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" t="s">
+        <v>307</v>
+      </c>
+      <c r="D299" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" t="s">
+        <v>310</v>
+      </c>
+      <c r="D300" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" t="s">
+        <v>310</v>
+      </c>
+      <c r="D301" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" t="s">
+        <v>307</v>
+      </c>
+      <c r="D302" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>305</v>
+      </c>
+      <c r="C303" t="s">
+        <v>310</v>
+      </c>
+      <c r="D303" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D230"/>
+  <autoFilter ref="A1:D303"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$325</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="365">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -52,220 +52,256 @@
     <t>Jason Robertson</t>
   </si>
   <si>
+    <t>Jack Hughes</t>
+  </si>
+  <si>
     <t>Mikko Rantanen</t>
   </si>
   <si>
-    <t>Jack Hughes</t>
+    <t>Cale Makar</t>
   </si>
   <si>
     <t>Tage Thompson</t>
   </si>
   <si>
+    <t>Kirill Kaprizov</t>
+  </si>
+  <si>
+    <t>Nikita Kucherov</t>
+  </si>
+  <si>
     <t>Brady Tkachuk</t>
   </si>
   <si>
-    <t>Cale Makar</t>
-  </si>
-  <si>
-    <t>Kirill Kaprizov</t>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Elias Pettersson</t>
+  </si>
+  <si>
+    <t>Jake Oettinger</t>
+  </si>
+  <si>
+    <t>Igor Shesterkin</t>
+  </si>
+  <si>
+    <t>Erik Karlsson</t>
   </si>
   <si>
     <t>Ilya Sorokin</t>
   </si>
   <si>
-    <t>Elias Pettersson</t>
-  </si>
-  <si>
-    <t>Nikita Kucherov</t>
-  </si>
-  <si>
-    <t>Igor Shesterkin</t>
-  </si>
-  <si>
-    <t>Mitch Marner</t>
-  </si>
-  <si>
-    <t>Jake Oettinger</t>
+    <t>Sidney Crosby</t>
+  </si>
+  <si>
+    <t>Rasmus Dahlin</t>
   </si>
   <si>
     <t>Tim Stutzle</t>
   </si>
   <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Roman Josi</t>
+  </si>
+  <si>
+    <t>Mika Zibanejad</t>
+  </si>
+  <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
     <t>Alexandar Georgiev</t>
   </si>
   <si>
+    <t>Alex Ovechkin</t>
+  </si>
+  <si>
     <t>Connor Bedard</t>
   </si>
   <si>
-    <t>Sidney Crosby</t>
+    <t>Linus Ullmark</t>
+  </si>
+  <si>
+    <t>Brayden Point</t>
+  </si>
+  <si>
+    <t>Connor Hellebuyck</t>
   </si>
   <si>
     <t>William Nylander</t>
   </si>
   <si>
-    <t>Mika Zibanejad</t>
-  </si>
-  <si>
-    <t>Brayden Point</t>
-  </si>
-  <si>
-    <t>Erik Karlsson</t>
-  </si>
-  <si>
-    <t>Connor Hellebuyck</t>
-  </si>
-  <si>
-    <t>Alex Ovechkin</t>
+    <t>Roope Hintz</t>
+  </si>
+  <si>
+    <t>Steven Stamkos</t>
+  </si>
+  <si>
+    <t>J.T. Miller</t>
+  </si>
+  <si>
+    <t>Dougie Hamilton</t>
+  </si>
+  <si>
+    <t>Ryan Nugent-Hopkins</t>
+  </si>
+  <si>
+    <t>Jack Eichel</t>
+  </si>
+  <si>
+    <t>Charlie McAvoy</t>
+  </si>
+  <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
+    <t>Aleksander Barkov Jr.</t>
+  </si>
+  <si>
+    <t>Artemi Panarin</t>
+  </si>
+  <si>
+    <t>Juuse Saros</t>
+  </si>
+  <si>
+    <t>Quinn Hughes</t>
+  </si>
+  <si>
+    <t>Sebastian Aho</t>
+  </si>
+  <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
+    <t>Victor Hedman</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
+  </si>
+  <si>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
   </si>
   <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
-    <t>Rasmus Dahlin</t>
-  </si>
-  <si>
-    <t>Roman Josi</t>
-  </si>
-  <si>
-    <t>Adam Fox</t>
-  </si>
-  <si>
-    <t>Linus Ullmark</t>
-  </si>
-  <si>
-    <t>Roope Hintz</t>
-  </si>
-  <si>
-    <t>Ryan Nugent-Hopkins</t>
-  </si>
-  <si>
-    <t>Juuse Saros</t>
-  </si>
-  <si>
-    <t>Jack Eichel</t>
-  </si>
-  <si>
-    <t>John Tavares</t>
-  </si>
-  <si>
-    <t>Steven Stamkos</t>
-  </si>
-  <si>
-    <t>J.T. Miller</t>
-  </si>
-  <si>
-    <t>Aleksander Barkov Jr.</t>
-  </si>
-  <si>
-    <t>Charlie McAvoy</t>
-  </si>
-  <si>
-    <t>Kyle Connor</t>
-  </si>
-  <si>
-    <t>Dougie Hamilton</t>
+    <t>John Carlson</t>
   </si>
   <si>
     <t>Nico Hischier</t>
   </si>
   <si>
-    <t>Josh Morrissey</t>
-  </si>
-  <si>
-    <t>Sebastian Aho</t>
-  </si>
-  <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
     <t>Dylan Larkin</t>
   </si>
   <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
+  </si>
+  <si>
     <t>Carter Verhaeghe</t>
   </si>
   <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
-  </si>
-  <si>
-    <t>Victor Hedman</t>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>Vitek Vanecek</t>
+  </si>
+  <si>
+    <t>Jeff Skinner</t>
   </si>
   <si>
     <t>Moritz Seider</t>
   </si>
   <si>
+    <t>Stuart Skinner</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Filip Gustavsson</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Devon Levi</t>
+  </si>
+  <si>
     <t>Brandon Montour</t>
   </si>
   <si>
-    <t>Quinn Hughes</t>
-  </si>
-  <si>
-    <t>Miro Heiskanen</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Filip Gustavsson</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Jeremy Swayman</t>
-  </si>
-  <si>
-    <t>Jordan Kyrou</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
-    <t>Jakob Chychrun</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
     <t>Matt Boldy</t>
   </si>
   <si>
-    <t>Adrian Kempe</t>
-  </si>
-  <si>
-    <t>Jeff Skinner</t>
-  </si>
-  <si>
-    <t>Evan Bouchard</t>
+    <t>Johnny Gaudreau</t>
   </si>
   <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Kevin Fiala</t>
+    <t>Adin Hill</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
   </si>
   <si>
     <t>Mark Stone</t>
@@ -274,21 +310,21 @@
     <t>Bo Horvat</t>
   </si>
   <si>
-    <t>Jesper Bratt</t>
+    <t>Travis Konecny</t>
   </si>
   <si>
     <t>Cole Caufield</t>
   </si>
   <si>
-    <t>Travis Konecny</t>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
   </si>
   <si>
     <t>Elias Lindholm</t>
   </si>
   <si>
-    <t>Sergei Bobrovsky</t>
-  </si>
-  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
@@ -301,40 +337,31 @@
     <t>Darnell Nurse</t>
   </si>
   <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
     <t>Jared McCann</t>
   </si>
   <si>
-    <t>Chris Kreider</t>
-  </si>
-  <si>
     <t>Adam Larsson</t>
   </si>
   <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Frederik Andersen</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
   </si>
   <si>
     <t>Sam Reinhart</t>
   </si>
   <si>
-    <t>Dylan Cozens</t>
+    <t>Thomas Chabot</t>
   </si>
   <si>
     <t>Tyler Toffoli</t>
@@ -343,226 +370,241 @@
     <t>Nick Suzuki</t>
   </si>
   <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Joonas Korpisalo</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>Owen Tippett</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Brandon Hagel</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
     <t>Justin Faulk</t>
   </si>
   <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Owen Tippett</t>
-  </si>
-  <si>
-    <t>Joonas Korpisalo</t>
-  </si>
-  <si>
-    <t>Devon Levi</t>
-  </si>
-  <si>
-    <t>Brandon Hagel</t>
+    <t>Marc-Andre Fleury</t>
   </si>
   <si>
     <t>Vladimir Tarasenko</t>
   </si>
   <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Martin Necas</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Stuart Skinner</t>
-  </si>
-  <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
     <t>Luke Hughes</t>
   </si>
   <si>
-    <t>Marc-Andre Fleury</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
     <t>Darcy Kuemper</t>
   </si>
   <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
     <t>Noah Hanifin</t>
   </si>
   <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
+    <t>Tyson Barrie</t>
   </si>
   <si>
     <t>Mark Scheifele</t>
   </si>
   <si>
-    <t>Devon Toews</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
   </si>
   <si>
     <t>Mats Zuccarello</t>
   </si>
   <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
     <t>Seth Jones</t>
   </si>
   <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Andrei Kuzmenko</t>
-  </si>
-  <si>
-    <t>Noah Dobson</t>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
   </si>
   <si>
     <t>Hampus Lindholm</t>
   </si>
   <si>
-    <t>Drew Doughty</t>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
   </si>
   <si>
     <t>Dawson Mercer</t>
   </si>
   <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
   </si>
   <si>
     <t>Juraj Slafkovsky</t>
   </si>
   <si>
-    <t>Anze Kopitar</t>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Pyotr Kochetkov</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
   </si>
   <si>
     <t>Vincent Trocheck</t>
   </si>
   <si>
-    <t>Jonathan Huberdeau</t>
-  </si>
-  <si>
-    <t>Pyotr Kochetkov</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Trevor Zegras</t>
   </si>
   <si>
     <t>Jared Spurgeon</t>
   </si>
   <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
+    <t>Eeli Tolvanen</t>
   </si>
   <si>
     <t>Rickard Rakell</t>
   </si>
   <si>
-    <t>Eeli Tolvanen</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Trevor Zegras</t>
-  </si>
-  <si>
     <t>Jake Walman</t>
   </si>
   <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Josh Norris</t>
-  </si>
-  <si>
     <t>Carter Hart</t>
   </si>
   <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
     <t>Gustav Forsling</t>
   </si>
   <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
     <t>Ivan Barbashev</t>
   </si>
   <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
     <t>Jake DeBrusk</t>
   </si>
   <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
+    <t>Nick Schmaltz</t>
   </si>
   <si>
     <t>Ville Husso</t>
   </si>
   <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
     <t>Jeff Petry</t>
   </si>
   <si>
-    <t>Brady Skjei</t>
+    <t>Logan Thompson</t>
   </si>
   <si>
     <t>Sean Couturier</t>
   </si>
   <si>
+    <t>K'Andre Miller</t>
+  </si>
+  <si>
     <t>Rafael Harvey-Pinard</t>
   </si>
   <si>
-    <t>Filip Forsberg</t>
+    <t>Artturi Lehkonen</t>
   </si>
   <si>
     <t>Valeri Nichushkin</t>
   </si>
   <si>
-    <t>K'Andre Miller</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Shayne Gostisbehere</t>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>Filip Hronek</t>
   </si>
   <si>
     <t>Ivan Provorov</t>
   </si>
   <si>
-    <t>Artturi Lehkonen</t>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Akira Schmid</t>
   </si>
   <si>
     <t>Logan Cooley</t>
   </si>
   <si>
-    <t>Adin Hill</t>
-  </si>
-  <si>
-    <t>David Perron</t>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
   </si>
   <si>
     <t>Neal Pionk</t>
@@ -571,367 +613,391 @@
     <t>Cam Fowler</t>
   </si>
   <si>
+    <t>Max Pacioretty</t>
+  </si>
+  <si>
     <t>Juuso Valimaki</t>
   </si>
   <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
     <t>Jakub Vrana</t>
   </si>
   <si>
     <t>Jordan Eberle</t>
   </si>
   <si>
+    <t>Max Domi</t>
+  </si>
+  <si>
     <t>T.J. Oshie</t>
   </si>
   <si>
-    <t>MacKenzie Weegar</t>
+    <t>Tom Wilson</t>
   </si>
   <si>
     <t>Robert Thomas</t>
   </si>
   <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Nazem Kadri</t>
+    <t>Ryan Reaves</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
   </si>
   <si>
     <t>Ryan Graves</t>
   </si>
   <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Max Domi</t>
-  </si>
-  <si>
-    <t>Logan Thompson</t>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Kirill Marchenko</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
   </si>
   <si>
     <t>Lawson Crouse</t>
   </si>
   <si>
-    <t>Ryan Reaves</t>
+    <t>Mattias Ekholm</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Sean Durzi</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Matias Maccelli</t>
+  </si>
+  <si>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Brandt Clarke</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
   </si>
   <si>
     <t>Charlie Coyle</t>
   </si>
   <si>
-    <t>Kirill Marchenko</t>
-  </si>
-  <si>
-    <t>Brayden McNabb</t>
-  </si>
-  <si>
-    <t>Adam Fantilli</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>Brandt Clarke</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Erik Haula</t>
-  </si>
-  <si>
-    <t>Connor Brown</t>
-  </si>
-  <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Sean Durzi</t>
-  </si>
-  <si>
-    <t>Matias Maccelli</t>
-  </si>
-  <si>
-    <t>Matthew Knies</t>
-  </si>
-  <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
-    <t>Akira Schmid</t>
-  </si>
-  <si>
     <t>Brandon Carlo</t>
   </si>
   <si>
     <t>Dylan Strome</t>
   </si>
   <si>
+    <t>Phillip Danault</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Matt Grzelcyk</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Sam Bennett</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Lukas Reichel</t>
+  </si>
+  <si>
     <t>Connor Clifton</t>
   </si>
   <si>
-    <t>Phillip Danault</t>
-  </si>
-  <si>
-    <t>William Karlsson</t>
-  </si>
-  <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Spencer Knight</t>
-  </si>
-  <si>
-    <t>Jake McCabe</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
-  </si>
-  <si>
-    <t>Leo Carlsson</t>
-  </si>
-  <si>
-    <t>Matt Grzelcyk</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Lukas Reichel</t>
-  </si>
-  <si>
-    <t>Radko Gudas</t>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Karel Vejmelka</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Jonas Johansson</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
   </si>
   <si>
     <t>Mason McTavish</t>
   </si>
   <si>
-    <t>Sam Bennett</t>
-  </si>
-  <si>
-    <t>Brandon Tanev</t>
-  </si>
-  <si>
-    <t>Reilly Smith</t>
-  </si>
-  <si>
-    <t>Philip Tomasino</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Tomas Tatar</t>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Kaapo Kakko</t>
+  </si>
+  <si>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
   </si>
   <si>
     <t>Alexander Romanov</t>
   </si>
   <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
+    <t>Luke Evangelista</t>
+  </si>
+  <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Calen Addison</t>
+  </si>
+  <si>
+    <t>Mikael Backlund</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Sam Montembeault</t>
   </si>
   <si>
     <t>Ukko-Pekka Luukkonen</t>
   </si>
   <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Kevin Hayes</t>
-  </si>
-  <si>
-    <t>Erik Gustafsson</t>
-  </si>
-  <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
-    <t>Jake Sanderson</t>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Anthony Beauvillier</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Kaapo Kahkonen</t>
   </si>
   <si>
     <t>Esa Lindell</t>
   </si>
   <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Mattias Ekholm</t>
-  </si>
-  <si>
-    <t>Mikael Backlund</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Tanner Jeannot</t>
-  </si>
-  <si>
-    <t>Pavel Zacha</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Kaapo Kakko</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
-  </si>
-  <si>
-    <t>Dmitry Orlov</t>
+    <t>Yanni Gourde</t>
+  </si>
+  <si>
+    <t>James van Riemsdyk</t>
   </si>
   <si>
     <t>Joseph Woll</t>
   </si>
   <si>
-    <t>Elvis Merzlikins</t>
+    <t>Nikita Zadorov</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
+    <t>Pheonix Copley</t>
+  </si>
+  <si>
+    <t>Wyatt Johnston</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
   </si>
   <si>
     <t>Michael Bunting</t>
   </si>
   <si>
-    <t>Anthony Beauvillier</t>
-  </si>
-  <si>
-    <t>Nikita Zadorov</t>
-  </si>
-  <si>
-    <t>Wyatt Johnston</t>
+    <t>Ryan O'Reilly</t>
+  </si>
+  <si>
+    <t>Michael Matheson</t>
+  </si>
+  <si>
+    <t>Seth Jarvis</t>
   </si>
   <si>
     <t>Sammy Blais</t>
   </si>
   <si>
-    <t>Seth Jarvis</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Rasmus Sandin</t>
-  </si>
-  <si>
-    <t>Michael Matheson</t>
-  </si>
-  <si>
-    <t>Gabriel Landeskog</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
+    <t>Gabriel Vilardi</t>
   </si>
   <si>
     <t>Garnet Hathaway</t>
   </si>
   <si>
+    <t>Jamie Drysdale</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Dominik Kubalik</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
     <t>J.T. Compher</t>
   </si>
   <si>
-    <t>Andrew Mangiapane</t>
-  </si>
-  <si>
     <t>Oliver Bjorkstrand</t>
   </si>
   <si>
+    <t>Kaiden Guhle</t>
+  </si>
+  <si>
+    <t>Adam Boqvist</t>
+  </si>
+  <si>
     <t>Alex Killorn</t>
   </si>
   <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
-    <t>Dominik Kubalik</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Max Pacioretty</t>
-  </si>
-  <si>
-    <t>Josh Anderson</t>
+    <t>Casey Mittelstadt</t>
+  </si>
+  <si>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Kirby Dach</t>
+  </si>
+  <si>
+    <t>Justin Schultz</t>
+  </si>
+  <si>
+    <t>Jani Hakanpaa</t>
+  </si>
+  <si>
+    <t>Samuel Girard</t>
   </si>
   <si>
     <t>Jason Zucker</t>
   </si>
   <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
+    <t>Cam York</t>
   </si>
   <si>
     <t>Antti Raanta</t>
   </si>
   <si>
-    <t>Jani Hakanpaa</t>
-  </si>
-  <si>
-    <t>Nick Schmaltz</t>
-  </si>
-  <si>
-    <t>Pheonix Copley</t>
-  </si>
-  <si>
-    <t>Samuel Girard</t>
+    <t>Barrett Hayton</t>
+  </si>
+  <si>
+    <t>Nicklas Backstrom</t>
+  </si>
+  <si>
+    <t>Nino Niederreiter</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
   </si>
   <si>
     <t>Frank Vatrano</t>
   </si>
   <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Nino Niederreiter</t>
-  </si>
-  <si>
-    <t>Sam Montembeault</t>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Filip Chytil</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
+    <t>Jaden Schwartz</t>
+  </si>
+  <si>
+    <t>Daniel Sprong</t>
   </si>
   <si>
     <t>Jake Allen</t>
   </si>
   <si>
-    <t>Karel Vejmelka</t>
-  </si>
-  <si>
-    <t>Conor Garland</t>
-  </si>
-  <si>
-    <t>Pavel Francouz</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Daniel Sprong</t>
+    <t>Matt Roy</t>
   </si>
   <si>
     <t>Martin Jones</t>
@@ -976,70 +1042,70 @@
     <t>BUF</t>
   </si>
   <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
     <t>OTT</t>
   </si>
   <si>
-    <t>MIN</t>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>NYR</t>
+  </si>
+  <si>
+    <t>PIT</t>
   </si>
   <si>
     <t>NYI</t>
   </si>
   <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>NYR</t>
+    <t>NSH</t>
+  </si>
+  <si>
+    <t>WSH</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>PIT</t>
-  </si>
-  <si>
     <t>WPG</t>
   </si>
   <si>
-    <t>WSH</t>
-  </si>
-  <si>
-    <t>NSH</t>
-  </si>
-  <si>
     <t>VGK</t>
   </si>
   <si>
     <t>CAR</t>
   </si>
   <si>
+    <t>ARI</t>
+  </si>
+  <si>
     <t>DET</t>
   </si>
   <si>
-    <t>ARI</t>
+    <t>LA</t>
   </si>
   <si>
     <t>STL</t>
   </si>
   <si>
-    <t>LA</t>
+    <t>CBJ</t>
+  </si>
+  <si>
+    <t>PHI</t>
   </si>
   <si>
     <t>MTL</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
     <t>CGY</t>
   </si>
   <si>
     <t>SEA</t>
-  </si>
-  <si>
-    <t>CBJ</t>
   </si>
   <si>
     <t>ANA</t>
@@ -1403,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,10 +1500,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1448,10 +1514,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1462,10 +1528,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1476,10 +1542,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1490,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1504,10 +1570,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1518,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1532,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1546,10 +1612,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1560,10 +1626,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1574,10 +1640,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1588,10 +1654,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1602,10 +1668,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1616,10 +1682,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1630,10 +1696,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1644,10 +1710,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1658,10 +1724,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1672,10 +1738,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1686,10 +1752,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1700,10 +1766,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1714,10 +1780,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1728,10 +1794,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1742,10 +1808,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1756,10 +1822,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1770,10 +1836,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1784,10 +1850,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1798,10 +1864,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1812,10 +1878,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1826,10 +1892,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1840,10 +1906,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1854,10 +1920,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D32" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1868,10 +1934,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1882,10 +1948,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1896,10 +1962,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D35" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1910,10 +1976,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1924,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1938,10 +2004,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1952,10 +2018,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1966,10 +2032,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D40" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1980,10 +2046,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1994,10 +2060,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2008,10 +2074,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2022,10 +2088,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D44" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2036,10 +2102,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2050,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2064,10 +2130,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2078,10 +2144,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2092,10 +2158,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2106,10 +2172,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2120,10 +2186,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2134,10 +2200,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2148,10 +2214,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2162,10 +2228,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2176,10 +2242,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2190,10 +2256,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2204,10 +2270,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D57" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2218,10 +2284,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2232,10 +2298,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2246,10 +2312,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D60" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2260,10 +2326,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2274,10 +2340,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2288,10 +2354,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2302,10 +2368,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2316,10 +2382,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2330,10 +2396,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2344,10 +2410,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2358,10 +2424,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2372,10 +2438,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2386,10 +2452,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2400,10 +2466,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2414,10 +2480,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D72" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2428,10 +2494,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2442,10 +2508,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2456,10 +2522,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2470,10 +2536,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2484,10 +2550,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D77" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2498,10 +2564,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2512,10 +2578,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D79" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2526,10 +2592,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D80" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2540,10 +2606,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D81" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2554,10 +2620,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2568,10 +2634,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D83" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2582,10 +2648,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2596,10 +2662,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D85" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2610,10 +2676,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2624,10 +2690,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2638,10 +2704,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D88" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2652,10 +2718,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2666,10 +2732,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D90" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2680,10 +2746,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2694,10 +2760,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2708,10 +2774,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D93" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2722,10 +2788,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D94" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2736,10 +2802,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2750,10 +2816,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2764,10 +2830,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2778,10 +2844,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2792,10 +2858,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D99" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2806,10 +2872,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2820,10 +2886,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D101" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2834,10 +2900,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2848,10 +2914,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2862,10 +2928,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2876,10 +2942,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2890,10 +2956,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D106" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2904,10 +2970,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2918,10 +2984,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2932,10 +2998,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2946,10 +3012,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D110" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2960,10 +3026,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2974,10 +3040,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2988,10 +3054,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3002,10 +3068,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D114" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3016,10 +3082,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3030,10 +3096,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D116" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3044,10 +3110,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3058,10 +3124,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D118" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3072,10 +3138,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3086,10 +3152,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3100,10 +3166,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3114,10 +3180,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D122" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3128,10 +3194,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3142,10 +3208,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D124" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3156,10 +3222,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3170,10 +3236,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3184,10 +3250,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3198,10 +3264,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3212,10 +3278,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3226,10 +3292,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D130" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3240,10 +3306,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D131" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3254,10 +3320,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D132" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3268,10 +3334,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D133" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3282,10 +3348,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D134" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3296,10 +3362,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3310,10 +3376,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D136" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3324,10 +3390,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D137" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3338,10 +3404,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3352,10 +3418,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D139" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3366,10 +3432,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D140" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3380,10 +3446,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D141" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3394,10 +3460,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D142" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3408,10 +3474,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D143" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3422,10 +3488,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3436,10 +3502,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3450,10 +3516,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D146" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3464,10 +3530,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D147" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3478,10 +3544,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3492,10 +3558,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D149" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3506,10 +3572,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D150" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3520,10 +3586,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D151" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3534,10 +3600,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D152" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3548,10 +3614,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D153" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3562,10 +3628,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D154" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3576,10 +3642,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D155" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3590,10 +3656,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3604,10 +3670,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D157" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3618,10 +3684,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3632,10 +3698,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D159" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3646,10 +3712,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D160" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3660,10 +3726,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D161" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3674,10 +3740,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D162" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3688,10 +3754,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D163" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3702,10 +3768,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3716,10 +3782,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D165" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3730,10 +3796,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D166" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3744,10 +3810,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D167" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3758,10 +3824,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3772,10 +3838,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D169" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3786,10 +3852,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D170" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3800,10 +3866,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D171" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3814,10 +3880,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3828,10 +3894,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D173" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3842,10 +3908,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D174" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3856,10 +3922,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D175" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3870,10 +3936,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D176" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3884,10 +3950,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3898,10 +3964,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3912,10 +3978,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D179" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3926,10 +3992,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D180" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3940,10 +4006,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D181" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3954,10 +4020,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D182" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3968,10 +4034,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D183" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3982,10 +4048,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3996,10 +4062,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D185" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4010,10 +4076,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D186" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4024,10 +4090,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D187" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4038,10 +4104,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D188" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4052,10 +4118,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D189" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4066,10 +4132,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D190" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4080,10 +4146,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D191" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4094,10 +4160,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D192" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4108,10 +4174,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D193" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4122,10 +4188,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D194" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4136,10 +4202,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D195" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4150,10 +4216,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D196" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4164,10 +4230,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D197" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4178,10 +4244,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D198" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4192,10 +4258,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D199" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4206,10 +4272,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D200" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4220,10 +4286,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D201" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4234,10 +4300,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D202" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4248,10 +4314,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D203" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4262,10 +4328,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D204" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4276,10 +4342,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D205" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4290,10 +4356,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D206" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4304,10 +4370,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D207" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4318,10 +4384,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D208" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4332,10 +4398,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D209" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4346,10 +4412,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D210" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4360,10 +4426,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D211" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4374,10 +4440,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D212" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4388,10 +4454,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D213" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4402,10 +4468,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D214" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4416,10 +4482,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D215" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4430,10 +4496,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D216" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4444,10 +4510,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D217" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4458,10 +4524,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4472,10 +4538,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D219" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4486,10 +4552,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D220" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4500,10 +4566,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D221" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4514,10 +4580,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D222" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4528,10 +4594,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D223" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4542,10 +4608,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D224" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4556,10 +4622,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D225" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4570,10 +4636,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D226" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4584,10 +4650,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D227" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4598,10 +4664,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D228" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4612,10 +4678,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D229" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4626,10 +4692,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4640,10 +4706,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D231" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4654,10 +4720,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D232" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4668,10 +4734,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D233" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4682,10 +4748,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D234" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4696,10 +4762,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D235" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4710,10 +4776,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D236" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4724,10 +4790,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D237" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4738,10 +4804,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D238" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4752,10 +4818,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D239" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4766,10 +4832,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D240" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4780,10 +4846,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D241" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4794,10 +4860,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D242" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4808,10 +4874,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D243" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4822,10 +4888,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D244" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4836,10 +4902,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D245" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4850,10 +4916,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D246" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4864,10 +4930,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D247" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4878,10 +4944,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D248" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4892,10 +4958,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D249" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4906,10 +4972,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D250" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4920,10 +4986,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D251" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4934,10 +5000,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D252" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4948,10 +5014,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D253" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4962,10 +5028,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D254" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4976,10 +5042,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D255" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4990,10 +5056,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D256" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5004,10 +5070,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D257" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5018,10 +5084,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D258" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5032,10 +5098,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D259" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5046,10 +5112,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D260" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5060,10 +5126,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D261" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5074,10 +5140,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D262" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5088,10 +5154,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D263" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5102,10 +5168,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D264" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5116,10 +5182,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D265" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5130,10 +5196,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D266" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5144,10 +5210,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="D267" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5158,10 +5224,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D268" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5172,10 +5238,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D269" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5186,10 +5252,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D270" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5200,10 +5266,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="D271" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5214,10 +5280,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5228,7 +5294,7 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D273" t="s">
         <v>337</v>
@@ -5242,10 +5308,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D274" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5256,10 +5322,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D275" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5270,10 +5336,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D276" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5284,10 +5350,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D277" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5298,10 +5364,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D278" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5312,10 +5378,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D279" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5326,10 +5392,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D280" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5340,10 +5406,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D281" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5354,10 +5420,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D282" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5368,10 +5434,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D283" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5382,10 +5448,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D284" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5396,10 +5462,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D285" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5410,10 +5476,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D286" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5424,10 +5490,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D287" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5438,10 +5504,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D288" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5452,10 +5518,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D289" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5466,10 +5532,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="D290" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5480,10 +5546,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D291" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5494,10 +5560,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D292" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5508,10 +5574,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D293" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5522,10 +5588,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D294" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5536,10 +5602,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D295" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5550,10 +5616,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D296" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5564,10 +5630,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D297" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5578,10 +5644,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D298" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5592,10 +5658,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="D299" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5606,10 +5672,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="D300" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5620,10 +5686,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D301" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5634,10 +5700,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D302" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5648,14 +5714,322 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
+        <v>330</v>
+      </c>
+      <c r="D303" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>306</v>
+      </c>
+      <c r="C304" t="s">
+        <v>328</v>
+      </c>
+      <c r="D304" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>307</v>
+      </c>
+      <c r="C305" t="s">
+        <v>330</v>
+      </c>
+      <c r="D305" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>308</v>
+      </c>
+      <c r="C306" t="s">
+        <v>328</v>
+      </c>
+      <c r="D306" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>309</v>
+      </c>
+      <c r="C307" t="s">
+        <v>331</v>
+      </c>
+      <c r="D307" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
         <v>310</v>
       </c>
-      <c r="D303" t="s">
+      <c r="C308" t="s">
+        <v>331</v>
+      </c>
+      <c r="D308" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>311</v>
+      </c>
+      <c r="C309" t="s">
+        <v>331</v>
+      </c>
+      <c r="D309" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>312</v>
+      </c>
+      <c r="C310" t="s">
+        <v>330</v>
+      </c>
+      <c r="D310" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311" t="s">
+        <v>331</v>
+      </c>
+      <c r="D311" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
         <v>314</v>
       </c>
+      <c r="C312" t="s">
+        <v>332</v>
+      </c>
+      <c r="D312" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313" t="s">
+        <v>328</v>
+      </c>
+      <c r="D313" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314" t="s">
+        <v>328</v>
+      </c>
+      <c r="D314" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>317</v>
+      </c>
+      <c r="C315" t="s">
+        <v>329</v>
+      </c>
+      <c r="D315" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>318</v>
+      </c>
+      <c r="C316" t="s">
+        <v>331</v>
+      </c>
+      <c r="D316" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>319</v>
+      </c>
+      <c r="C317" t="s">
+        <v>328</v>
+      </c>
+      <c r="D317" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>320</v>
+      </c>
+      <c r="C318" t="s">
+        <v>332</v>
+      </c>
+      <c r="D318" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>321</v>
+      </c>
+      <c r="C319" t="s">
+        <v>328</v>
+      </c>
+      <c r="D319" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>322</v>
+      </c>
+      <c r="C320" t="s">
+        <v>329</v>
+      </c>
+      <c r="D320" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" t="s">
+        <v>328</v>
+      </c>
+      <c r="D321" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>324</v>
+      </c>
+      <c r="C322" t="s">
+        <v>329</v>
+      </c>
+      <c r="D322" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>325</v>
+      </c>
+      <c r="C323" t="s">
+        <v>332</v>
+      </c>
+      <c r="D323" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>326</v>
+      </c>
+      <c r="C324" t="s">
+        <v>331</v>
+      </c>
+      <c r="D324" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>327</v>
+      </c>
+      <c r="C325" t="s">
+        <v>332</v>
+      </c>
+      <c r="D325" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D303"/>
+  <autoFilter ref="A1:D325"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -10,14 +10,14 @@
     <sheet name="draft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">draft!$A$1:$D$313</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="353">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -79,12 +79,12 @@
     <t>Elias Pettersson</t>
   </si>
   <si>
+    <t>Igor Shesterkin</t>
+  </si>
+  <si>
     <t>Jake Oettinger</t>
   </si>
   <si>
-    <t>Igor Shesterkin</t>
-  </si>
-  <si>
     <t>Erik Karlsson</t>
   </si>
   <si>
@@ -94,27 +94,27 @@
     <t>Sidney Crosby</t>
   </si>
   <si>
+    <t>Adam Fox</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
     <t>Rasmus Dahlin</t>
   </si>
   <si>
-    <t>Tim Stutzle</t>
-  </si>
-  <si>
-    <t>Adam Fox</t>
+    <t>Alexandar Georgiev</t>
   </si>
   <si>
     <t>Roman Josi</t>
   </si>
   <si>
+    <t>Timo Meier</t>
+  </si>
+  <si>
     <t>Mika Zibanejad</t>
   </si>
   <si>
-    <t>Timo Meier</t>
-  </si>
-  <si>
-    <t>Alexandar Georgiev</t>
-  </si>
-  <si>
     <t>Alex Ovechkin</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>Brayden Point</t>
   </si>
   <si>
+    <t>William Nylander</t>
+  </si>
+  <si>
     <t>Connor Hellebuyck</t>
   </si>
   <si>
-    <t>William Nylander</t>
-  </si>
-  <si>
     <t>Roope Hintz</t>
   </si>
   <si>
@@ -151,145 +151,148 @@
     <t>Jack Eichel</t>
   </si>
   <si>
+    <t>Kyle Connor</t>
+  </si>
+  <si>
     <t>Charlie McAvoy</t>
   </si>
   <si>
-    <t>Kyle Connor</t>
+    <t>Artemi Panarin</t>
   </si>
   <si>
     <t>Aleksander Barkov Jr.</t>
   </si>
   <si>
-    <t>Artemi Panarin</t>
-  </si>
-  <si>
     <t>Juuse Saros</t>
   </si>
   <si>
     <t>Quinn Hughes</t>
   </si>
   <si>
+    <t>John Tavares</t>
+  </si>
+  <si>
     <t>Sebastian Aho</t>
   </si>
   <si>
-    <t>John Tavares</t>
+    <t>Josh Morrissey</t>
+  </si>
+  <si>
+    <t>Miro Heiskanen</t>
+  </si>
+  <si>
+    <t>Brad Marchand</t>
   </si>
   <si>
     <t>Victor Hedman</t>
   </si>
   <si>
-    <t>Brad Marchand</t>
-  </si>
-  <si>
-    <t>Josh Morrissey</t>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
   </si>
   <si>
     <t>Clayton Keller</t>
   </si>
   <si>
-    <t>Miro Heiskanen</t>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Jakob Chychrun</t>
   </si>
   <si>
     <t>Andrei Vasilevskiy</t>
   </si>
   <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Jakob Chychrun</t>
-  </si>
-  <si>
     <t>Carter Verhaeghe</t>
   </si>
   <si>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
     <t>Jake Guentzel</t>
   </si>
   <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
     <t>Vitek Vanecek</t>
   </si>
   <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
     <t>Jeff Skinner</t>
   </si>
   <si>
+    <t>Stuart Skinner</t>
+  </si>
+  <si>
     <t>Moritz Seider</t>
   </si>
   <si>
-    <t>Stuart Skinner</t>
-  </si>
-  <si>
-    <t>Adrian Kempe</t>
+    <t>Brent Burns</t>
   </si>
   <si>
     <t>Alex Pietrangelo</t>
   </si>
   <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
     <t>Filip Gustavsson</t>
   </si>
   <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
     <t>Joe Pavelski</t>
   </si>
   <si>
-    <t>Jordan Kyrou</t>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Sergei Bobrovsky</t>
   </si>
   <si>
     <t>Kevin Fiala</t>
   </si>
   <si>
+    <t>Pierre-Luc Dubois</t>
+  </si>
+  <si>
     <t>Jeremy Swayman</t>
   </si>
   <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
     <t>Andrei Svechnikov</t>
   </si>
   <si>
-    <t>Jesper Bratt</t>
-  </si>
-  <si>
-    <t>Sergei Bobrovsky</t>
+    <t>Kris Letang</t>
   </si>
   <si>
     <t>Chris Kreider</t>
   </si>
   <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
     <t>Devon Levi</t>
   </si>
   <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
     <t>Brandon Montour</t>
   </si>
   <si>
-    <t>Matt Boldy</t>
+    <t>Adin Hill</t>
   </si>
   <si>
     <t>Johnny Gaudreau</t>
@@ -298,37 +301,37 @@
     <t>Jacob Trouba</t>
   </si>
   <si>
-    <t>Adin Hill</t>
-  </si>
-  <si>
     <t>Frederik Andersen</t>
   </si>
   <si>
     <t>Mark Stone</t>
   </si>
   <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
     <t>Bo Horvat</t>
   </si>
   <si>
-    <t>Travis Konecny</t>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Matt Duchene</t>
   </si>
   <si>
     <t>Cole Caufield</t>
   </si>
   <si>
-    <t>Evgeni Malkin</t>
-  </si>
-  <si>
-    <t>Matt Duchene</t>
-  </si>
-  <si>
     <t>Elias Lindholm</t>
   </si>
   <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
     <t>Rasmus Andersson</t>
   </si>
   <si>
-    <t>Claude Giroux</t>
+    <t>Vince Dunn</t>
   </si>
   <si>
     <t>Jamie Benn</t>
@@ -343,13 +346,16 @@
     <t>Zach Werenski</t>
   </si>
   <si>
-    <t>Vince Dunn</t>
+    <t>Adam Larsson</t>
   </si>
   <si>
     <t>Jared McCann</t>
   </si>
   <si>
-    <t>Adam Larsson</t>
+    <t>Sam Reinhart</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
   </si>
   <si>
     <t>Shea Theodore</t>
@@ -358,28 +364,31 @@
     <t>Dylan Cozens</t>
   </si>
   <si>
-    <t>Sam Reinhart</t>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Joonas Korpisalo</t>
   </si>
   <si>
     <t>Thomas Chabot</t>
   </si>
   <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Nick Suzuki</t>
-  </si>
-  <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Martin Necas</t>
-  </si>
-  <si>
-    <t>Joonas Korpisalo</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
+    <t>Justin Faulk</t>
   </si>
   <si>
     <t>Evander Kane</t>
@@ -388,616 +397,571 @@
     <t>Owen Tippett</t>
   </si>
   <si>
-    <t>Tony DeAngelo</t>
+    <t>Drew Doughty</t>
   </si>
   <si>
     <t>Brandon Hagel</t>
   </si>
   <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Luke Hughes</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
     <t>Devon Toews</t>
   </si>
   <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Noah Dobson</t>
-  </si>
-  <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Drew Doughty</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Luke Hughes</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
   </si>
   <si>
     <t>John Klingberg</t>
   </si>
   <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
   </si>
   <si>
     <t>Jonathan Huberdeau</t>
   </si>
   <si>
-    <t>Andrei Kuzmenko</t>
+    <t>Seth Jones</t>
   </si>
   <si>
     <t>Mats Zuccarello</t>
   </si>
   <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
+    <t>Jacob Markstrom</t>
   </si>
   <si>
     <t>Pavel Buchnevich</t>
   </si>
   <si>
-    <t>Cam Talbot</t>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>Dawson Mercer</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
   </si>
   <si>
     <t>Brock Nelson</t>
   </si>
   <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
     <t>Matty Beniers</t>
   </si>
   <si>
-    <t>Dawson Mercer</t>
+    <t>Trevor Zegras</t>
   </si>
   <si>
     <t>Anze Kopitar</t>
   </si>
   <si>
+    <t>Pyotr Kochetkov</t>
+  </si>
+  <si>
+    <t>Juraj Slafkovsky</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
     <t>Tyler Bertuzzi</t>
   </si>
   <si>
-    <t>Juraj Slafkovsky</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Pyotr Kochetkov</t>
-  </si>
-  <si>
     <t>Josh Norris</t>
   </si>
   <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Jordan Binnington</t>
-  </si>
-  <si>
     <t>Mathew Barzal</t>
   </si>
   <si>
-    <t>Shayne Gostisbehere</t>
-  </si>
-  <si>
-    <t>Trevor Zegras</t>
+    <t>Jake Walman</t>
+  </si>
+  <si>
+    <t>Ivan Barbashev</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Rickard Rakell</t>
   </si>
   <si>
     <t>Jared Spurgeon</t>
   </si>
   <si>
-    <t>Eeli Tolvanen</t>
-  </si>
-  <si>
-    <t>Rickard Rakell</t>
-  </si>
-  <si>
-    <t>Jake Walman</t>
+    <t>Nick Schmaltz</t>
+  </si>
+  <si>
+    <t>Jake DeBrusk</t>
   </si>
   <si>
     <t>Carter Hart</t>
   </si>
   <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Ivan Barbashev</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Jonas Johansson</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
   </si>
   <si>
     <t>Nazem Kadri</t>
   </si>
   <si>
-    <t>Jake DeBrusk</t>
-  </si>
-  <si>
-    <t>Nick Schmaltz</t>
-  </si>
-  <si>
-    <t>Ville Husso</t>
-  </si>
-  <si>
-    <t>Brady Skjei</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Logan Thompson</t>
+    <t>K'Andre Miller</t>
   </si>
   <si>
     <t>Sean Couturier</t>
   </si>
   <si>
-    <t>K'Andre Miller</t>
-  </si>
-  <si>
     <t>Rafael Harvey-Pinard</t>
   </si>
   <si>
     <t>Artturi Lehkonen</t>
   </si>
   <si>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
     <t>Valeri Nichushkin</t>
   </si>
   <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
     <t>Blake Wheeler</t>
   </si>
   <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Ivan Provorov</t>
-  </si>
-  <si>
-    <t>David Perron</t>
+    <t>Logan Cooley</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Juuso Valimaki</t>
+  </si>
+  <si>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Max Domi</t>
+  </si>
+  <si>
+    <t>T.J. Oshie</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
   </si>
   <si>
     <t>Akira Schmid</t>
   </si>
   <si>
-    <t>Logan Cooley</t>
-  </si>
-  <si>
-    <t>Kevin Shattenkirk</t>
-  </si>
-  <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Cam Fowler</t>
+    <t>Jordan Eberle</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Kirill Marchenko</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Ryan Reaves</t>
+  </si>
+  <si>
+    <t>Lawson Crouse</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t>Sean Durzi</t>
+  </si>
+  <si>
+    <t>Charlie Coyle</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
+  </si>
+  <si>
+    <t>Brandt Clarke</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Matias Maccelli</t>
+  </si>
+  <si>
+    <t>Mattias Ekholm</t>
   </si>
   <si>
     <t>Max Pacioretty</t>
   </si>
   <si>
-    <t>Juuso Valimaki</t>
-  </si>
-  <si>
-    <t>Connor Brown</t>
-  </si>
-  <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
-    <t>Jordan Eberle</t>
-  </si>
-  <si>
-    <t>Max Domi</t>
-  </si>
-  <si>
-    <t>T.J. Oshie</t>
-  </si>
-  <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Robert Thomas</t>
-  </si>
-  <si>
-    <t>Ryan Reaves</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
-  </si>
-  <si>
-    <t>Ryan Graves</t>
-  </si>
-  <si>
-    <t>Adam Fantilli</t>
-  </si>
-  <si>
-    <t>Kirill Marchenko</t>
-  </si>
-  <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Lawson Crouse</t>
-  </si>
-  <si>
-    <t>Mattias Ekholm</t>
-  </si>
-  <si>
-    <t>Brayden McNabb</t>
-  </si>
-  <si>
-    <t>Matthew Knies</t>
-  </si>
-  <si>
-    <t>Colton Parayko</t>
-  </si>
-  <si>
-    <t>William Karlsson</t>
-  </si>
-  <si>
-    <t>Pavel Zacha</t>
-  </si>
-  <si>
-    <t>Luke Schenn</t>
-  </si>
-  <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Sean Durzi</t>
-  </si>
-  <si>
-    <t>Erik Haula</t>
-  </si>
-  <si>
-    <t>Matias Maccelli</t>
+    <t>Brandon Carlo</t>
+  </si>
+  <si>
+    <t>Dylan Strome</t>
   </si>
   <si>
     <t>Erik Gustafsson</t>
   </si>
   <si>
-    <t>Logan Couture</t>
-  </si>
-  <si>
-    <t>Brandt Clarke</t>
-  </si>
-  <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Charlie Coyle</t>
-  </si>
-  <si>
-    <t>Brandon Carlo</t>
-  </si>
-  <si>
-    <t>Dylan Strome</t>
-  </si>
-  <si>
     <t>Phillip Danault</t>
   </si>
   <si>
+    <t>Matt Grzelcyk</t>
+  </si>
+  <si>
     <t>Jake Sanderson</t>
   </si>
   <si>
-    <t>Radko Gudas</t>
-  </si>
-  <si>
-    <t>Matt Grzelcyk</t>
-  </si>
-  <si>
     <t>Spencer Knight</t>
   </si>
   <si>
+    <t>Karel Vejmelka</t>
+  </si>
+  <si>
     <t>Jake McCabe</t>
   </si>
   <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Lukas Reichel</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>Pheonix Copley</t>
+  </si>
+  <si>
+    <t>Ukko-Pekka Luukkonen</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Mikael Backlund</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
     <t>Kevin Hayes</t>
   </si>
   <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Calen Addison</t>
+  </si>
+  <si>
+    <t>Ryan Hartman</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
     <t>Sam Bennett</t>
   </si>
   <si>
-    <t>Lucas Raymond</t>
-  </si>
-  <si>
-    <t>Lukas Reichel</t>
+    <t>Luke Evangelista</t>
+  </si>
+  <si>
+    <t>Bryan Rust</t>
+  </si>
+  <si>
+    <t>Sam Montembeault</t>
   </si>
   <si>
     <t>Connor Clifton</t>
   </si>
   <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Karel Vejmelka</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
-    <t>Jonas Johansson</t>
-  </si>
-  <si>
-    <t>Ryan Hartman</t>
-  </si>
-  <si>
-    <t>Semyon Varlamov</t>
-  </si>
-  <si>
-    <t>Tomas Tatar</t>
-  </si>
-  <si>
-    <t>Bryan Rust</t>
-  </si>
-  <si>
-    <t>Reilly Smith</t>
-  </si>
-  <si>
-    <t>Mason McTavish</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
+    <t>Ryan Johansen</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
+  </si>
+  <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
   </si>
   <si>
     <t>Kaapo Kakko</t>
   </si>
   <si>
-    <t>Ryan Johansen</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
+    <t>Oliver Ekman-Larsson</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
+  </si>
+  <si>
+    <t>Anthony Beauvillier</t>
+  </si>
+  <si>
+    <t>Kaapo Kahkonen</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Casey Mittelstadt</t>
+  </si>
+  <si>
+    <t>Yanni Gourde</t>
+  </si>
+  <si>
+    <t>James van Riemsdyk</t>
+  </si>
+  <si>
+    <t>Jamie Drysdale</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Cam Atkinson</t>
+  </si>
+  <si>
+    <t>Gabriel Vilardi</t>
   </si>
   <si>
     <t>Alexander Romanov</t>
   </si>
   <si>
-    <t>Luke Evangelista</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Calen Addison</t>
-  </si>
-  <si>
-    <t>Mikael Backlund</t>
-  </si>
-  <si>
-    <t>Rasmus Sandin</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
-    <t>Sam Montembeault</t>
-  </si>
-  <si>
-    <t>Ukko-Pekka Luukkonen</t>
-  </si>
-  <si>
-    <t>John Gibson</t>
-  </si>
-  <si>
-    <t>Tanner Jeannot</t>
-  </si>
-  <si>
-    <t>Oliver Ekman-Larsson</t>
-  </si>
-  <si>
-    <t>Anthony Beauvillier</t>
-  </si>
-  <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Kaapo Kahkonen</t>
-  </si>
-  <si>
-    <t>Esa Lindell</t>
-  </si>
-  <si>
-    <t>Yanni Gourde</t>
-  </si>
-  <si>
-    <t>James van Riemsdyk</t>
+    <t>Brayden Schenn</t>
   </si>
   <si>
     <t>Joseph Woll</t>
   </si>
   <si>
+    <t>Seth Jarvis</t>
+  </si>
+  <si>
+    <t>Boone Jenner</t>
+  </si>
+  <si>
+    <t>Michael Matheson</t>
+  </si>
+  <si>
+    <t>Wyatt Johnston</t>
+  </si>
+  <si>
     <t>Nikita Zadorov</t>
   </si>
   <si>
-    <t>Cam Atkinson</t>
-  </si>
-  <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
-    <t>Pheonix Copley</t>
-  </si>
-  <si>
-    <t>Wyatt Johnston</t>
-  </si>
-  <si>
-    <t>Josh Anderson</t>
-  </si>
-  <si>
-    <t>Michael Bunting</t>
-  </si>
-  <si>
     <t>Ryan O'Reilly</t>
   </si>
   <si>
-    <t>Michael Matheson</t>
-  </si>
-  <si>
-    <t>Seth Jarvis</t>
+    <t>Andre Burakovsky</t>
+  </si>
+  <si>
+    <t>Dominik Kubalik</t>
   </si>
   <si>
     <t>Sammy Blais</t>
   </si>
   <si>
-    <t>Gabriel Vilardi</t>
-  </si>
-  <si>
-    <t>Garnet Hathaway</t>
-  </si>
-  <si>
-    <t>Jamie Drysdale</t>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Kirby Dach</t>
   </si>
   <si>
     <t>Andrew Mangiapane</t>
   </si>
   <si>
-    <t>Dominik Kubalik</t>
-  </si>
-  <si>
-    <t>Boone Jenner</t>
-  </si>
-  <si>
-    <t>Mark Giordano</t>
-  </si>
-  <si>
     <t>J.T. Compher</t>
   </si>
   <si>
-    <t>Oliver Bjorkstrand</t>
-  </si>
-  <si>
-    <t>Kaiden Guhle</t>
-  </si>
-  <si>
-    <t>Adam Boqvist</t>
+    <t>Samuel Girard</t>
   </si>
   <si>
     <t>Alex Killorn</t>
   </si>
   <si>
-    <t>Casey Mittelstadt</t>
-  </si>
-  <si>
-    <t>Andre Burakovsky</t>
-  </si>
-  <si>
-    <t>Kirby Dach</t>
-  </si>
-  <si>
-    <t>Justin Schultz</t>
-  </si>
-  <si>
     <t>Jani Hakanpaa</t>
   </si>
   <si>
-    <t>Samuel Girard</t>
-  </si>
-  <si>
     <t>Jason Zucker</t>
   </si>
   <si>
-    <t>Cam York</t>
+    <t>Nino Niederreiter</t>
   </si>
   <si>
     <t>Antti Raanta</t>
   </si>
   <si>
-    <t>Barrett Hayton</t>
-  </si>
-  <si>
-    <t>Nicklas Backstrom</t>
-  </si>
-  <si>
-    <t>Nino Niederreiter</t>
-  </si>
-  <si>
-    <t>Vladislav Gavrikov</t>
-  </si>
-  <si>
     <t>Frank Vatrano</t>
   </si>
   <si>
+    <t>Daniel Sprong</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
     <t>Pavel Francouz</t>
   </si>
   <si>
-    <t>Filip Chytil</t>
-  </si>
-  <si>
-    <t>Conor Garland</t>
-  </si>
-  <si>
-    <t>Jaden Schwartz</t>
-  </si>
-  <si>
-    <t>Daniel Sprong</t>
-  </si>
-  <si>
     <t>Jake Allen</t>
-  </si>
-  <si>
-    <t>Matt Roy</t>
   </si>
   <si>
     <t>Martin Jones</t>
@@ -1469,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1514,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1528,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1542,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1556,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1570,10 +1534,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1584,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1598,10 +1562,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1612,10 +1576,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1626,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1640,10 +1604,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1654,10 +1618,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1668,10 +1632,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1682,10 +1646,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1696,10 +1660,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1710,10 +1674,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1724,10 +1688,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1738,10 +1702,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1752,10 +1716,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1766,10 +1730,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1780,10 +1744,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1794,10 +1758,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1808,10 +1772,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1822,10 +1786,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D25" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1836,10 +1800,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1850,10 +1814,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1864,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1878,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1892,10 +1856,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1906,10 +1870,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1920,10 +1884,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1934,10 +1898,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1948,10 +1912,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D34" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1962,10 +1926,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1976,10 +1940,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1990,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2004,10 +1968,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2018,10 +1982,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D39" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2032,10 +1996,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2046,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2060,10 +2024,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2074,10 +2038,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2088,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D44" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2102,10 +2066,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2116,10 +2080,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2130,10 +2094,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D47" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2144,10 +2108,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2158,10 +2122,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2172,10 +2136,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2186,10 +2150,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2200,10 +2164,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2214,10 +2178,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2228,10 +2192,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2242,10 +2206,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D55" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2256,10 +2220,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D56" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2270,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2284,10 +2248,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2298,10 +2262,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2312,10 +2276,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D60" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2326,10 +2290,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D61" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2340,10 +2304,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D62" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2354,10 +2318,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2368,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2382,10 +2346,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2396,10 +2360,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2410,10 +2374,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2424,10 +2388,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2438,10 +2402,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2452,10 +2416,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D70" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2466,10 +2430,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2480,10 +2444,10 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2494,10 +2458,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2508,10 +2472,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2522,10 +2486,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2536,10 +2500,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2550,10 +2514,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2564,10 +2528,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2578,10 +2542,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D79" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2592,10 +2556,10 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2606,10 +2570,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2620,10 +2584,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D82" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2634,10 +2598,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D83" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2648,10 +2612,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D84" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2662,10 +2626,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D85" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2676,10 +2640,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D86" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2690,10 +2654,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2704,10 +2668,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2718,10 +2682,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D89" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2732,10 +2696,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2746,10 +2710,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D91" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2760,10 +2724,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2774,10 +2738,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D93" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2788,7 +2752,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s">
         <v>347</v>
@@ -2802,10 +2766,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2816,10 +2780,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2830,10 +2794,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2844,10 +2808,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2858,10 +2822,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2872,10 +2836,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" t="s">
         <v>331</v>
-      </c>
-      <c r="D100" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2886,10 +2850,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D101" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2900,10 +2864,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D102" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2914,10 +2878,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2928,10 +2892,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2942,10 +2906,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2956,10 +2920,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2970,10 +2934,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2984,10 +2948,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2998,10 +2962,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3012,10 +2976,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D110" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3026,10 +2990,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3040,10 +3004,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3054,10 +3018,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3068,10 +3032,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3082,10 +3046,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3096,10 +3060,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D116" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3110,10 +3074,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" t="s">
         <v>332</v>
-      </c>
-      <c r="D117" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3124,10 +3088,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3138,10 +3102,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3152,10 +3116,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D120" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3166,10 +3130,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D121" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3180,10 +3144,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3194,10 +3158,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D123" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3208,7 +3172,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D124" t="s">
         <v>344</v>
@@ -3222,10 +3186,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D125" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3236,10 +3200,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D126" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3250,10 +3214,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D127" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3264,10 +3228,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128" t="s">
         <v>331</v>
-      </c>
-      <c r="D128" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3278,10 +3242,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D129" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3292,10 +3256,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D130" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3306,10 +3270,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3320,10 +3284,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D132" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3334,10 +3298,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3348,10 +3312,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D134" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3362,10 +3326,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D135" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3376,10 +3340,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D136" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3390,10 +3354,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3404,10 +3368,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D138" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3418,10 +3382,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3432,10 +3396,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3446,10 +3410,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3460,7 +3424,7 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
         <v>344</v>
@@ -3474,10 +3438,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D143" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3488,10 +3452,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D144" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3502,10 +3466,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D145" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3516,10 +3480,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D146" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3530,10 +3494,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3544,10 +3508,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D148" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3558,10 +3522,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D149" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3572,10 +3536,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D150" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3586,10 +3550,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D151" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3600,10 +3564,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3614,10 +3578,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D153" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3628,10 +3592,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D154" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3642,10 +3606,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D155" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3656,10 +3620,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3670,10 +3634,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D157" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3684,10 +3648,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D158" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3698,10 +3662,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D159" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3712,10 +3676,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3726,10 +3690,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D161" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3740,10 +3704,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D162" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3754,10 +3718,10 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3768,10 +3732,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3782,10 +3746,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D165" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3796,10 +3760,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D166" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3810,10 +3774,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D167" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3824,10 +3788,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D168" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3838,10 +3802,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D169" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3852,10 +3816,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3866,10 +3830,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D171" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3880,10 +3844,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3894,10 +3858,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3908,10 +3872,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D174" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3922,10 +3886,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3936,10 +3900,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3950,10 +3914,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D177" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3964,10 +3928,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D178" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3978,10 +3942,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D179" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3992,10 +3956,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D180" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4006,10 +3970,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D181" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4020,10 +3984,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D182" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4034,10 +3998,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D183" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4048,10 +4012,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D184" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4062,10 +4026,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D185" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4076,10 +4040,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D186" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4090,10 +4054,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D187" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4104,10 +4068,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D188" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4118,10 +4082,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D189" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4132,10 +4096,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D190" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4146,10 +4110,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D191" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4160,10 +4124,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D192" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4174,10 +4138,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4188,7 +4152,7 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D194" t="s">
         <v>351</v>
@@ -4202,10 +4166,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D195" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4216,10 +4180,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D196" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4230,10 +4194,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D197" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4244,10 +4208,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D198" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4258,10 +4222,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D199" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4272,10 +4236,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D200" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4286,10 +4250,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D201" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4300,10 +4264,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4314,10 +4278,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D203" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4328,10 +4292,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D204" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4342,10 +4306,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D205" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4356,10 +4320,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D206" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4370,10 +4334,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D207" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4384,10 +4348,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D208" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4398,10 +4362,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D209" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4412,10 +4376,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D210" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4426,10 +4390,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D211" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4440,10 +4404,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D212" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4454,10 +4418,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D213" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4468,10 +4432,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4482,10 +4446,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D215" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4496,7 +4460,7 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D216" t="s">
         <v>352</v>
@@ -4510,10 +4474,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D217" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4524,10 +4488,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D218" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4538,10 +4502,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D219" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4552,10 +4516,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D220" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4566,10 +4530,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D221" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4580,10 +4544,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D222" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4594,10 +4558,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D223" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4608,10 +4572,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D224" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4622,10 +4586,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D225" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4636,10 +4600,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D226" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4650,10 +4614,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D227" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4664,10 +4628,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D228" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4678,10 +4642,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D229" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4692,10 +4656,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D230" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4706,10 +4670,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D231" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4720,10 +4684,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D232" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4734,10 +4698,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D233" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4748,10 +4712,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D234" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4762,10 +4726,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D235" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4776,10 +4740,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D236" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4790,10 +4754,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D237" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4804,10 +4768,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
+        <v>319</v>
+      </c>
+      <c r="D238" t="s">
         <v>331</v>
-      </c>
-      <c r="D238" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4818,10 +4782,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D239" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4832,10 +4796,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D240" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4846,10 +4810,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D241" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4860,10 +4824,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D242" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4874,10 +4838,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D243" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4888,10 +4852,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D244" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4902,10 +4866,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D245" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4916,10 +4880,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D246" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4930,10 +4894,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D247" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4944,10 +4908,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D248" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4958,10 +4922,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D249" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4972,10 +4936,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
+        <v>317</v>
+      </c>
+      <c r="D250" t="s">
         <v>332</v>
-      </c>
-      <c r="D250" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4986,10 +4950,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D251" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5000,10 +4964,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D252" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5014,10 +4978,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D253" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5028,10 +4992,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D254" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5042,10 +5006,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D255" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5056,10 +5020,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D256" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5070,7 +5034,7 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D257" t="s">
         <v>335</v>
@@ -5084,10 +5048,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D258" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5098,10 +5062,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D259" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5112,10 +5076,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D260" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5126,10 +5090,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D261" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5140,10 +5104,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D262" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5154,10 +5118,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D263" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5168,10 +5132,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D264" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5182,10 +5146,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D265" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5196,10 +5160,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D266" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5210,10 +5174,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D267" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5224,10 +5188,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D268" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5238,10 +5202,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D269" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5252,10 +5216,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D270" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5266,10 +5230,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D271" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5280,10 +5244,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D272" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5294,10 +5258,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D273" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5308,10 +5272,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D274" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5322,10 +5286,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D275" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5336,10 +5300,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D276" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5350,10 +5314,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D277" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5364,10 +5328,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D278" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5378,10 +5342,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D279" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5392,10 +5356,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D280" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5406,10 +5370,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D281" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5420,10 +5384,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D282" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5434,10 +5398,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D283" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5448,10 +5412,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D284" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5462,10 +5426,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D285" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5476,10 +5440,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D286" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5490,10 +5454,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D287" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5504,10 +5468,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D288" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5518,10 +5482,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D289" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5532,10 +5496,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D290" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5546,10 +5510,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D291" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5560,10 +5524,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D292" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5574,10 +5538,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D293" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5588,10 +5552,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D294" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5602,10 +5566,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D295" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5616,10 +5580,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D296" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5630,10 +5594,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D297" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5644,10 +5608,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D298" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5658,10 +5622,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D299" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5672,10 +5636,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D300" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5686,10 +5650,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D301" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5700,10 +5664,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D302" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5714,10 +5678,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D303" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5728,10 +5692,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D304" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5742,10 +5706,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D305" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5756,10 +5720,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D306" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5770,10 +5734,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D307" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5784,10 +5748,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D308" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5798,10 +5762,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D309" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5812,10 +5776,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D310" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5826,10 +5790,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D311" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5840,10 +5804,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D312" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5854,182 +5818,14 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D313" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>316</v>
-      </c>
-      <c r="C314" t="s">
-        <v>328</v>
-      </c>
-      <c r="D314" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>317</v>
-      </c>
-      <c r="C315" t="s">
-        <v>329</v>
-      </c>
-      <c r="D315" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>318</v>
-      </c>
-      <c r="C316" t="s">
-        <v>331</v>
-      </c>
-      <c r="D316" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>319</v>
-      </c>
-      <c r="C317" t="s">
-        <v>328</v>
-      </c>
-      <c r="D317" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318" t="s">
-        <v>320</v>
-      </c>
-      <c r="C318" t="s">
-        <v>332</v>
-      </c>
-      <c r="D318" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>321</v>
-      </c>
-      <c r="C319" t="s">
-        <v>328</v>
-      </c>
-      <c r="D319" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>322</v>
-      </c>
-      <c r="C320" t="s">
-        <v>329</v>
-      </c>
-      <c r="D320" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321" t="s">
-        <v>323</v>
-      </c>
-      <c r="C321" t="s">
-        <v>328</v>
-      </c>
-      <c r="D321" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322" t="s">
         <v>324</v>
       </c>
-      <c r="C322" t="s">
-        <v>329</v>
-      </c>
-      <c r="D322" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323" t="s">
-        <v>325</v>
-      </c>
-      <c r="C323" t="s">
-        <v>332</v>
-      </c>
-      <c r="D323" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324" t="s">
-        <v>326</v>
-      </c>
-      <c r="C324" t="s">
-        <v>331</v>
-      </c>
-      <c r="D324" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325" t="s">
-        <v>327</v>
-      </c>
-      <c r="C325" t="s">
-        <v>332</v>
-      </c>
-      <c r="D325" t="s">
-        <v>336</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D325"/>
+  <autoFilter ref="A1:D313"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -73,7 +73,7 @@
     <t>Brady Tkachuk</t>
   </si>
   <si>
-    <t>Mitch Marner</t>
+    <t>Mitchell Marner</t>
   </si>
   <si>
     <t>Elias Pettersson</t>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3802,7 +3802,7 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D169" t="s">
         <v>344</v>
@@ -5051,7 +5051,7 @@
         <v>319</v>
       </c>
       <c r="D258" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -181,316 +181,463 @@
     <t>Miro Heiskanen</t>
   </si>
   <si>
+    <t>Victor Hedman</t>
+  </si>
+  <si>
+    <t>John Carlson</t>
+  </si>
+  <si>
+    <t>Nico Hischier</t>
+  </si>
+  <si>
+    <t>Clayton Keller</t>
+  </si>
+  <si>
+    <t>Dylan Larkin</t>
+  </si>
+  <si>
+    <t>Ilya Samsonov</t>
+  </si>
+  <si>
+    <t>Alex Tuch</t>
+  </si>
+  <si>
+    <t>Mikhail Sergachev</t>
+  </si>
+  <si>
+    <t>Zach Hyman</t>
+  </si>
+  <si>
+    <t>Alex DeBrincat</t>
+  </si>
+  <si>
+    <t>Andrei Vasilevskiy</t>
+  </si>
+  <si>
     <t>Brad Marchand</t>
   </si>
   <si>
-    <t>Victor Hedman</t>
-  </si>
-  <si>
-    <t>John Carlson</t>
-  </si>
-  <si>
-    <t>Nico Hischier</t>
-  </si>
-  <si>
-    <t>Clayton Keller</t>
-  </si>
-  <si>
-    <t>Dylan Larkin</t>
-  </si>
-  <si>
-    <t>Ilya Samsonov</t>
-  </si>
-  <si>
-    <t>Alex Tuch</t>
-  </si>
-  <si>
-    <t>Mikhail Sergachev</t>
-  </si>
-  <si>
-    <t>Zach Hyman</t>
-  </si>
-  <si>
-    <t>Alex DeBrincat</t>
+    <t>Evan Bouchard</t>
+  </si>
+  <si>
+    <t>Jake Guentzel</t>
+  </si>
+  <si>
+    <t>Vitek Vanecek</t>
+  </si>
+  <si>
+    <t>Adrian Kempe</t>
+  </si>
+  <si>
+    <t>Moritz Seider</t>
+  </si>
+  <si>
+    <t>Carter Verhaeghe</t>
+  </si>
+  <si>
+    <t>Filip Gustavsson</t>
+  </si>
+  <si>
+    <t>Brent Burns</t>
+  </si>
+  <si>
+    <t>Alex Pietrangelo</t>
   </si>
   <si>
     <t>Jakob Chychrun</t>
   </si>
   <si>
-    <t>Andrei Vasilevskiy</t>
-  </si>
-  <si>
-    <t>Carter Verhaeghe</t>
-  </si>
-  <si>
-    <t>Evan Bouchard</t>
-  </si>
-  <si>
-    <t>Jake Guentzel</t>
-  </si>
-  <si>
-    <t>Vitek Vanecek</t>
-  </si>
-  <si>
-    <t>Adrian Kempe</t>
+    <t>Jesper Bratt</t>
+  </si>
+  <si>
+    <t>Kevin Fiala</t>
+  </si>
+  <si>
+    <t>Jordan Kyrou</t>
+  </si>
+  <si>
+    <t>Joe Pavelski</t>
+  </si>
+  <si>
+    <t>Andrei Svechnikov</t>
+  </si>
+  <si>
+    <t>Pierre-Luc Dubois</t>
   </si>
   <si>
     <t>Jeff Skinner</t>
   </si>
   <si>
+    <t>Johnny Gaudreau</t>
+  </si>
+  <si>
     <t>Stuart Skinner</t>
   </si>
   <si>
-    <t>Moritz Seider</t>
-  </si>
-  <si>
-    <t>Brent Burns</t>
-  </si>
-  <si>
-    <t>Alex Pietrangelo</t>
-  </si>
-  <si>
-    <t>Filip Gustavsson</t>
-  </si>
-  <si>
-    <t>Jordan Kyrou</t>
-  </si>
-  <si>
-    <t>Joe Pavelski</t>
-  </si>
-  <si>
-    <t>Jesper Bratt</t>
+    <t>Evgeni Malkin</t>
+  </si>
+  <si>
+    <t>Matt Boldy</t>
+  </si>
+  <si>
+    <t>Kris Letang</t>
+  </si>
+  <si>
+    <t>Vince Dunn</t>
+  </si>
+  <si>
+    <t>Jared McCann</t>
+  </si>
+  <si>
+    <t>Brandon Montour</t>
+  </si>
+  <si>
+    <t>Bo Horvat</t>
+  </si>
+  <si>
+    <t>Frederik Andersen</t>
+  </si>
+  <si>
+    <t>Thatcher Demko</t>
+  </si>
+  <si>
+    <t>Jeremy Swayman</t>
+  </si>
+  <si>
+    <t>Darnell Nurse</t>
+  </si>
+  <si>
+    <t>Tyler Toffoli</t>
+  </si>
+  <si>
+    <t>Tristan Jarry</t>
+  </si>
+  <si>
+    <t>Travis Konecny</t>
+  </si>
+  <si>
+    <t>Cole Caufield</t>
+  </si>
+  <si>
+    <t>Chris Kreider</t>
+  </si>
+  <si>
+    <t>Sam Reinhart</t>
   </si>
   <si>
     <t>Sergei Bobrovsky</t>
   </si>
   <si>
-    <t>Kevin Fiala</t>
-  </si>
-  <si>
-    <t>Pierre-Luc Dubois</t>
-  </si>
-  <si>
-    <t>Jeremy Swayman</t>
-  </si>
-  <si>
-    <t>Andrei Svechnikov</t>
-  </si>
-  <si>
-    <t>Kris Letang</t>
-  </si>
-  <si>
-    <t>Chris Kreider</t>
+    <t>Noah Dobson</t>
+  </si>
+  <si>
+    <t>Devon Toews</t>
+  </si>
+  <si>
+    <t>Rasmus Andersson</t>
+  </si>
+  <si>
+    <t>Andrei Kuzmenko</t>
+  </si>
+  <si>
+    <t>Mark Scheifele</t>
+  </si>
+  <si>
+    <t>Martin Necas</t>
+  </si>
+  <si>
+    <t>Elias Lindholm</t>
   </si>
   <si>
     <t>Devon Levi</t>
   </si>
   <si>
-    <t>Matt Boldy</t>
-  </si>
-  <si>
-    <t>Brandon Montour</t>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Thomas Chabot</t>
+  </si>
+  <si>
+    <t>Seth Jones</t>
   </si>
   <si>
     <t>Adin Hill</t>
   </si>
   <si>
-    <t>Johnny Gaudreau</t>
-  </si>
-  <si>
     <t>Jacob Trouba</t>
   </si>
   <si>
-    <t>Frederik Andersen</t>
+    <t>Shea Theodore</t>
+  </si>
+  <si>
+    <t>Claude Giroux</t>
+  </si>
+  <si>
+    <t>Morgan Rielly</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
   </si>
   <si>
     <t>Mark Stone</t>
   </si>
   <si>
-    <t>Travis Konecny</t>
-  </si>
-  <si>
-    <t>Bo Horvat</t>
-  </si>
-  <si>
-    <t>Evgeni Malkin</t>
+    <t>Zach Werenski</t>
+  </si>
+  <si>
+    <t>Luke Hughes</t>
+  </si>
+  <si>
+    <t>Jonathan Huberdeau</t>
+  </si>
+  <si>
+    <t>Patrik Laine</t>
+  </si>
+  <si>
+    <t>Jonathan Marchessault</t>
+  </si>
+  <si>
+    <t>Jamie Benn</t>
+  </si>
+  <si>
+    <t>Pavel Buchnevich</t>
+  </si>
+  <si>
+    <t>Evander Kane</t>
+  </si>
+  <si>
+    <t>Hampus Lindholm</t>
+  </si>
+  <si>
+    <t>Vladimir Tarasenko</t>
+  </si>
+  <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
+    <t>Drew Doughty</t>
+  </si>
+  <si>
+    <t>Anze Kopitar</t>
+  </si>
+  <si>
+    <t>Jacob Markstrom</t>
+  </si>
+  <si>
+    <t>Matty Beniers</t>
+  </si>
+  <si>
+    <t>Joonas Korpisalo</t>
+  </si>
+  <si>
+    <t>Filip Forsberg</t>
+  </si>
+  <si>
+    <t>Nick Suzuki</t>
+  </si>
+  <si>
+    <t>Trevor Zegras</t>
+  </si>
+  <si>
+    <t>Brandon Hagel</t>
+  </si>
+  <si>
+    <t>Tyler Bertuzzi</t>
+  </si>
+  <si>
+    <t>Mats Zuccarello</t>
+  </si>
+  <si>
+    <t>Mathew Barzal</t>
+  </si>
+  <si>
+    <t>Drake Batherson</t>
+  </si>
+  <si>
+    <t>Tyson Barrie</t>
+  </si>
+  <si>
+    <t>Brock Nelson</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Carter Hart</t>
+  </si>
+  <si>
+    <t>Jake DeBrusk</t>
+  </si>
+  <si>
+    <t>Vincent Trocheck</t>
+  </si>
+  <si>
+    <t>Gustav Forsling</t>
+  </si>
+  <si>
+    <t>Aaron Ekblad</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Dawson Mercer</t>
+  </si>
+  <si>
+    <t>Adam Larsson</t>
+  </si>
+  <si>
+    <t>Ville Husso</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
+  </si>
+  <si>
+    <t>Tomas Hertl</t>
+  </si>
+  <si>
+    <t>Rickard Rakell</t>
+  </si>
+  <si>
+    <t>Darcy Kuemper</t>
+  </si>
+  <si>
+    <t>K'Andre Miller</t>
+  </si>
+  <si>
+    <t>Bowen Byram</t>
+  </si>
+  <si>
+    <t>Valeri Nichushkin</t>
+  </si>
+  <si>
+    <t>Troy Terry</t>
+  </si>
+  <si>
+    <t>Connor Brown</t>
+  </si>
+  <si>
+    <t>Philipp Grubauer</t>
+  </si>
+  <si>
+    <t>Josh Norris</t>
+  </si>
+  <si>
+    <t>Logan Cooley</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Robert Thomas</t>
+  </si>
+  <si>
+    <t>Sean Durzi</t>
+  </si>
+  <si>
+    <t>Viktor Arvidsson</t>
+  </si>
+  <si>
+    <t>Nazem Kadri</t>
+  </si>
+  <si>
+    <t>Max Domi</t>
   </si>
   <si>
     <t>Matt Duchene</t>
   </si>
   <si>
-    <t>Cole Caufield</t>
-  </si>
-  <si>
-    <t>Elias Lindholm</t>
-  </si>
-  <si>
-    <t>Claude Giroux</t>
-  </si>
-  <si>
-    <t>Rasmus Andersson</t>
-  </si>
-  <si>
-    <t>Vince Dunn</t>
-  </si>
-  <si>
-    <t>Jamie Benn</t>
-  </si>
-  <si>
-    <t>Darnell Nurse</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
-  </si>
-  <si>
-    <t>Zach Werenski</t>
-  </si>
-  <si>
-    <t>Adam Larsson</t>
-  </si>
-  <si>
-    <t>Jared McCann</t>
-  </si>
-  <si>
-    <t>Sam Reinhart</t>
-  </si>
-  <si>
-    <t>Philipp Grubauer</t>
-  </si>
-  <si>
-    <t>Shea Theodore</t>
-  </si>
-  <si>
-    <t>Dylan Cozens</t>
-  </si>
-  <si>
-    <t>Tony DeAngelo</t>
-  </si>
-  <si>
-    <t>Tyler Toffoli</t>
-  </si>
-  <si>
-    <t>Nick Suzuki</t>
-  </si>
-  <si>
-    <t>Martin Necas</t>
-  </si>
-  <si>
-    <t>Thatcher Demko</t>
-  </si>
-  <si>
-    <t>Morgan Rielly</t>
-  </si>
-  <si>
-    <t>Joonas Korpisalo</t>
-  </si>
-  <si>
-    <t>Thomas Chabot</t>
-  </si>
-  <si>
-    <t>Justin Faulk</t>
-  </si>
-  <si>
-    <t>Evander Kane</t>
+    <t>MacKenzie Weegar</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
   </si>
   <si>
     <t>Owen Tippett</t>
   </si>
   <si>
-    <t>Drew Doughty</t>
-  </si>
-  <si>
-    <t>Brandon Hagel</t>
-  </si>
-  <si>
-    <t>Tristan Jarry</t>
-  </si>
-  <si>
-    <t>Bowen Byram</t>
-  </si>
-  <si>
-    <t>Vladimir Tarasenko</t>
-  </si>
-  <si>
-    <t>Noah Dobson</t>
-  </si>
-  <si>
-    <t>Mark Scheifele</t>
-  </si>
-  <si>
-    <t>Jonathan Marchessault</t>
-  </si>
-  <si>
-    <t>Luke Hughes</t>
-  </si>
-  <si>
-    <t>Darcy Kuemper</t>
-  </si>
-  <si>
-    <t>Devon Toews</t>
+    <t>Filip Hronek</t>
+  </si>
+  <si>
+    <t>John Klingberg</t>
+  </si>
+  <si>
+    <t>Jakub Vrana</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Ivan Barbashev</t>
+  </si>
+  <si>
+    <t>Dylan Strome</t>
+  </si>
+  <si>
+    <t>Jonas Johansson</t>
+  </si>
+  <si>
+    <t>Artturi Lehkonen</t>
+  </si>
+  <si>
+    <t>Taylor Hall</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>Akira Schmid</t>
+  </si>
+  <si>
+    <t>Nikolaj Ehlers</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Matthew Knies</t>
+  </si>
+  <si>
+    <t>Brady Skjei</t>
+  </si>
+  <si>
+    <t>Blake Wheeler</t>
+  </si>
+  <si>
+    <t>Cam Talbot</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
+    <t>Chandler Stephenson</t>
+  </si>
+  <si>
+    <t>Torey Krug</t>
   </si>
   <si>
     <t>Marc-Andre Fleury</t>
   </si>
   <si>
-    <t>Patrik Laine</t>
-  </si>
-  <si>
-    <t>Drake Batherson</t>
-  </si>
-  <si>
-    <t>Noah Hanifin</t>
-  </si>
-  <si>
-    <t>Tyson Barrie</t>
-  </si>
-  <si>
-    <t>Filip Forsberg</t>
-  </si>
-  <si>
-    <t>John Klingberg</t>
-  </si>
-  <si>
-    <t>Cam Talbot</t>
-  </si>
-  <si>
-    <t>Andrei Kuzmenko</t>
-  </si>
-  <si>
-    <t>Jonathan Huberdeau</t>
-  </si>
-  <si>
-    <t>Seth Jones</t>
-  </si>
-  <si>
-    <t>Mats Zuccarello</t>
-  </si>
-  <si>
-    <t>Jacob Markstrom</t>
-  </si>
-  <si>
-    <t>Pavel Buchnevich</t>
-  </si>
-  <si>
-    <t>Hampus Lindholm</t>
-  </si>
-  <si>
-    <t>Dawson Mercer</t>
-  </si>
-  <si>
-    <t>Aaron Ekblad</t>
-  </si>
-  <si>
-    <t>Brock Nelson</t>
-  </si>
-  <si>
-    <t>Matty Beniers</t>
-  </si>
-  <si>
-    <t>Trevor Zegras</t>
-  </si>
-  <si>
-    <t>Anze Kopitar</t>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>David Perron</t>
+  </si>
+  <si>
+    <t>Jordan Eberle</t>
+  </si>
+  <si>
+    <t>Logan Couture</t>
+  </si>
+  <si>
+    <t>Evgeny Kuznetsov</t>
+  </si>
+  <si>
+    <t>Jack Campbell</t>
   </si>
   <si>
     <t>Pyotr Kochetkov</t>
@@ -502,178 +649,79 @@
     <t>Jordan Binnington</t>
   </si>
   <si>
-    <t>Vincent Trocheck</t>
-  </si>
-  <si>
-    <t>Shayne Gostisbehere</t>
-  </si>
-  <si>
-    <t>Eeli Tolvanen</t>
-  </si>
-  <si>
-    <t>Tyler Bertuzzi</t>
-  </si>
-  <si>
-    <t>Josh Norris</t>
-  </si>
-  <si>
-    <t>Mathew Barzal</t>
+    <t>Owen Power</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Jeff Petry</t>
   </si>
   <si>
     <t>Jake Walman</t>
   </si>
   <si>
-    <t>Ivan Barbashev</t>
-  </si>
-  <si>
-    <t>Tomas Hertl</t>
-  </si>
-  <si>
-    <t>Gustav Forsling</t>
-  </si>
-  <si>
-    <t>Viktor Arvidsson</t>
-  </si>
-  <si>
-    <t>Rickard Rakell</t>
-  </si>
-  <si>
-    <t>Jared Spurgeon</t>
-  </si>
-  <si>
     <t>Nick Schmaltz</t>
   </si>
   <si>
-    <t>Jake DeBrusk</t>
-  </si>
-  <si>
-    <t>Carter Hart</t>
-  </si>
-  <si>
-    <t>Nikolaj Ehlers</t>
-  </si>
-  <si>
-    <t>Jeff Petry</t>
-  </si>
-  <si>
-    <t>Ville Husso</t>
-  </si>
-  <si>
-    <t>Brady Skjei</t>
-  </si>
-  <si>
-    <t>Jonas Johansson</t>
-  </si>
-  <si>
-    <t>Logan Thompson</t>
-  </si>
-  <si>
-    <t>Nazem Kadri</t>
-  </si>
-  <si>
-    <t>K'Andre Miller</t>
-  </si>
-  <si>
     <t>Sean Couturier</t>
   </si>
   <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Lucas Raymond</t>
+  </si>
+  <si>
     <t>Rafael Harvey-Pinard</t>
   </si>
   <si>
-    <t>Artturi Lehkonen</t>
-  </si>
-  <si>
-    <t>Filip Hronek</t>
-  </si>
-  <si>
-    <t>Valeri Nichushkin</t>
-  </si>
-  <si>
-    <t>David Perron</t>
-  </si>
-  <si>
-    <t>Connor Brown</t>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Mattias Ekholm</t>
   </si>
   <si>
     <t>Ivan Provorov</t>
   </si>
   <si>
-    <t>Blake Wheeler</t>
-  </si>
-  <si>
-    <t>Logan Cooley</t>
-  </si>
-  <si>
-    <t>Neal Pionk</t>
-  </si>
-  <si>
-    <t>Cam Fowler</t>
+    <t>Juuso Valimaki</t>
   </si>
   <si>
     <t>Kevin Shattenkirk</t>
   </si>
   <si>
-    <t>Troy Terry</t>
-  </si>
-  <si>
-    <t>Juuso Valimaki</t>
-  </si>
-  <si>
-    <t>MacKenzie Weegar</t>
-  </si>
-  <si>
-    <t>Owen Power</t>
-  </si>
-  <si>
-    <t>Jakub Vrana</t>
-  </si>
-  <si>
-    <t>Max Domi</t>
+    <t>Pavel Zacha</t>
+  </si>
+  <si>
+    <t>Jake Sanderson</t>
   </si>
   <si>
     <t>T.J. Oshie</t>
   </si>
   <si>
-    <t>Robert Thomas</t>
-  </si>
-  <si>
-    <t>Torey Krug</t>
-  </si>
-  <si>
-    <t>Akira Schmid</t>
-  </si>
-  <si>
-    <t>Jordan Eberle</t>
-  </si>
-  <si>
-    <t>Tom Wilson</t>
-  </si>
-  <si>
-    <t>Chandler Stephenson</t>
+    <t>Phillip Danault</t>
+  </si>
+  <si>
+    <t>Kevin Hayes</t>
+  </si>
+  <si>
+    <t>Dmitry Orlov</t>
   </si>
   <si>
     <t>Kirill Marchenko</t>
   </si>
   <si>
-    <t>Ryan Graves</t>
-  </si>
-  <si>
     <t>Ryan Reaves</t>
   </si>
   <si>
     <t>Lawson Crouse</t>
   </si>
   <si>
-    <t>Brayden McNabb</t>
-  </si>
-  <si>
     <t>William Karlsson</t>
   </si>
   <si>
-    <t>Adam Fantilli</t>
-  </si>
-  <si>
-    <t>Logan Couture</t>
+    <t>Sam Bennett</t>
   </si>
   <si>
     <t>Colton Parayko</t>
@@ -682,34 +730,25 @@
     <t>Luke Schenn</t>
   </si>
   <si>
-    <t>Evgeny Kuznetsov</t>
-  </si>
-  <si>
-    <t>Sean Durzi</t>
-  </si>
-  <si>
     <t>Charlie Coyle</t>
   </si>
   <si>
-    <t>Patrick Kane</t>
-  </si>
-  <si>
-    <t>Jack Campbell</t>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>Brock Boeser</t>
+  </si>
+  <si>
+    <t>Reilly Smith</t>
   </si>
   <si>
     <t>Brandt Clarke</t>
   </si>
   <si>
-    <t>Dmitry Orlov</t>
-  </si>
-  <si>
-    <t>Matthew Knies</t>
-  </si>
-  <si>
     <t>Radko Gudas</t>
   </si>
   <si>
-    <t>Pavel Zacha</t>
+    <t>Tyler Seguin</t>
   </si>
   <si>
     <t>Erik Haula</t>
@@ -718,46 +757,34 @@
     <t>Matias Maccelli</t>
   </si>
   <si>
-    <t>Mattias Ekholm</t>
-  </si>
-  <si>
     <t>Max Pacioretty</t>
   </si>
   <si>
     <t>Brandon Carlo</t>
   </si>
   <si>
-    <t>Dylan Strome</t>
-  </si>
-  <si>
-    <t>Erik Gustafsson</t>
-  </si>
-  <si>
-    <t>Phillip Danault</t>
-  </si>
-  <si>
     <t>Matt Grzelcyk</t>
   </si>
   <si>
-    <t>Jake Sanderson</t>
-  </si>
-  <si>
     <t>Spencer Knight</t>
   </si>
   <si>
     <t>Karel Vejmelka</t>
   </si>
   <si>
-    <t>Jake McCabe</t>
-  </si>
-  <si>
-    <t>Taylor Hall</t>
-  </si>
-  <si>
     <t>Lukas Reichel</t>
   </si>
   <si>
-    <t>Lucas Raymond</t>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Mason McTavish</t>
+  </si>
+  <si>
+    <t>Rasmus Sandin</t>
+  </si>
+  <si>
+    <t>Teuvo Teravainen</t>
   </si>
   <si>
     <t>Josh Anderson</t>
@@ -766,18 +793,12 @@
     <t>Pheonix Copley</t>
   </si>
   <si>
+    <t>Jonathan Drouin</t>
+  </si>
+  <si>
     <t>Ukko-Pekka Luukkonen</t>
   </si>
   <si>
-    <t>Victor Olofsson</t>
-  </si>
-  <si>
-    <t>Mason McTavish</t>
-  </si>
-  <si>
-    <t>Brock Boeser</t>
-  </si>
-  <si>
     <t>Tomas Tatar</t>
   </si>
   <si>
@@ -790,12 +811,6 @@
     <t>Esa Lindell</t>
   </si>
   <si>
-    <t>Kevin Hayes</t>
-  </si>
-  <si>
-    <t>Jonathan Drouin</t>
-  </si>
-  <si>
     <t>Semyon Varlamov</t>
   </si>
   <si>
@@ -805,18 +820,18 @@
     <t>Ryan Hartman</t>
   </si>
   <si>
-    <t>Reilly Smith</t>
-  </si>
-  <si>
-    <t>Tyler Seguin</t>
-  </si>
-  <si>
-    <t>Sam Bennett</t>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>Anders Lee</t>
   </si>
   <si>
     <t>Luke Evangelista</t>
   </si>
   <si>
+    <t>Elvis Merzlikins</t>
+  </si>
+  <si>
     <t>Bryan Rust</t>
   </si>
   <si>
@@ -826,42 +841,30 @@
     <t>Connor Clifton</t>
   </si>
   <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
     <t>Ryan Johansen</t>
   </si>
   <si>
-    <t>Anders Lee</t>
-  </si>
-  <si>
-    <t>Elvis Merzlikins</t>
+    <t>Michael Bunting</t>
   </si>
   <si>
     <t>Tanner Jeannot</t>
   </si>
   <si>
-    <t>Rasmus Sandin</t>
-  </si>
-  <si>
     <t>Kaapo Kakko</t>
   </si>
   <si>
     <t>Oliver Ekman-Larsson</t>
   </si>
   <si>
-    <t>Teuvo Teravainen</t>
-  </si>
-  <si>
     <t>Anthony Beauvillier</t>
   </si>
   <si>
     <t>Kaapo Kahkonen</t>
   </si>
   <si>
-    <t>Alexis Lafreniere</t>
-  </si>
-  <si>
-    <t>Jaccob Slavin</t>
-  </si>
-  <si>
     <t>Casey Mittelstadt</t>
   </si>
   <si>
@@ -871,30 +874,27 @@
     <t>James van Riemsdyk</t>
   </si>
   <si>
+    <t>Seth Jarvis</t>
+  </si>
+  <si>
     <t>Jamie Drysdale</t>
   </si>
   <si>
-    <t>Michael Bunting</t>
-  </si>
-  <si>
     <t>Cam Atkinson</t>
   </si>
   <si>
+    <t>Brayden Schenn</t>
+  </si>
+  <si>
     <t>Gabriel Vilardi</t>
   </si>
   <si>
     <t>Alexander Romanov</t>
   </si>
   <si>
-    <t>Brayden Schenn</t>
-  </si>
-  <si>
     <t>Joseph Woll</t>
   </si>
   <si>
-    <t>Seth Jarvis</t>
-  </si>
-  <si>
     <t>Boone Jenner</t>
   </si>
   <si>
@@ -1060,6 +1060,9 @@
     <t>CBJ</t>
   </si>
   <si>
+    <t>SEA</t>
+  </si>
+  <si>
     <t>PHI</t>
   </si>
   <si>
@@ -1067,9 +1070,6 @@
   </si>
   <si>
     <t>CGY</t>
-  </si>
-  <si>
-    <t>SEA</t>
   </si>
   <si>
     <t>ANA</t>
@@ -2164,10 +2164,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2192,10 +2192,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2206,10 +2206,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2220,10 +2220,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2234,10 +2234,10 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2248,10 +2248,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2262,10 +2262,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2276,10 +2276,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2290,10 +2290,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2304,10 +2304,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2318,10 +2318,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2332,10 +2332,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2346,10 +2346,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2360,10 +2360,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2374,10 +2374,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2388,10 +2388,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>316</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2416,10 +2416,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2430,10 +2430,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2447,7 +2447,7 @@
         <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2461,7 +2461,7 @@
         <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2472,10 +2472,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2486,10 +2486,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2528,10 +2528,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2542,10 +2542,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2559,7 +2559,7 @@
         <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2570,10 +2570,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>320</v>
       </c>
       <c r="D82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2598,10 +2598,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D83" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2612,10 +2612,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2626,10 +2626,10 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D85" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2640,10 +2640,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2657,7 +2657,7 @@
         <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2682,10 +2682,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2696,10 +2696,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2710,10 +2710,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2727,7 +2727,7 @@
         <v>320</v>
       </c>
       <c r="D92" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2738,10 +2738,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2766,10 +2766,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2780,10 +2780,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2794,10 +2794,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D97" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2808,10 +2808,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2825,7 +2825,7 @@
         <v>316</v>
       </c>
       <c r="D99" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2836,10 +2836,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2853,7 +2853,7 @@
         <v>319</v>
       </c>
       <c r="D101" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2867,7 +2867,7 @@
         <v>319</v>
       </c>
       <c r="D102" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2878,10 +2878,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2892,10 +2892,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2909,7 +2909,7 @@
         <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2920,10 +2920,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D106" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
         <v>350</v>
@@ -2948,10 +2948,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2965,7 +2965,7 @@
         <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2976,10 +2976,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D110" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>319</v>
       </c>
       <c r="D111" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3004,10 +3004,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D112" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3021,7 +3021,7 @@
         <v>319</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3032,10 +3032,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3046,10 +3046,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3060,10 +3060,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3074,10 +3074,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3091,7 +3091,7 @@
         <v>319</v>
       </c>
       <c r="D118" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3102,10 +3102,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3119,7 +3119,7 @@
         <v>319</v>
       </c>
       <c r="D120" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3133,7 +3133,7 @@
         <v>319</v>
       </c>
       <c r="D121" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3147,7 +3147,7 @@
         <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3158,10 +3158,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3172,10 +3172,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D124" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3189,7 +3189,7 @@
         <v>318</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3200,10 +3200,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D126" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3214,10 +3214,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3228,10 +3228,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D128" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3242,10 +3242,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D129" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3259,7 +3259,7 @@
         <v>316</v>
       </c>
       <c r="D130" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3270,10 +3270,10 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3284,10 +3284,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D132" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3301,7 +3301,7 @@
         <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3312,10 +3312,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D134" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3329,7 +3329,7 @@
         <v>320</v>
       </c>
       <c r="D135" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3343,7 +3343,7 @@
         <v>318</v>
       </c>
       <c r="D136" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3354,10 +3354,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3368,10 +3368,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3382,10 +3382,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D139" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3399,7 +3399,7 @@
         <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3410,10 +3410,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D141" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3424,10 +3424,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D142" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3438,10 +3438,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D143" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3452,10 +3452,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3466,10 +3466,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D145" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3480,10 +3480,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3511,7 +3511,7 @@
         <v>318</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3522,10 +3522,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D149" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3536,10 +3536,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D150" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3564,10 +3564,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D152" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3581,7 +3581,7 @@
         <v>316</v>
       </c>
       <c r="D153" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3592,10 +3592,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3606,10 +3606,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3623,7 +3623,7 @@
         <v>320</v>
       </c>
       <c r="D156" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3634,10 +3634,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3648,10 +3648,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D158" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3662,10 +3662,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D159" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3679,7 +3679,7 @@
         <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3690,10 +3690,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D161" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3704,10 +3704,10 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3721,7 +3721,7 @@
         <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3732,10 +3732,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3746,10 +3746,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D165" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3763,7 +3763,7 @@
         <v>316</v>
       </c>
       <c r="D166" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3777,7 +3777,7 @@
         <v>316</v>
       </c>
       <c r="D167" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3788,10 +3788,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D168" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3802,10 +3802,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D169" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3816,10 +3816,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D170" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3830,10 +3830,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3847,7 +3847,7 @@
         <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3858,10 +3858,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D173" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3872,10 +3872,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D174" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3886,10 +3886,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D175" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3900,10 +3900,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D176" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3914,10 +3914,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D177" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3931,7 +3931,7 @@
         <v>319</v>
       </c>
       <c r="D178" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3942,10 +3942,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D179" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3956,10 +3956,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D180" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3970,10 +3970,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D181" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3984,10 +3984,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D182" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4001,7 +4001,7 @@
         <v>316</v>
       </c>
       <c r="D183" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4012,10 +4012,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D184" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4040,10 +4040,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D186" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4054,10 +4054,10 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D187" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4068,10 +4068,10 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D188" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4082,10 +4082,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D189" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4096,10 +4096,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D190" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4110,10 +4110,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D191" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4124,10 +4124,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D192" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4138,10 +4138,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D193" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4152,10 +4152,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D194" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4166,10 +4166,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D195" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4183,7 +4183,7 @@
         <v>316</v>
       </c>
       <c r="D196" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4197,7 +4197,7 @@
         <v>319</v>
       </c>
       <c r="D197" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4208,10 +4208,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D198" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4225,7 +4225,7 @@
         <v>319</v>
       </c>
       <c r="D199" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4239,7 +4239,7 @@
         <v>318</v>
       </c>
       <c r="D200" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4250,10 +4250,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D201" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4267,7 +4267,7 @@
         <v>316</v>
       </c>
       <c r="D202" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4281,7 +4281,7 @@
         <v>316</v>
       </c>
       <c r="D203" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4292,10 +4292,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D204" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4309,7 +4309,7 @@
         <v>320</v>
       </c>
       <c r="D205" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4320,10 +4320,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D206" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4334,10 +4334,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D207" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4348,10 +4348,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D208" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4362,10 +4362,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D209" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4379,7 +4379,7 @@
         <v>319</v>
       </c>
       <c r="D210" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4390,10 +4390,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D211" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D212" t="s">
         <v>342</v>
@@ -4418,10 +4418,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D213" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D214" t="s">
         <v>340</v>
@@ -4446,10 +4446,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D215" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4460,10 +4460,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D216" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4477,7 +4477,7 @@
         <v>319</v>
       </c>
       <c r="D217" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4491,7 +4491,7 @@
         <v>319</v>
       </c>
       <c r="D218" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4502,10 +4502,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D219" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D221" t="s">
         <v>322</v>
@@ -4544,10 +4544,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D222" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4558,10 +4558,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D223" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4572,10 +4572,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D224" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4586,10 +4586,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D225" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4600,10 +4600,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D226" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4617,7 +4617,7 @@
         <v>319</v>
       </c>
       <c r="D227" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4628,10 +4628,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D228" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4642,10 +4642,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D229" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4670,10 +4670,10 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D231" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4684,10 +4684,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D232" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4701,7 +4701,7 @@
         <v>319</v>
       </c>
       <c r="D233" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4712,10 +4712,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D234" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4726,10 +4726,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D235" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4740,10 +4740,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D236" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4754,10 +4754,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D237" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4768,10 +4768,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D238" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4782,10 +4782,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D239" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4796,10 +4796,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4810,10 +4810,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D241" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4827,7 +4827,7 @@
         <v>318</v>
       </c>
       <c r="D242" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4841,7 +4841,7 @@
         <v>318</v>
       </c>
       <c r="D243" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4855,7 +4855,7 @@
         <v>318</v>
       </c>
       <c r="D244" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4866,10 +4866,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D245" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4880,10 +4880,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D246" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4897,7 +4897,7 @@
         <v>320</v>
       </c>
       <c r="D247" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4908,10 +4908,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D248" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4922,10 +4922,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D249" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4936,10 +4936,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4950,10 +4950,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D251" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4964,10 +4964,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D252" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4978,10 +4978,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D253" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4992,10 +4992,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D254" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5006,10 +5006,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D255" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5037,7 +5037,7 @@
         <v>320</v>
       </c>
       <c r="D257" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5048,10 +5048,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D258" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5062,10 +5062,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D259" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5076,10 +5076,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D260" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5090,7 +5090,7 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D261" t="s">
         <v>326</v>
@@ -5104,10 +5104,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D262" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5118,10 +5118,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D263" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5135,7 +5135,7 @@
         <v>317</v>
       </c>
       <c r="D264" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5146,10 +5146,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D265" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5160,10 +5160,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D266" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5174,10 +5174,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D267" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5188,10 +5188,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D268" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5202,10 +5202,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D269" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5216,10 +5216,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D270" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5233,7 +5233,7 @@
         <v>319</v>
       </c>
       <c r="D271" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5244,7 +5244,7 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D272" t="s">
         <v>333</v>
@@ -5258,10 +5258,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D273" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5289,7 +5289,7 @@
         <v>318</v>
       </c>
       <c r="D275" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5300,10 +5300,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D276" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5314,10 +5314,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D277" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5328,10 +5328,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D278" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5342,10 +5342,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D279" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5359,7 +5359,7 @@
         <v>316</v>
       </c>
       <c r="D280" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5370,10 +5370,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D281" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5384,10 +5384,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D282" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5398,7 +5398,7 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D283" t="s">
         <v>341</v>
@@ -5412,10 +5412,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D284" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5426,10 +5426,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D285" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5440,10 +5440,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D286" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5457,7 +5457,7 @@
         <v>316</v>
       </c>
       <c r="D287" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5468,10 +5468,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D288" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5482,10 +5482,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D289" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5513,7 +5513,7 @@
         <v>319</v>
       </c>
       <c r="D291" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5541,7 +5541,7 @@
         <v>319</v>
       </c>
       <c r="D293" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5569,7 +5569,7 @@
         <v>318</v>
       </c>
       <c r="D295" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5611,7 +5611,7 @@
         <v>317</v>
       </c>
       <c r="D298" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5625,7 +5625,7 @@
         <v>316</v>
       </c>
       <c r="D299" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>318</v>
       </c>
       <c r="D300" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5748,7 +5748,7 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D308" t="s">
         <v>351</v>
@@ -5807,7 +5807,7 @@
         <v>320</v>
       </c>
       <c r="D312" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -3903,7 +3903,7 @@
         <v>317</v>
       </c>
       <c r="D176" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5331,7 +5331,7 @@
         <v>318</v>
       </c>
       <c r="D278" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="279" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -5541,7 +5541,7 @@
         <v>319</v>
       </c>
       <c r="D293" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="294" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -5051,7 +5051,7 @@
         <v>318</v>
       </c>
       <c r="D258" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="259" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -5415,7 +5415,7 @@
         <v>319</v>
       </c>
       <c r="D284" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -2895,7 +2895,7 @@
         <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2937,7 +2937,7 @@
         <v>316</v>
       </c>
       <c r="D107" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -898,7 +898,7 @@
     <t>Boone Jenner</t>
   </si>
   <si>
-    <t>Michael Matheson</t>
+    <t>Mike Matheson</t>
   </si>
   <si>
     <t>Wyatt Johnston</t>

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -1051,6 +1051,9 @@
     <t>DET</t>
   </si>
   <si>
+    <t>SJ</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
@@ -1073,9 +1076,6 @@
   </si>
   <si>
     <t>ANA</t>
-  </si>
-  <si>
-    <t>SJ</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2349,7 @@
         <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2377,7 +2377,7 @@
         <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2489,7 +2489,7 @@
         <v>318</v>
       </c>
       <c r="D75" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2503,7 +2503,7 @@
         <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2573,7 +2573,7 @@
         <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2643,7 +2643,7 @@
         <v>319</v>
       </c>
       <c r="D86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2657,7 +2657,7 @@
         <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2783,7 +2783,7 @@
         <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2797,7 +2797,7 @@
         <v>317</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2881,7 +2881,7 @@
         <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2895,7 +2895,7 @@
         <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3077,7 +3077,7 @@
         <v>319</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3119,7 +3119,7 @@
         <v>319</v>
       </c>
       <c r="D120" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3147,7 +3147,7 @@
         <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3161,7 +3161,7 @@
         <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3203,7 +3203,7 @@
         <v>318</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3245,7 +3245,7 @@
         <v>317</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3273,7 +3273,7 @@
         <v>319</v>
       </c>
       <c r="D131" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3287,7 +3287,7 @@
         <v>316</v>
       </c>
       <c r="D132" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3301,7 +3301,7 @@
         <v>320</v>
       </c>
       <c r="D133" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3315,7 +3315,7 @@
         <v>316</v>
       </c>
       <c r="D134" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3357,7 +3357,7 @@
         <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3371,7 +3371,7 @@
         <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3497,7 +3497,7 @@
         <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3567,7 +3567,7 @@
         <v>319</v>
       </c>
       <c r="D152" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3595,7 +3595,7 @@
         <v>319</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3637,7 +3637,7 @@
         <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3693,7 +3693,7 @@
         <v>319</v>
       </c>
       <c r="D161" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3721,7 +3721,7 @@
         <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3749,7 +3749,7 @@
         <v>320</v>
       </c>
       <c r="D165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3791,7 +3791,7 @@
         <v>316</v>
       </c>
       <c r="D168" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3805,7 +3805,7 @@
         <v>316</v>
       </c>
       <c r="D169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3833,7 +3833,7 @@
         <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3847,7 +3847,7 @@
         <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3889,7 +3889,7 @@
         <v>319</v>
       </c>
       <c r="D175" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3917,7 +3917,7 @@
         <v>317</v>
       </c>
       <c r="D177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3959,7 +3959,7 @@
         <v>318</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4057,7 +4057,7 @@
         <v>319</v>
       </c>
       <c r="D187" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4155,7 +4155,7 @@
         <v>320</v>
       </c>
       <c r="D194" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4169,7 +4169,7 @@
         <v>317</v>
       </c>
       <c r="D195" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4197,7 +4197,7 @@
         <v>319</v>
       </c>
       <c r="D197" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4253,7 +4253,7 @@
         <v>317</v>
       </c>
       <c r="D201" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4267,7 +4267,7 @@
         <v>316</v>
       </c>
       <c r="D202" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4281,7 +4281,7 @@
         <v>316</v>
       </c>
       <c r="D203" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4323,7 +4323,7 @@
         <v>318</v>
       </c>
       <c r="D206" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4337,7 +4337,7 @@
         <v>320</v>
       </c>
       <c r="D207" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4421,7 +4421,7 @@
         <v>316</v>
       </c>
       <c r="D213" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4463,7 +4463,7 @@
         <v>318</v>
       </c>
       <c r="D216" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4505,7 +4505,7 @@
         <v>319</v>
       </c>
       <c r="D219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4589,7 +4589,7 @@
         <v>316</v>
       </c>
       <c r="D225" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4603,7 +4603,7 @@
         <v>316</v>
       </c>
       <c r="D226" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4631,7 +4631,7 @@
         <v>317</v>
       </c>
       <c r="D228" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4701,7 +4701,7 @@
         <v>319</v>
       </c>
       <c r="D233" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>319</v>
       </c>
       <c r="D239" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4799,7 +4799,7 @@
         <v>319</v>
       </c>
       <c r="D240" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4953,7 +4953,7 @@
         <v>316</v>
       </c>
       <c r="D251" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4995,7 +4995,7 @@
         <v>317</v>
       </c>
       <c r="D254" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5009,7 +5009,7 @@
         <v>320</v>
       </c>
       <c r="D255" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5051,7 +5051,7 @@
         <v>318</v>
       </c>
       <c r="D258" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5065,7 +5065,7 @@
         <v>316</v>
       </c>
       <c r="D259" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5079,7 +5079,7 @@
         <v>320</v>
       </c>
       <c r="D260" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5121,7 +5121,7 @@
         <v>319</v>
       </c>
       <c r="D263" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5191,7 +5191,7 @@
         <v>320</v>
       </c>
       <c r="D268" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5219,7 +5219,7 @@
         <v>320</v>
       </c>
       <c r="D270" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5275,7 +5275,7 @@
         <v>318</v>
       </c>
       <c r="D274" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5331,7 +5331,7 @@
         <v>318</v>
       </c>
       <c r="D278" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5345,7 +5345,7 @@
         <v>320</v>
       </c>
       <c r="D279" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5359,7 +5359,7 @@
         <v>316</v>
       </c>
       <c r="D280" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5373,7 +5373,7 @@
         <v>316</v>
       </c>
       <c r="D281" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>319</v>
       </c>
       <c r="D284" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5429,7 +5429,7 @@
         <v>317</v>
       </c>
       <c r="D285" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5443,7 +5443,7 @@
         <v>316</v>
       </c>
       <c r="D286" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5499,7 +5499,7 @@
         <v>316</v>
       </c>
       <c r="D290" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5513,7 +5513,7 @@
         <v>319</v>
       </c>
       <c r="D291" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5569,7 +5569,7 @@
         <v>318</v>
       </c>
       <c r="D295" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5597,7 +5597,7 @@
         <v>318</v>
       </c>
       <c r="D297" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5611,7 +5611,7 @@
         <v>317</v>
       </c>
       <c r="D298" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5625,7 +5625,7 @@
         <v>316</v>
       </c>
       <c r="D299" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>318</v>
       </c>
       <c r="D300" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5681,7 +5681,7 @@
         <v>318</v>
       </c>
       <c r="D303" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5709,7 +5709,7 @@
         <v>318</v>
       </c>
       <c r="D305" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5751,7 +5751,7 @@
         <v>317</v>
       </c>
       <c r="D308" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5807,7 +5807,7 @@
         <v>320</v>
       </c>
       <c r="D312" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="313" spans="1:4">

--- a/docs/FantasyProsHockeyDraft.xlsx
+++ b/docs/FantasyProsHockeyDraft.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="354">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -958,7 +958,7 @@
     <t>Conor Garland</t>
   </si>
   <si>
-    <t>Pavel Francouz</t>
+    <t>Pavel</t>
   </si>
   <si>
     <t>Jake Allen</t>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>ANA</t>
+  </si>
+  <si>
+    <t>Francouz</t>
   </si>
 </sst>
 </file>
@@ -5793,7 +5796,7 @@
         <v>320</v>
       </c>
       <c r="D311" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:4">
